--- a/Reports/IndMFData/IndMF_SmallCap.xlsx
+++ b/Reports/IndMFData/IndMF_SmallCap.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/IndMFData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869D588C-E8F5-D244-B7C1-AF5BF41DEDB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4E0B69B5-FFEB-C54D-8763-8253AD0074FA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="7" windowHeight="19380" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="SmallCap" sheetId="1" r:id="rId1"/>
-    <sheet name="UNDERLYINGINDEX" sheetId="2" r:id="rId2"/>
-    <sheet name="AUM" sheetId="3" r:id="rId3"/>
-    <sheet name="EXPENSERATIO" sheetId="4" r:id="rId4"/>
-    <sheet name="MANAGER" sheetId="5" r:id="rId5"/>
-    <sheet name="PERATIO" sheetId="6" r:id="rId6"/>
-    <sheet name="PBRATIO" sheetId="7" r:id="rId7"/>
+    <sheet name="SmallCap" r:id="rId1" sheetId="1"/>
+    <sheet name="UNDERLYINGINDEX" r:id="rId2" sheetId="2"/>
+    <sheet name="AUM" r:id="rId3" sheetId="3"/>
+    <sheet name="EXPENSERATIO" r:id="rId4" sheetId="4"/>
+    <sheet name="MANAGER" r:id="rId5" sheetId="5"/>
+    <sheet name="PERATIO" r:id="rId6" sheetId="6"/>
+    <sheet name="PBRATIO" r:id="rId7" sheetId="7"/>
+    <sheet name="52Week" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="162">
   <si>
     <t>Nov_21</t>
   </si>
@@ -449,12 +450,96 @@
   </si>
   <si>
     <t>1.79%</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>39.30 --- 47.98 
+ 22-Aug-2019 --- 02-Apr-2019</t>
+  </si>
+  <si>
+    <t>26.86 --- 33.98 
+ 10-Dec-2018 --- 04-Nov-2019</t>
+  </si>
+  <si>
+    <t>49.72 --- 58.52 
+ 18-Feb-2019 --- 04-Nov-2019</t>
+  </si>
+  <si>
+    <t>67.92 --- 78.70 
+ 05-Aug-2019 --- 03-Jun-2019</t>
+  </si>
+  <si>
+    <t>36.21 --- 43.87 
+ 22-Aug-2019 --- 27-May-2019</t>
+  </si>
+  <si>
+    <t>49.61 --- 59.25 
+ 22-Aug-2019 --- 28-May-2019</t>
+  </si>
+  <si>
+    <t>22.17 --- 27.42 
+ 18-Feb-2019 --- 04-Jun-2019</t>
+  </si>
+  <si>
+    <t>9.57 --- 10.92 
+ 05-Aug-2019 --- 27-May-2019</t>
+  </si>
+  <si>
+    <t>30.03 --- 38.16 
+ 23-Aug-2019 --- 01-Apr-2019</t>
+  </si>
+  <si>
+    <t>9.96 --- 10.72 
+ 07-Oct-2019 --- 04-Nov-2019</t>
+  </si>
+  <si>
+    <t>8.58 --- 10.15 
+ 22-Aug-2019 --- 28-May-2019</t>
+  </si>
+  <si>
+    <t>70.67 --- 88.90 
+ 22-Aug-2019 --- 28-May-2019</t>
+  </si>
+  <si>
+    <t>9.36 --- 10.91 
+ 22-Aug-2019 --- 28-May-2019</t>
+  </si>
+  <si>
+    <t>9.85 --- 11.57 
+ 05-Aug-2019 --- 28-May-2019</t>
+  </si>
+  <si>
+    <t>49.44 --- 59.27 
+ 22-Aug-2019 --- 01-Apr-2019</t>
+  </si>
+  <si>
+    <t>8.61 --- 10.59 
+ 23-Aug-2019 --- 15-Apr-2019</t>
+  </si>
+  <si>
+    <t>43.63 --- 53.34 
+ 22-Aug-2019 --- 02-Apr-2019</t>
+  </si>
+  <si>
+    <t>9.11 --- 10.31 
+ 22-Aug-2019 --- 28-May-2019</t>
+  </si>
+  <si>
+    <t>36.46 --- 53.78 
+ 22-Aug-2019 --- 19-Dec-2018</t>
+  </si>
+  <si>
+    <t>12.45 --- 14.71 
+ 22-Aug-2019 --- 16-Apr-2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,256 +577,278 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="291">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="10" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -766,10 +873,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -786,10 +893,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -824,7 +931,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -876,7 +983,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -987,21 +1094,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1018,7 +1125,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1070,26 +1177,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="8.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1454,12 +1560,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E10517-3041-A548-8327-A322F0969D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E10517-3041-A548-8327-A322F0969D22}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1468,9 +1574,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="25.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1724,12 +1830,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31A2CC3-117B-3044-9A40-45E232EE90D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31A2CC3-117B-3044-9A40-45E232EE90D3}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1738,9 +1844,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1994,12 +2100,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7F83E3-8D7E-E84F-B4A5-9AABCBB25C75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7F83E3-8D7E-E84F-B4A5-9AABCBB25C75}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2008,9 +2114,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="7.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2264,12 +2370,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1FCE02-3D0C-1545-8192-6E055D0C99D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1FCE02-3D0C-1545-8192-6E055D0C99D5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2278,9 +2384,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="19.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2534,12 +2640,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6044C64-1C8D-2144-BC85-693CF5996D95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6044C64-1C8D-2144-BC85-693CF5996D95}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2548,9 +2654,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2804,12 +2910,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311CB058-A4EB-6F43-B724-C153741DCABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311CB058-A4EB-6F43-B724-C153741DCABC}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2818,9 +2924,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="9.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -3074,6 +3180,276 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E466B42B-1FD8-C746-8F67-0DBD703B7828}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="268"/>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="268" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="268" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="269" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="268" t="n">
+        <v>41.023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="270" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="268" t="n">
+        <v>23.527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="268" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="271" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="268" t="n">
+        <v>33.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="272" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="268" t="n">
+        <v>58.0555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="268" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="273" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="268" t="n">
+        <v>77.439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="268" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="274" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="268" t="n">
+        <v>40.7476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="268" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="275" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="268" t="n">
+        <v>54.134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="268" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="276" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="268" t="n">
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="268" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="277" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="268" t="n">
+        <v>10.7489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="268" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="278" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="268" t="n">
+        <v>32.2205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="268" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="279" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="268" t="n">
+        <v>10.5183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="268" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="280" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="268" t="n">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="268" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="281" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="268" t="n">
+        <v>78.0468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="268" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="282" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="268" t="n">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="268" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="283" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="268" t="n">
+        <v>10.945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="268" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="284" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="268" t="n">
+        <v>52.7536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="268" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="285" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="268" t="n">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="268" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="286" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="268" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="268" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="287" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="268" t="n">
+        <v>45.3514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="268" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="288" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="268" t="n">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="268" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="289" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="268" t="n">
+        <v>41.3028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="268" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="290" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="268" t="n">
+        <v>14.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Reports/IndMFData/IndMF_SmallCap.xlsx
+++ b/Reports/IndMFData/IndMF_SmallCap.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/IndMFData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4E0B69B5-FFEB-C54D-8763-8253AD0074FA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BD4573-9AEC-8243-9C40-D4EE0E198C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="7" windowHeight="19380" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SmallCap" r:id="rId1" sheetId="1"/>
-    <sheet name="UNDERLYINGINDEX" r:id="rId2" sheetId="2"/>
-    <sheet name="AUM" r:id="rId3" sheetId="3"/>
-    <sheet name="EXPENSERATIO" r:id="rId4" sheetId="4"/>
-    <sheet name="MANAGER" r:id="rId5" sheetId="5"/>
-    <sheet name="PERATIO" r:id="rId6" sheetId="6"/>
-    <sheet name="PBRATIO" r:id="rId7" sheetId="7"/>
-    <sheet name="52Week" r:id="rId8" sheetId="8"/>
+    <sheet name="SmallCap" sheetId="1" r:id="rId1"/>
+    <sheet name="UNDERLYINGINDEX" sheetId="2" r:id="rId2"/>
+    <sheet name="AUM" sheetId="3" r:id="rId3"/>
+    <sheet name="EXPENSERATIO" sheetId="4" r:id="rId4"/>
+    <sheet name="MANAGER" sheetId="5" r:id="rId5"/>
+    <sheet name="PERATIO" sheetId="6" r:id="rId6"/>
+    <sheet name="PBRATIO" sheetId="7" r:id="rId7"/>
+    <sheet name="52Week" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="181">
   <si>
     <t>Nov_21</t>
   </si>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>1.79%</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>39.30 --- 47.98 
@@ -532,6 +529,86 @@
   </si>
   <si>
     <t>12.45 --- 14.71 
+ 22-Aug-2019 --- 16-Apr-2019</t>
+  </si>
+  <si>
+    <t>₹41.02 ::: 39.30 --- 47.98 
+ 22-Aug-2019 --- 02-Apr-2019</t>
+  </si>
+  <si>
+    <t>₹33.54 ::: 26.86 --- 33.98 
+ 10-Dec-2018 --- 04-Nov-2019</t>
+  </si>
+  <si>
+    <t>₹58.06 ::: 49.72 --- 58.52 
+ 18-Feb-2019 --- 04-Nov-2019</t>
+  </si>
+  <si>
+    <t>₹77.44 ::: 67.92 --- 78.70 
+ 05-Aug-2019 --- 03-Jun-2019</t>
+  </si>
+  <si>
+    <t>₹40.75 ::: 36.21 --- 43.87 
+ 22-Aug-2019 --- 27-May-2019</t>
+  </si>
+  <si>
+    <t>₹54.13 ::: 49.61 --- 59.25 
+ 22-Aug-2019 --- 28-May-2019</t>
+  </si>
+  <si>
+    <t>₹26.14 ::: 22.17 --- 27.42 
+ 18-Feb-2019 --- 04-Jun-2019</t>
+  </si>
+  <si>
+    <t>₹10.75 ::: 9.57 --- 10.92 
+ 05-Aug-2019 --- 27-May-2019</t>
+  </si>
+  <si>
+    <t>₹32.22 ::: 30.03 --- 38.16 
+ 23-Aug-2019 --- 01-Apr-2019</t>
+  </si>
+  <si>
+    <t>₹10.52 ::: 9.96 --- 10.72 
+ 07-Oct-2019 --- 04-Nov-2019</t>
+  </si>
+  <si>
+    <t>₹9.42 ::: 8.58 --- 10.15 
+ 22-Aug-2019 --- 28-May-2019</t>
+  </si>
+  <si>
+    <t>₹78.05 ::: 70.67 --- 88.90 
+ 22-Aug-2019 --- 28-May-2019</t>
+  </si>
+  <si>
+    <t>₹10.75 ::: 9.36 --- 10.91 
+ 22-Aug-2019 --- 28-May-2019</t>
+  </si>
+  <si>
+    <t>₹10.94 ::: 9.85 --- 11.57 
+ 05-Aug-2019 --- 28-May-2019</t>
+  </si>
+  <si>
+    <t>₹52.75 ::: 49.44 --- 59.27 
+ 22-Aug-2019 --- 01-Apr-2019</t>
+  </si>
+  <si>
+    <t>₹9.5 ::: 8.61 --- 10.59 
+ 23-Aug-2019 --- 15-Apr-2019</t>
+  </si>
+  <si>
+    <t>₹45.35 ::: 43.63 --- 53.34 
+ 22-Aug-2019 --- 02-Apr-2019</t>
+  </si>
+  <si>
+    <t>₹10.25 ::: 9.11 --- 10.31 
+ 22-Aug-2019 --- 28-May-2019</t>
+  </si>
+  <si>
+    <t>₹41.30 ::: 36.46 --- 53.78 
+ 22-Aug-2019 --- 19-Dec-2018</t>
+  </si>
+  <si>
+    <t>₹14.44 ::: 12.45 --- 14.71 
  22-Aug-2019 --- 16-Apr-2019</t>
   </si>
 </sst>
@@ -539,7 +616,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,278 +653,300 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="10" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="313">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -873,10 +971,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -893,10 +991,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -931,7 +1029,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -983,7 +1081,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1094,21 +1192,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1125,7 +1223,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1177,14 +1275,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1193,9 +1291,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="8.1640625" collapsed="true"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="8.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1560,12 +1658,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E10517-3041-A548-8327-A322F0969D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E10517-3041-A548-8327-A322F0969D22}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1574,9 +1672,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="25.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1830,12 +1928,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31A2CC3-117B-3044-9A40-45E232EE90D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31A2CC3-117B-3044-9A40-45E232EE90D3}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1844,9 +1942,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2100,12 +2198,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7F83E3-8D7E-E84F-B4A5-9AABCBB25C75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7F83E3-8D7E-E84F-B4A5-9AABCBB25C75}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2114,9 +2212,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="7.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2370,12 +2468,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1FCE02-3D0C-1545-8192-6E055D0C99D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1FCE02-3D0C-1545-8192-6E055D0C99D5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2384,9 +2482,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="19.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2640,12 +2738,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6044C64-1C8D-2144-BC85-693CF5996D95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6044C64-1C8D-2144-BC85-693CF5996D95}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2654,9 +2752,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="11.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2910,12 +3008,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311CB058-A4EB-6F43-B724-C153741DCABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311CB058-A4EB-6F43-B724-C153741DCABC}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2924,9 +3022,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="9.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -3180,276 +3278,276 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E466B42B-1FD8-C746-8F67-0DBD703B7828}">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E466B42B-1FD8-C746-8F67-0DBD703B7828}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="268"/>
       <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="268" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="269" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="268" t="n">
-        <v>41.023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="291" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="269" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="270" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="268" t="n">
-        <v>23.527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="292" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="270" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="268" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="271" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="268" t="n">
-        <v>33.54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="293" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="271" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="272" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="268" t="n">
-        <v>58.0555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="294" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="272" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="268" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="273" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="268" t="n">
-        <v>77.439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="295" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="273" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="274" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="268" t="n">
-        <v>40.7476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="296" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="274" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="268" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="275" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="268" t="n">
-        <v>54.134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="297" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="275" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="276" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="268" t="n">
-        <v>26.14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="298" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="276" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="277" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="268" t="n">
-        <v>10.7489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="299" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="277" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="268" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="278" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="268" t="n">
-        <v>32.2205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="300" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="278" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="279" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="268" t="n">
-        <v>10.5183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="301" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="279" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="280" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="268" t="n">
-        <v>9.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="302" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="280" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="281" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="268" t="n">
-        <v>78.0468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="303" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="281" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="282" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="268" t="n">
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="304" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="282" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="283" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="268" t="n">
-        <v>10.945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="305" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="283" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="268" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="284" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="268" t="n">
-        <v>52.7536</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="306" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="284" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="285" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="268" t="n">
-        <v>10.38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="307" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="285" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="286" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="268" t="n">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="308" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="286" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="287" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="268" t="n">
-        <v>45.3514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="309" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="287" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="288" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="268" t="n">
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="310" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="288" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="289" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="268" t="n">
-        <v>41.3028</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="311" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="289" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="268" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="290" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="268" t="n">
-        <v>14.44</v>
+      <c r="B23" s="312" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="290" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reports/IndMFData/IndMF_SmallCap.xlsx
+++ b/Reports/IndMFData/IndMF_SmallCap.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/IndMFData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BD4573-9AEC-8243-9C40-D4EE0E198C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8767F497-3CD5-054D-A34D-3719FA38DD5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SmallCap" sheetId="1" r:id="rId1"/>
+    <sheet name="NAV" sheetId="1" r:id="rId1"/>
     <sheet name="UNDERLYINGINDEX" sheetId="2" r:id="rId2"/>
     <sheet name="AUM" sheetId="3" r:id="rId3"/>
     <sheet name="EXPENSERATIO" sheetId="4" r:id="rId4"/>
@@ -1285,15 +1285,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="8.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="7.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -3287,11 +3288,12 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>

--- a/Reports/IndMFData/IndMF_SmallCap.xlsx
+++ b/Reports/IndMFData/IndMF_SmallCap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/IndMFData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8767F497-3CD5-054D-A34D-3719FA38DD5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316D2F0D-0A0C-7D47-BBD7-C585BE2D4DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NAV" sheetId="1" r:id="rId1"/>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3287,13 +3287,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E466B42B-1FD8-C746-8F67-0DBD703B7828}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>

--- a/Reports/IndMFData/IndMF_SmallCap.xlsx
+++ b/Reports/IndMFData/IndMF_SmallCap.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/IndMFData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316D2F0D-0A0C-7D47-BBD7-C585BE2D4DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{316D2F0D-0A0C-7D47-BBD7-C585BE2D4DA7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19380" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="NAV" sheetId="1" r:id="rId1"/>
-    <sheet name="UNDERLYINGINDEX" sheetId="2" r:id="rId2"/>
-    <sheet name="AUM" sheetId="3" r:id="rId3"/>
-    <sheet name="EXPENSERATIO" sheetId="4" r:id="rId4"/>
-    <sheet name="MANAGER" sheetId="5" r:id="rId5"/>
-    <sheet name="PERATIO" sheetId="6" r:id="rId6"/>
-    <sheet name="PBRATIO" sheetId="7" r:id="rId7"/>
-    <sheet name="52Week" sheetId="8" r:id="rId8"/>
+    <sheet name="NAV" r:id="rId1" sheetId="1"/>
+    <sheet name="UNDERLYINGINDEX" r:id="rId2" sheetId="2"/>
+    <sheet name="AUM" r:id="rId3" sheetId="3"/>
+    <sheet name="EXPENSERATIO" r:id="rId4" sheetId="4"/>
+    <sheet name="MANAGER" r:id="rId5" sheetId="5"/>
+    <sheet name="PERATIO" r:id="rId6" sheetId="6"/>
+    <sheet name="PBRATIO" r:id="rId7" sheetId="7"/>
+    <sheet name="52Week" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="184">
   <si>
     <t>Nov_21</t>
   </si>
@@ -610,12 +610,22 @@
   <si>
     <t>₹14.44 ::: 12.45 --- 14.71 
  22-Aug-2019 --- 16-Apr-2019</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nov_25</t>
+  </si>
+  <si>
+    <t>Nov_26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,7 +635,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,6 +645,46 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -653,328 +703,504 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="489">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="10" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -991,10 +1217,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1029,7 +1255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1081,7 +1307,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1192,21 +1418,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1223,7 +1449,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1275,39 +1501,48 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="120" zoomScaleNormal="120">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="7.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="8.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="8.1640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1315,33 +1550,45 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>41.023000000000003</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="467" t="n">
+        <v>41.369</v>
+      </c>
+      <c r="C2" s="313" t="n">
+        <v>41.511</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>41.023</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>41.113</v>
       </c>
-      <c r="D2">
+      <c r="F2" s="0" t="n">
         <v>41.27</v>
       </c>
-      <c r="E2">
-        <v>41.249000000000002</v>
+      <c r="G2" s="0" t="n">
+        <v>41.249</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>23.527000000000001</v>
-      </c>
-      <c r="C3" s="1">
-        <v>23.579000000000001</v>
-      </c>
-      <c r="D3">
-        <v>23.652000000000001</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="468" t="n">
+        <v>23.564</v>
+      </c>
+      <c r="C3" s="314" t="n">
+        <v>23.668</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>23.527</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>23.579</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>23.652</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>23.59</v>
       </c>
     </row>
@@ -1349,16 +1596,22 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="469" t="n">
+        <v>33.37</v>
+      </c>
+      <c r="C4" s="315" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D4" s="5" t="n">
         <v>33.54</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1" t="n">
         <v>33.71</v>
       </c>
-      <c r="D4">
-        <v>33.770000000000003</v>
-      </c>
-      <c r="E4">
+      <c r="F4" s="0" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>33.83</v>
       </c>
     </row>
@@ -1366,84 +1619,114 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>58.055500000000002</v>
-      </c>
-      <c r="C5" s="1">
-        <v>58.023200000000003</v>
-      </c>
-      <c r="D5">
-        <v>57.835700000000003</v>
-      </c>
-      <c r="E5">
-        <v>57.826599999999999</v>
+      <c r="B5" s="470" t="n">
+        <v>57.9258</v>
+      </c>
+      <c r="C5" s="316" t="n">
+        <v>58.2373</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>58.0555</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>58.0232</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>57.8357</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>57.8266</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
-        <v>77.438999999999993</v>
-      </c>
-      <c r="C6" s="1">
-        <v>77.471000000000004</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="471" t="n">
+        <v>77.762</v>
+      </c>
+      <c r="C6" s="317" t="n">
+        <v>77.738</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>77.439</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>77.471</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>77.86</v>
       </c>
-      <c r="E6">
-        <v>77.799000000000007</v>
+      <c r="G6" s="0" t="n">
+        <v>77.799</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
-        <v>40.747599999999998</v>
-      </c>
-      <c r="C7" s="1">
-        <v>40.936599999999999</v>
-      </c>
-      <c r="D7">
-        <v>40.968499999999999</v>
-      </c>
-      <c r="E7">
-        <v>40.872599999999998</v>
+      <c r="B7" s="472" t="n">
+        <v>40.823</v>
+      </c>
+      <c r="C7" s="318" t="n">
+        <v>40.9322</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>40.7476</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>40.9366</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>40.9685</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>40.8726</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="473" t="n">
+        <v>54.097</v>
+      </c>
+      <c r="C8" s="319" t="n">
+        <v>54.262</v>
+      </c>
+      <c r="D8" s="9" t="n">
         <v>54.134</v>
       </c>
-      <c r="C8" s="1">
-        <v>54.107999999999997</v>
-      </c>
-      <c r="D8">
-        <v>54.265000000000001</v>
-      </c>
-      <c r="E8">
-        <v>54.210999999999999</v>
+      <c r="E8" s="1" t="n">
+        <v>54.108</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>54.265</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>54.211</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="474" t="n">
+        <v>26.29</v>
+      </c>
+      <c r="C9" s="320" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="D9" s="10" t="n">
         <v>26.14</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1" t="n">
         <v>26.13</v>
       </c>
-      <c r="D9">
+      <c r="F9" s="0" t="n">
         <v>26.13</v>
       </c>
-      <c r="E9">
+      <c r="G9" s="0" t="n">
         <v>26.14</v>
       </c>
     </row>
@@ -1451,16 +1734,22 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
-        <v>10.748900000000001</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10.723800000000001</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="475" t="n">
+        <v>10.7903</v>
+      </c>
+      <c r="C10" s="321" t="n">
+        <v>10.8602</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>10.7489</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>10.7238</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>10.7376</v>
       </c>
-      <c r="E10">
+      <c r="G10" s="0" t="n">
         <v>10.7271</v>
       </c>
     </row>
@@ -1468,30 +1757,42 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
-        <v>32.220500000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>32.224699999999999</v>
-      </c>
-      <c r="D11">
-        <v>32.270899999999997</v>
-      </c>
-      <c r="E11">
-        <v>32.126399999999997</v>
+      <c r="B11" s="476" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="C11" s="322" t="n">
+        <v>32.5969</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <v>32.2205</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>32.2247</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>32.2709</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>32.1264</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="477" t="n">
+        <v>10.5624</v>
+      </c>
+      <c r="C12" s="323" t="n">
+        <v>10.6086</v>
+      </c>
+      <c r="D12" s="13" t="n">
         <v>10.5183</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="1" t="n">
         <v>10.5168</v>
       </c>
-      <c r="D12">
+      <c r="F12" s="0" t="n">
         <v>10.5443</v>
       </c>
     </row>
@@ -1499,13 +1800,19 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="478" t="n">
+        <v>9.46</v>
+      </c>
+      <c r="C13" s="324" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="D13" s="14" t="n">
         <v>9.42</v>
       </c>
-      <c r="C13" s="1">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="D13">
+      <c r="E13" s="1" t="n">
+        <v>9.46</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>9.51</v>
       </c>
     </row>
@@ -1513,13 +1820,19 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="15">
-        <v>78.046800000000005</v>
-      </c>
-      <c r="C14" s="1">
-        <v>78.256200000000007</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="479" t="n">
+        <v>78.6557</v>
+      </c>
+      <c r="C14" s="325" t="n">
+        <v>78.649</v>
+      </c>
+      <c r="D14" s="15" t="n">
+        <v>78.0468</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>78.2562</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>78.58</v>
       </c>
     </row>
@@ -1527,16 +1840,22 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="480" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="C15" s="326" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="D15" s="16" t="n">
         <v>10.75</v>
       </c>
-      <c r="C15" s="1">
+      <c r="E15" s="1" t="n">
         <v>10.76</v>
       </c>
-      <c r="D15">
+      <c r="F15" s="0" t="n">
         <v>10.79</v>
       </c>
-      <c r="E15">
+      <c r="G15" s="0" t="n">
         <v>10.83</v>
       </c>
     </row>
@@ -1544,33 +1863,45 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="481" t="n">
+        <v>10.988</v>
+      </c>
+      <c r="C16" s="327" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="D16" s="17" t="n">
         <v>10.945</v>
       </c>
-      <c r="C16" s="1">
+      <c r="E16" s="1" t="n">
         <v>10.984</v>
       </c>
-      <c r="D16">
+      <c r="F16" s="0" t="n">
         <v>10.988</v>
       </c>
-      <c r="E16">
-        <v>10.986000000000001</v>
+      <c r="G16" s="0" t="n">
+        <v>10.986</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="18">
-        <v>52.753599999999999</v>
-      </c>
-      <c r="C17" s="1">
-        <v>52.781399999999998</v>
-      </c>
-      <c r="D17">
-        <v>52.896900000000002</v>
-      </c>
-      <c r="E17">
+      <c r="B17" s="482" t="n">
+        <v>53.0133</v>
+      </c>
+      <c r="C17" s="328" t="n">
+        <v>53.2325</v>
+      </c>
+      <c r="D17" s="18" t="n">
+        <v>52.7536</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>52.7814</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>52.8969</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>52.9773</v>
       </c>
     </row>
@@ -1578,13 +1909,19 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="483" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="C18" s="329" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="D18" s="19" t="n">
         <v>10.38</v>
       </c>
-      <c r="C18" s="1">
+      <c r="E18" s="1" t="n">
         <v>10.45</v>
       </c>
-      <c r="D18">
+      <c r="F18" s="0" t="n">
         <v>10.49</v>
       </c>
     </row>
@@ -1592,13 +1929,19 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="484" t="n">
+        <v>9.53</v>
+      </c>
+      <c r="C19" s="330" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="D19" s="20" t="n">
         <v>9.5</v>
       </c>
-      <c r="C19" s="1">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="D19">
+      <c r="E19" s="1" t="n">
+        <v>9.54</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <v>9.56</v>
       </c>
     </row>
@@ -1606,13 +1949,19 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="21">
-        <v>45.351399999999998</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45.565100000000001</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="485" t="n">
+        <v>45.7109</v>
+      </c>
+      <c r="C20" s="331" t="n">
+        <v>45.7868</v>
+      </c>
+      <c r="D20" s="21" t="n">
+        <v>45.3514</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>45.5651</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>45.5505</v>
       </c>
     </row>
@@ -1620,13 +1969,19 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="486" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="C21" s="332" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="D21" s="22" t="n">
         <v>10.25</v>
       </c>
-      <c r="C21" s="1">
+      <c r="E21" s="1" t="n">
         <v>10.27</v>
       </c>
-      <c r="D21">
+      <c r="F21" s="0" t="n">
         <v>10.25</v>
       </c>
     </row>
@@ -1634,13 +1989,19 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="23">
-        <v>41.302799999999998</v>
-      </c>
-      <c r="C22" s="1">
-        <v>41.552900000000001</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="487" t="n">
+        <v>41.3226</v>
+      </c>
+      <c r="C22" s="333" t="n">
+        <v>41.1076</v>
+      </c>
+      <c r="D22" s="23" t="n">
+        <v>41.3028</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>41.5529</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>41.19</v>
       </c>
     </row>
@@ -1648,23 +2009,29 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="488" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="C23" s="334" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="D23" s="24" t="n">
         <v>14.44</v>
       </c>
-      <c r="C23" s="1">
+      <c r="E23" s="1" t="n">
         <v>14.49</v>
       </c>
-      <c r="D23">
+      <c r="F23" s="0" t="n">
         <v>14.51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E10517-3041-A548-8327-A322F0969D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E10517-3041-A548-8327-A322F0969D22}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1673,16 +2040,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="25.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1690,10 +2061,13 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="335" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1701,10 +2075,13 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="138" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1712,10 +2089,13 @@
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="337" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1723,10 +2103,13 @@
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="338" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1734,10 +2117,13 @@
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="339" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1745,10 +2131,13 @@
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="340" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="142" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1756,10 +2145,13 @@
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="341" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="143" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1767,10 +2159,13 @@
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="342" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="144" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1778,10 +2173,13 @@
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="145" t="s">
+      <c r="B10" s="343" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1789,10 +2187,13 @@
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="344" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1800,10 +2201,13 @@
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="345" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1811,10 +2215,13 @@
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="346" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1822,10 +2229,13 @@
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="347" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="149" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1833,10 +2243,13 @@
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="150" t="s">
+      <c r="B15" s="348" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="40" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1844,10 +2257,13 @@
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="349" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="151" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1855,10 +2271,13 @@
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="152" t="s">
+      <c r="B17" s="350" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="152" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1866,10 +2285,13 @@
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="351" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="153" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1877,10 +2299,13 @@
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="154" t="s">
+      <c r="B19" s="352" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="154" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1888,10 +2313,13 @@
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="353" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1899,10 +2327,13 @@
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="354" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="156" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="46" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1910,10 +2341,13 @@
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="355" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="157" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="47" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1921,20 +2355,23 @@
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="356" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="158" t="s">
         <v>29</v>
       </c>
+      <c r="D23" s="48" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31A2CC3-117B-3044-9A40-45E232EE90D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31A2CC3-117B-3044-9A40-45E232EE90D3}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1943,16 +2380,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1960,10 +2401,13 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="357" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="159" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1971,10 +2415,13 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="358" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1982,10 +2429,13 @@
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="359" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="161" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1993,10 +2443,13 @@
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="360" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="162" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2004,10 +2457,13 @@
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="361" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="163" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2015,10 +2471,13 @@
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="362" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="164" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2026,10 +2485,13 @@
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="363" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="165" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2037,10 +2499,13 @@
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="364" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="166" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="56" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2048,10 +2513,13 @@
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="167" t="s">
+      <c r="B10" s="365" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="167" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="57" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2059,10 +2527,13 @@
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="168" t="s">
+      <c r="B11" s="366" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="58" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2070,10 +2541,13 @@
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="367" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="59" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2081,10 +2555,13 @@
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="368" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="170" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="60" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2092,10 +2569,13 @@
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="369" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="171" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="61" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2103,10 +2583,13 @@
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="172" t="s">
+      <c r="B15" s="370" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="172" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="62" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2114,10 +2597,13 @@
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="371" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="173" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="63" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2125,10 +2611,13 @@
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="372" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="64" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2136,10 +2625,13 @@
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="373" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="65" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2147,10 +2639,13 @@
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="176" t="s">
+      <c r="B19" s="374" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="176" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="66" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2158,10 +2653,13 @@
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="177" t="s">
+      <c r="B20" s="375" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="177" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="67" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2169,10 +2667,13 @@
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="178" t="s">
+      <c r="B21" s="376" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="68" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2180,10 +2681,13 @@
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="179" t="s">
+      <c r="B22" s="377" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="69" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2191,20 +2695,23 @@
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="180" t="s">
+      <c r="B23" s="378" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="180" t="s">
         <v>54</v>
       </c>
+      <c r="D23" s="70" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7F83E3-8D7E-E84F-B4A5-9AABCBB25C75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7F83E3-8D7E-E84F-B4A5-9AABCBB25C75}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2213,16 +2720,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="7.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2230,153 +2741,195 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="379" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="25">
-        <v>8.8000000000000005E-3</v>
+      <c r="C2" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="25" t="n">
+        <v>0.0088</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="380" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="25">
-        <v>7.0000000000000001E-3</v>
+      <c r="C3" s="182" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="25" t="n">
+        <v>0.007</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="381" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="25">
-        <v>6.3E-3</v>
+      <c r="C4" s="183" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="25" t="n">
+        <v>0.0063</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="382" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="25">
-        <v>1.03E-2</v>
+      <c r="C5" s="184" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="25" t="n">
+        <v>0.0103</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="383" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="25">
-        <v>9.1999999999999998E-3</v>
+      <c r="C6" s="185" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="25" t="n">
+        <v>0.0092</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="384" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="25">
-        <v>1.2500000000000001E-2</v>
+      <c r="C7" s="186" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="25" t="n">
+        <v>0.0125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="187" t="s">
+      <c r="B8" s="385" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="25">
-        <v>1.14E-2</v>
+      <c r="C8" s="187" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="25" t="n">
+        <v>0.0114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="386" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="25">
-        <v>1.2500000000000001E-2</v>
+      <c r="C9" s="188" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="25" t="n">
+        <v>0.0125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="189" t="s">
+      <c r="B10" s="387" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="25">
-        <v>6.8999999999999999E-3</v>
+      <c r="C10" s="189" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="25" t="n">
+        <v>0.0069</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="190" t="s">
+      <c r="B11" s="388" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="25">
-        <v>1.21E-2</v>
+      <c r="C11" s="190" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="25" t="n">
+        <v>0.0121</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="389" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="25">
-        <v>3.8E-3</v>
+      <c r="C12" s="191" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="25" t="n">
+        <v>0.0038</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="192" t="s">
+      <c r="B13" s="390" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="25">
-        <v>1.6E-2</v>
+      <c r="C13" s="192" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="25" t="n">
+        <v>0.016</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="193" t="s">
+      <c r="B14" s="391" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="25">
-        <v>1.44E-2</v>
+      <c r="C14" s="193" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="25" t="n">
+        <v>0.0144</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="194" t="s">
+      <c r="B15" s="392" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="194" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="25" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2384,97 +2937,121 @@
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="195" t="s">
+      <c r="B16" s="393" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="25">
-        <v>9.1999999999999998E-3</v>
+      <c r="C16" s="195" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="25" t="n">
+        <v>0.0092</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="196" t="s">
+      <c r="B17" s="394" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="25">
-        <v>9.4999999999999998E-3</v>
+      <c r="C17" s="196" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="25" t="n">
+        <v>0.0095</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="197" t="s">
+      <c r="B18" s="395" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="25">
-        <v>7.7999999999999996E-3</v>
+      <c r="C18" s="197" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="25" t="n">
+        <v>0.0078</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="396" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="25">
-        <v>7.7000000000000002E-3</v>
+      <c r="C19" s="198" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="25" t="n">
+        <v>0.0077</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="397" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="25">
-        <v>1.0200000000000001E-2</v>
+      <c r="C20" s="199" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="25" t="n">
+        <v>0.0102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="200" t="s">
+      <c r="B21" s="398" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="25">
-        <v>7.1000000000000004E-3</v>
+      <c r="C21" s="200" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="25" t="n">
+        <v>0.0071</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="201" t="s">
+      <c r="B22" s="399" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="25">
-        <v>2.3800000000000002E-2</v>
+      <c r="C22" s="201" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="25" t="n">
+        <v>0.0238</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="202" t="s">
+      <c r="B23" s="400" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="25">
-        <v>1.7899999999999999E-2</v>
+      <c r="C23" s="202" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="25" t="n">
+        <v>0.0179</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1FCE02-3D0C-1545-8192-6E055D0C99D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1FCE02-3D0C-1545-8192-6E055D0C99D5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2483,16 +3060,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="19.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2500,10 +3081,13 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="401" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="203" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="71" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2511,10 +3095,13 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="402" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="204" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="72" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2522,10 +3109,13 @@
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="403" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="205" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="73" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2533,10 +3123,13 @@
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="206" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="74" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2544,10 +3137,13 @@
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="207" t="s">
+      <c r="B6" s="405" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="207" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="75" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2555,10 +3151,13 @@
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="406" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="208" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2566,10 +3165,13 @@
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="209" t="s">
+      <c r="B8" s="407" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="209" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="77" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2577,10 +3179,13 @@
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="210" t="s">
+      <c r="B9" s="408" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="210" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="78" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2588,10 +3193,13 @@
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="211" t="s">
+      <c r="B10" s="409" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="79" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2599,10 +3207,13 @@
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="410" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="212" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="80" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2610,10 +3221,13 @@
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="213" t="s">
+      <c r="B12" s="411" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="213" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="81" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2621,10 +3235,13 @@
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="214" t="s">
+      <c r="B13" s="412" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="214" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="82" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2632,10 +3249,13 @@
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="215" t="s">
+      <c r="B14" s="413" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="215" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="83" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2643,10 +3263,13 @@
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="216" t="s">
+      <c r="B15" s="414" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="84" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2654,10 +3277,13 @@
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="217" t="s">
+      <c r="B16" s="415" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="217" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="85" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2665,10 +3291,13 @@
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="218" t="s">
+      <c r="B17" s="416" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="218" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="86" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2676,10 +3305,13 @@
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="219" t="s">
+      <c r="B18" s="417" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="219" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="87" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2687,10 +3319,13 @@
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="418" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="220" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="88" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2698,10 +3333,13 @@
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="221" t="s">
+      <c r="B20" s="419" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="221" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="89" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2709,10 +3347,13 @@
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="222" t="s">
+      <c r="B21" s="420" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="222" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="90" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2720,10 +3361,13 @@
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="223" t="s">
+      <c r="B22" s="421" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="223" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="91" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2731,20 +3375,23 @@
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="224" t="s">
+      <c r="B23" s="422" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="224" t="s">
         <v>76</v>
       </c>
+      <c r="D23" s="92" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6044C64-1C8D-2144-BC85-693CF5996D95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6044C64-1C8D-2144-BC85-693CF5996D95}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2753,16 +3400,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2770,10 +3421,13 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="423" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="225" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="93" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2781,10 +3435,13 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="226" t="s">
+      <c r="B3" s="424" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="226" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="94" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2792,10 +3449,13 @@
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="227" t="s">
+      <c r="B4" s="425" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="227" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="95" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2803,10 +3463,13 @@
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="228" t="s">
+      <c r="B5" s="426" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="228" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="96" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2814,10 +3477,13 @@
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="229" t="s">
+      <c r="B6" s="427" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="229" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="97" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2825,10 +3491,13 @@
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="230" t="s">
+      <c r="B7" s="428" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="230" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="98" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2836,10 +3505,13 @@
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="231" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="99" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2847,10 +3519,13 @@
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="232" t="s">
+      <c r="B9" s="430" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="232" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="100" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2858,10 +3533,13 @@
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="431" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="233" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="101" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2869,10 +3547,13 @@
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="234" t="s">
+      <c r="B11" s="432" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="234" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="102" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2880,10 +3561,13 @@
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="235" t="s">
+      <c r="B12" s="433" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="103" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2891,10 +3575,13 @@
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="236" t="s">
+      <c r="B13" s="434" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="236" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="104" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2902,10 +3589,13 @@
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="237" t="s">
+      <c r="B14" s="435" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="237" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="105" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2913,10 +3603,13 @@
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="238" t="s">
+      <c r="B15" s="436" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="238" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="106" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2924,10 +3617,13 @@
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="239" t="s">
+      <c r="B16" s="437" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="239" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="107" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2935,10 +3631,13 @@
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="240" t="s">
+      <c r="B17" s="438" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="240" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="108" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2946,10 +3645,13 @@
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="439" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="241" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="109" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2957,10 +3659,13 @@
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="242" t="s">
+      <c r="B19" s="440" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="242" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="110" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2968,10 +3673,13 @@
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="243" t="s">
+      <c r="B20" s="441" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="243" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="111" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2979,10 +3687,13 @@
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="244" t="s">
+      <c r="B21" s="442" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="244" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="112" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2990,10 +3701,13 @@
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="245" t="s">
+      <c r="B22" s="443" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="245" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="113" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3001,20 +3715,23 @@
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="444" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="246" t="s">
         <v>98</v>
       </c>
+      <c r="D23" s="114" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311CB058-A4EB-6F43-B724-C153741DCABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311CB058-A4EB-6F43-B724-C153741DCABC}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3023,16 +3740,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="9.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3040,10 +3761,13 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="445" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="247" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="115" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3051,10 +3775,13 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="248" t="s">
+      <c r="B3" s="446" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="248" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="116" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3062,10 +3789,13 @@
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="447" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="249" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="117" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3073,10 +3803,13 @@
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="250" t="s">
+      <c r="B5" s="448" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="250" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="118" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3084,10 +3817,13 @@
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="251" t="s">
+      <c r="B6" s="449" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="251" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="119" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3095,10 +3831,13 @@
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="252" t="s">
+      <c r="B7" s="450" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="252" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3106,10 +3845,13 @@
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="253" t="s">
+      <c r="B8" s="451" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="253" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="121" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3117,10 +3859,13 @@
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="254" t="s">
+      <c r="B9" s="452" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="254" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="122" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3128,10 +3873,13 @@
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="255" t="s">
+      <c r="B10" s="453" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="255" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="123" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3139,10 +3887,13 @@
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="256" t="s">
+      <c r="B11" s="454" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="256" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="124" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3150,10 +3901,13 @@
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="257" t="s">
+      <c r="B12" s="455" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="257" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="125" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3161,10 +3915,13 @@
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="258" t="s">
+      <c r="B13" s="456" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="258" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="126" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3172,10 +3929,13 @@
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="259" t="s">
+      <c r="B14" s="457" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="259" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="127" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3183,10 +3943,13 @@
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="260" t="s">
+      <c r="B15" s="458" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="260" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="128" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3194,10 +3957,13 @@
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="261" t="s">
+      <c r="B16" s="459" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="261" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="129" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3205,10 +3971,13 @@
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="262" t="s">
+      <c r="B17" s="460" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="262" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="130" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3216,10 +3985,13 @@
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="263" t="s">
+      <c r="B18" s="461" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="131" t="s">
+      <c r="C18" s="263" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="131" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3227,10 +3999,13 @@
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="264" t="s">
+      <c r="B19" s="462" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="264" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="132" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3238,10 +4013,13 @@
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="265" t="s">
+      <c r="B20" s="463" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="265" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="133" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3249,10 +4027,13 @@
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="266" t="s">
+      <c r="B21" s="464" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="134" t="s">
+      <c r="C21" s="266" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="134" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3260,10 +4041,13 @@
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="267" t="s">
+      <c r="B22" s="465" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="135" t="s">
+      <c r="C22" s="267" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="135" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3271,31 +4055,34 @@
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="268" t="s">
+      <c r="B23" s="466" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="136" t="s">
+      <c r="C23" s="268" t="s">
         <v>120</v>
       </c>
+      <c r="D23" s="136" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E466B42B-1FD8-C746-8F67-0DBD703B7828}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E466B42B-1FD8-C746-8F67-0DBD703B7828}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="140" zoomScaleNormal="140">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -3550,6 +4337,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Reports/IndMFData/IndMF_SmallCap.xlsx
+++ b/Reports/IndMFData/IndMF_SmallCap.xlsx
@@ -8,26 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/IndMFData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{316D2F0D-0A0C-7D47-BBD7-C585BE2D4DA7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{84D47437-9607-9440-B1DA-A0A4735B12D2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="19380" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
+    <workbookView activeTab="3" windowHeight="15900" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="NAV" r:id="rId1" sheetId="1"/>
-    <sheet name="UNDERLYINGINDEX" r:id="rId2" sheetId="2"/>
+    <sheet name="BENCHMARK" r:id="rId2" sheetId="2"/>
     <sheet name="AUM" r:id="rId3" sheetId="3"/>
     <sheet name="EXPENSERATIO" r:id="rId4" sheetId="4"/>
     <sheet name="MANAGER" r:id="rId5" sheetId="5"/>
     <sheet name="PERATIO" r:id="rId6" sheetId="6"/>
     <sheet name="PBRATIO" r:id="rId7" sheetId="7"/>
-    <sheet name="52Week" r:id="rId8" sheetId="8"/>
+    <sheet name="RETURNS" r:id="rId8" sheetId="8"/>
+    <sheet name="HOLDINGSECTORTOP5" r:id="rId9" sheetId="9"/>
+    <sheet name="HOLDINGMARKETCAP" r:id="rId10" sheetId="10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="320">
   <si>
     <t>Nov_21</t>
   </si>
@@ -612,13 +622,421 @@
  22-Aug-2019 --- 16-Apr-2019</t>
   </si>
   <si>
+    <t>Nov_25</t>
+  </si>
+  <si>
+    <t>Nov_26</t>
+  </si>
+  <si>
+    <t>Nov_27</t>
+  </si>
+  <si>
+    <t>Nov_29</t>
+  </si>
+  <si>
+    <t>Nov_30</t>
+  </si>
+  <si>
+    <t>-1.95 --- 3.59 --- -11.67 --- -6.65 --- 10.91 --- 10.55</t>
+  </si>
+  <si>
+    <t>-0.73 --- 6.36 --- -5.97 --- -5.42 --- 9.58 --- 11.94</t>
+  </si>
+  <si>
+    <t>-0.36 --- 8.85 --- 7.87 --- 21.79 --- 14.51 --- 12.80</t>
+  </si>
+  <si>
+    <t>0.56 --- 10.71 --- 2.66 --- 9.94 --- 14.93 --- 17.16</t>
+  </si>
+  <si>
+    <t>0.99 --- 11.06 --- 0.01 --- 7.25 --- 7.37 --- 9.77</t>
+  </si>
+  <si>
+    <t>0.07 --- 9.88 --- -5.99 --- -1.84 --- 10.07 --- 11.91</t>
+  </si>
+  <si>
+    <t>-0.41 --- 6.63 --- -7.64 --- -1.04 --- 1.53 --- 8.73</t>
+  </si>
+  <si>
+    <t>1.14 --- 7.96 --- -2.67 --- 11.78 --- 6.50 --- 6.04</t>
+  </si>
+  <si>
+    <t>2.53 --- 9.70 --- 0.24 --- 7.66 --- - --- -</t>
+  </si>
+  <si>
+    <t>-0.36 --- 5.72 --- -12.86 --- -7.62 --- 2.16 --- 7.70</t>
+  </si>
+  <si>
+    <t>0.92 --- - --- - --- NaN --- - --- -</t>
+  </si>
+  <si>
+    <t>-2.67 --- 6.88 --- -5.77 --- -2.17 --- - --- -</t>
+  </si>
+  <si>
+    <t>-0.80 --- 8.56 --- -9.70 --- -1.42 --- 1.72 --- 4.11</t>
+  </si>
+  <si>
+    <t>0.56 --- 11.65 --- 0.00 --- 6.70 --- - --- -</t>
+  </si>
+  <si>
+    <t>-0.65 --- 7.35 --- -4.33 --- NaN --- - --- -</t>
+  </si>
+  <si>
+    <t>-0.11 --- 6.02 --- -9.10 --- -2.03 --- 4.24 --- 8.41</t>
+  </si>
+  <si>
+    <t>-0.95 --- 8.18 --- -3.42 --- NaN --- - --- -</t>
+  </si>
+  <si>
+    <t>0.10 --- 8.22 --- -7.77 --- NaN --- - --- -</t>
+  </si>
+  <si>
+    <t>-2.41 --- 3.32 --- -12.35 --- -8.15 --- 2.19 --- 5.31</t>
+  </si>
+  <si>
+    <t>1.67 --- 11.51 --- 1.17 --- NaN --- - --- -</t>
+  </si>
+  <si>
+    <t>0.25 --- 8.06 --- -13.22 --- -20.67 --- -5.72 --- 0.36</t>
+  </si>
+  <si>
+    <t>0.76 --- 12.38 --- 1.18 --- 3.71 --- 4.96 --- 4.11</t>
+  </si>
+  <si>
+    <t>Services ## 17.91 ## Chemicals ## 13.73 ## Financial ## 10.16 ## Engineering ## 8.74 ## Technology ## 7.76</t>
+  </si>
+  <si>
+    <t>Construction ## 14.09 ## Engineering ## 13.8 ## Services ## 8.84 ## Chemicals ## 8.5 ## Metals ## 7.65</t>
+  </si>
+  <si>
+    <t>Construction ## 17.99 ## Financial ## 17.28 ## Chemicals ## 14.09 ## FMCG ## 8.41 ## Technology ## 6.04</t>
+  </si>
+  <si>
+    <t>Engineering ## 17.47 ## FMCG ## 14.32 ## Financial ## 10.93 ## Cons Durable ## 7.85 ## Services ## 6.81</t>
+  </si>
+  <si>
+    <t>Engineering ## 15.27 ## Chemicals ## 14.23 ## Financial ## 11.72 ## Construction ## 11.64 ## FMCG ## 10.34</t>
+  </si>
+  <si>
+    <t>Chemicals ## 15.08 ## Engineering ## 13.86 ## Financial ## 12.3 ## FMCG ## 11.04 ## Construction ## 9.25</t>
+  </si>
+  <si>
+    <t>Chemicals ## 21.55 ## Textiles ## 10.54 ## Automobile ## 9.54 ## Financial ## 8.94 ## Construction ## 8.9</t>
+  </si>
+  <si>
+    <t>Financial ## 20.55 ## Services ## 18.92 ## Construction ## 16.3 ## FMCG ## 8.82 ## Engineering ## 7.97</t>
+  </si>
+  <si>
+    <t>Chemicals ## 18.92 ## Services ## 13.52 ## Construction ## 11.17 ## Engineering ## 11.06 ## FMCG ## 8.95</t>
+  </si>
+  <si>
+    <t>Services ## 15.69 ## Financial ## 15.24 ## Engineering ## 7.74 ## Chemicals ## 7.69 ## Construction ## 6.55</t>
+  </si>
+  <si>
+    <t>Financial ## 15.32 ## Services ## 13.0 ## Construction ## 11.97 ## Engineering ## 9.81 ## Chemicals ## 8.94</t>
+  </si>
+  <si>
+    <t>Engineering ## 16.6 ## Chemicals ## 15.9 ## Services ## 12.37 ## Construction ## 12.09 ## Financial ## 9.59</t>
+  </si>
+  <si>
+    <t>Construction ## 22.48 ## Engineering ## 14.83 ## Services ## 12.55 ## Healthcare ## 9.8 ## Automobile ## 9.02</t>
+  </si>
+  <si>
+    <t>Services ## 19.45 ## Engineering ## 12.52 ## Financial ## 12.08 ## Construction ## 9.8 ## Chemicals ## 8.58</t>
+  </si>
+  <si>
+    <t>Construction ## 18.91 ## Engineering ## 16.7 ## Chemicals ## 15.41 ## Services ## 11.66 ## Financial ## 8.8</t>
+  </si>
+  <si>
+    <t>Financial ## 18.14 ## Construction ## 12.34 ## Chemicals ## 10.7 ## Energy ## 6.56 ## Services ## 6.39</t>
+  </si>
+  <si>
+    <t>Financial ## 22.32 ## Chemicals ## 16.44 ## Construction ## 12.75 ## Healthcare ## 8.61 ## FMCG ## 8.06</t>
+  </si>
+  <si>
+    <t>Construction ## 19.37 ## Engineering ## 14.14 ## Financial ## 11.53 ## Chemicals ## 10.99 ## Services ## 8.77</t>
+  </si>
+  <si>
+    <t>Construction ## 19.19 ## Services ## 13.91 ## Chemicals ## 12.46 ## Engineering ## 11.4 ## Financial ## 10.84</t>
+  </si>
+  <si>
+    <t>Chemicals ## 22.84 ## Financial ## 19.12 ## Construction ## 15.38 ## Technology ## 9.45 ## Services ## 7.41</t>
+  </si>
+  <si>
+    <t>Financial ## 29.59 ## FMCG ## 15.47 ## Healthcare ## 11.77 ## Construction ## 9.01 ## Textiles ## 8.98</t>
+  </si>
+  <si>
+    <t>Services ## 21.19 ## Financial ## 10.62 ## Construction ## 10.54 ## Chemicals ## 9.07 ## Healthcare ## 8.39</t>
+  </si>
+  <si>
+    <t>15.64 ## 15.6</t>
+  </si>
+  <si>
+    <t>19.63 ## 17.58</t>
+  </si>
+  <si>
+    <t>24.50 ## 16.97</t>
+  </si>
+  <si>
+    <t>14.57 ## 15.21</t>
+  </si>
+  <si>
+    <t>22.59 ## 16.69</t>
+  </si>
+  <si>
+    <t>14.55 ## 15.07</t>
+  </si>
+  <si>
+    <t>15.70 ## 15.45</t>
+  </si>
+  <si>
+    <t>18.82 ## 15.55</t>
+  </si>
+  <si>
+    <t>20.26 ## 15.6</t>
+  </si>
+  <si>
+    <t>14.42 ## 14.97</t>
+  </si>
+  <si>
+    <t>35.01 ## 15.27</t>
+  </si>
+  <si>
+    <t>22.82 ## 15.41</t>
+  </si>
+  <si>
+    <t>21.86 ## 16.38</t>
+  </si>
+  <si>
+    <t>23.74 ## 15.82</t>
+  </si>
+  <si>
+    <t>23.31 ## 15.83</t>
+  </si>
+  <si>
+    <t>16.87 ## 16.17</t>
+  </si>
+  <si>
+    <t>28.09 ## 15.33</t>
+  </si>
+  <si>
+    <t>15.99 ## 15.26</t>
+  </si>
+  <si>
+    <t>19.55 ## 15.72</t>
+  </si>
+  <si>
+    <t>14.80 ## 15.2</t>
+  </si>
+  <si>
+    <t>17.37 ## 15.21</t>
+  </si>
+  <si>
+    <t>21.58 ## 15.6</t>
+  </si>
+  <si>
+    <t>1.80 ## 1.97</t>
+  </si>
+  <si>
+    <t>2.48 ## 2.34</t>
+  </si>
+  <si>
+    <t>4.01 ## 2.5</t>
+  </si>
+  <si>
+    <t>2.56 ## 2.18</t>
+  </si>
+  <si>
+    <t>2.94 ## 2.33</t>
+  </si>
+  <si>
+    <t>2.02 ## 2.08</t>
+  </si>
+  <si>
+    <t>2.26 ## 2.22</t>
+  </si>
+  <si>
+    <t>2.37 ## 2.19</t>
+  </si>
+  <si>
+    <t>2.16 ## 2.18</t>
+  </si>
+  <si>
+    <t>1.70 ## 2.03</t>
+  </si>
+  <si>
+    <t>1.70 ## 2.18</t>
+  </si>
+  <si>
+    <t>3.07 ## 2.2</t>
+  </si>
+  <si>
+    <t>2.28 ## 2.19</t>
+  </si>
+  <si>
+    <t>3.74 ## 2.29</t>
+  </si>
+  <si>
+    <t>3.50 ## 2.28</t>
+  </si>
+  <si>
+    <t>2.04 ## 2.1</t>
+  </si>
+  <si>
+    <t>3.92 ## 2.19</t>
+  </si>
+  <si>
+    <t>2.48 ## 2.2</t>
+  </si>
+  <si>
+    <t>2.51 ## 2.22</t>
+  </si>
+  <si>
+    <t>2.06 ## 2.17</t>
+  </si>
+  <si>
+    <t>2.64 ## 2.18</t>
+  </si>
+  <si>
+    <t>3.45 ## 2.25</t>
+  </si>
+  <si>
+    <t>-1.95 ## 3.59 ## -11.67 ## -6.65 ## 10.91 ## 10.55</t>
+  </si>
+  <si>
+    <t>-0.73 ## 6.36 ## -5.97 ## -5.42 ## 9.58 ## 11.94</t>
+  </si>
+  <si>
+    <t>-0.36 ## 8.85 ## 7.87 ## 21.79 ## 14.51 ## 12.80</t>
+  </si>
+  <si>
+    <t>0.56 ## 10.71 ## 2.66 ## 9.94 ## 14.93 ## 17.16</t>
+  </si>
+  <si>
+    <t>0.99 ## 11.06 ## 0.01 ## 7.25 ## 7.37 ## 9.77</t>
+  </si>
+  <si>
+    <t>0.07 ## 9.88 ## -5.99 ## -1.84 ## 10.07 ## 11.91</t>
+  </si>
+  <si>
+    <t>-0.41 ## 6.63 ## -7.64 ## -1.04 ## 1.53 ## 8.73</t>
+  </si>
+  <si>
+    <t>1.14 ## 7.96 ## -2.67 ## 11.78 ## 6.50 ## 6.04</t>
+  </si>
+  <si>
+    <t>2.53 ## 9.70 ## 0.24 ## 7.66 ## - ## -</t>
+  </si>
+  <si>
+    <t>-0.36 ## 5.72 ## -12.86 ## -7.62 ## 2.16 ## 7.70</t>
+  </si>
+  <si>
+    <t>0.92 ## - ## - ## NaN ## - ## -</t>
+  </si>
+  <si>
+    <t>-2.67 ## 6.88 ## -5.77 ## -2.17 ## - ## -</t>
+  </si>
+  <si>
+    <t>-0.80 ## 8.56 ## -9.70 ## -1.42 ## 1.72 ## 4.11</t>
+  </si>
+  <si>
+    <t>0.56 ## 11.65 ## 0.00 ## 6.70 ## - ## -</t>
+  </si>
+  <si>
+    <t>-0.65 ## 7.35 ## -4.33 ## NaN ## - ## -</t>
+  </si>
+  <si>
+    <t>-0.11 ## 6.02 ## -9.10 ## -2.03 ## 4.24 ## 8.41</t>
+  </si>
+  <si>
+    <t>-0.95 ## 8.18 ## -3.42 ## NaN ## - ## -</t>
+  </si>
+  <si>
+    <t>0.10 ## 8.22 ## -7.77 ## NaN ## - ## -</t>
+  </si>
+  <si>
+    <t>-2.41 ## 3.32 ## -12.35 ## -8.15 ## 2.19 ## 5.31</t>
+  </si>
+  <si>
+    <t>1.67 ## 11.51 ## 1.17 ## NaN ## - ## -</t>
+  </si>
+  <si>
+    <t>0.25 ## 8.06 ## -13.22 ## -20.67 ## -5.72 ## 0.36</t>
+  </si>
+  <si>
+    <t>0.76 ## 12.38 ## 1.18 ## 3.71 ## 4.96 ## 4.11</t>
+  </si>
+  <si>
+    <t>- ## 2.11 ## 23.31 ## 74.44 ## 0.14</t>
+  </si>
+  <si>
+    <t>- ## - ## 32.97 ## 66.16 ## 0.86</t>
+  </si>
+  <si>
+    <t>- ## - ## 35.34 ## 64.66 ## -</t>
+  </si>
+  <si>
+    <t>6.73 ## 1.86 ## 22.50 ## 67.11 ## 1.80</t>
+  </si>
+  <si>
+    <t>2.35 ## 1.56 ## 34.07 ## 62.02 ## -</t>
+  </si>
+  <si>
+    <t>5.35 ## 1.05 ## 18.37 ## 74.67 ## 0.55</t>
+  </si>
+  <si>
+    <t>- ## - ## 18.90 ## 80.36 ## 0.74</t>
+  </si>
+  <si>
+    <t>5.34 ## 0.98 ## 18.61 ## 75.06 ## -</t>
+  </si>
+  <si>
+    <t>- ## - ## 10.46 ## 89.54 ## -</t>
+  </si>
+  <si>
+    <t>- ## - ## 17.36 ## 80.90 ## 1.74</t>
+  </si>
+  <si>
+    <t>- ## - ## 14.09 ## 85.90 ## 0.00</t>
+  </si>
+  <si>
+    <t>- ## 4.48 ## 20.79 ## 74.73 ## -</t>
+  </si>
+  <si>
+    <t>- ## - ## 8.94 ## 89.94 ## 1.12</t>
+  </si>
+  <si>
+    <t>- ## - ## 37.76 ## 62.24 ## -</t>
+  </si>
+  <si>
+    <t>- ## - ## 43.19 ## 55.99 ## 0.82</t>
+  </si>
+  <si>
+    <t>10.46 ## 5.11 ## 17.61 ## 66.45 ## 0.37</t>
+  </si>
+  <si>
+    <t>12.37 ## 1.96 ## 27.17 ## 58.50 ## -</t>
+  </si>
+  <si>
+    <t>- ## - ## 28.74 ## 71.26 ## -</t>
+  </si>
+  <si>
+    <t>- ## - ## 29.93 ## 69.18 ## 0.89</t>
+  </si>
+  <si>
+    <t>17.40 ## 1.01 ## 14.01 ## 67.58 ## -</t>
+  </si>
+  <si>
+    <t>7.36 ## 9.48 ## 22.98 ## 39.29 ## 20.89</t>
+  </si>
+  <si>
+    <t>- ## - ## 38.56 ## 60.33 ## 1.12</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE 250  Ret</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Nov_25</t>
-  </si>
-  <si>
-    <t>Nov_26</t>
   </si>
 </sst>
 </file>
@@ -635,7 +1053,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,13 +1071,128 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
       </patternFill>
     </fill>
     <fill>
@@ -682,16 +1215,6 @@
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -705,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="489">
+  <cellXfs count="958">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
@@ -1019,182 +1542,651 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1509,520 +2501,1134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="120" zoomScaleNormal="120">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0" zoomScale="120" zoomScaleNormal="120">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="8.1640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="8.1640625" collapsed="false"/>
+    <col min="2" max="7" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="8.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="511">
+        <v>41.761000000000003</v>
+      </c>
+      <c r="C2" s="489">
+        <v>41.375</v>
+      </c>
+      <c r="D2" s="467">
+        <v>41.369</v>
+      </c>
+      <c r="E2" s="313">
+        <v>41.511000000000003</v>
+      </c>
+      <c r="F2" s="3">
+        <v>41.023000000000003</v>
+      </c>
+      <c r="G2" s="1">
+        <v>41.113</v>
+      </c>
+      <c r="H2">
+        <v>41.27</v>
+      </c>
+      <c r="I2">
+        <v>41.249000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="512">
+        <v>23.864999999999998</v>
+      </c>
+      <c r="C3" s="490">
+        <v>23.626000000000001</v>
+      </c>
+      <c r="D3" s="468">
+        <v>23.564</v>
+      </c>
+      <c r="E3" s="314">
+        <v>23.667999999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>23.527000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>23.579000000000001</v>
+      </c>
+      <c r="H3">
+        <v>23.652000000000001</v>
+      </c>
+      <c r="I3">
+        <v>23.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="513">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="C4" s="491">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="D4" s="469">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="E4" s="315">
+        <v>33.6</v>
+      </c>
+      <c r="F4" s="5">
+        <v>33.54</v>
+      </c>
+      <c r="G4" s="1">
+        <v>33.71</v>
+      </c>
+      <c r="H4">
+        <v>33.770000000000003</v>
+      </c>
+      <c r="I4">
+        <v>33.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="514">
+        <v>57.983899999999998</v>
+      </c>
+      <c r="C5" s="492">
+        <v>57.825000000000003</v>
+      </c>
+      <c r="D5" s="470">
+        <v>57.925800000000002</v>
+      </c>
+      <c r="E5" s="316">
+        <v>58.237299999999998</v>
+      </c>
+      <c r="F5" s="6">
+        <v>58.055500000000002</v>
+      </c>
+      <c r="G5" s="1">
+        <v>58.023200000000003</v>
+      </c>
+      <c r="H5">
+        <v>57.835700000000003</v>
+      </c>
+      <c r="I5">
+        <v>57.826599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="515">
+        <v>78.405000000000001</v>
+      </c>
+      <c r="C6" s="493">
+        <v>78.177000000000007</v>
+      </c>
+      <c r="D6" s="471">
+        <v>77.762</v>
+      </c>
+      <c r="E6" s="317">
+        <v>77.738</v>
+      </c>
+      <c r="F6" s="7">
+        <v>77.438999999999993</v>
+      </c>
+      <c r="G6" s="1">
+        <v>77.471000000000004</v>
+      </c>
+      <c r="H6">
+        <v>77.86</v>
+      </c>
+      <c r="I6">
+        <v>77.799000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="516">
+        <v>41.041800000000002</v>
+      </c>
+      <c r="C7" s="494">
+        <v>40.822299999999998</v>
+      </c>
+      <c r="D7" s="472">
+        <v>40.823</v>
+      </c>
+      <c r="E7" s="318">
+        <v>40.932200000000002</v>
+      </c>
+      <c r="F7" s="8">
+        <v>40.747599999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>40.936599999999999</v>
+      </c>
+      <c r="H7">
+        <v>40.968499999999999</v>
+      </c>
+      <c r="I7">
+        <v>40.872599999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="517">
+        <v>54.317999999999998</v>
+      </c>
+      <c r="C8" s="495">
+        <v>54.094999999999999</v>
+      </c>
+      <c r="D8" s="473">
+        <v>54.097000000000001</v>
+      </c>
+      <c r="E8" s="319">
+        <v>54.262</v>
+      </c>
+      <c r="F8" s="9">
+        <v>54.134</v>
+      </c>
+      <c r="G8" s="1">
+        <v>54.107999999999997</v>
+      </c>
+      <c r="H8">
+        <v>54.265000000000001</v>
+      </c>
+      <c r="I8">
+        <v>54.210999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="518">
+        <v>26.57</v>
+      </c>
+      <c r="C9" s="496">
+        <v>26.24</v>
+      </c>
+      <c r="D9" s="474">
+        <v>26.29</v>
+      </c>
+      <c r="E9" s="320">
+        <v>26.34</v>
+      </c>
+      <c r="F9" s="10">
+        <v>26.14</v>
+      </c>
+      <c r="G9" s="1">
+        <v>26.13</v>
+      </c>
+      <c r="H9">
+        <v>26.13</v>
+      </c>
+      <c r="I9">
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="519">
+        <v>10.835100000000001</v>
+      </c>
+      <c r="C10" s="497">
+        <v>10.7767</v>
+      </c>
+      <c r="D10" s="475">
+        <v>10.7903</v>
+      </c>
+      <c r="E10" s="321">
+        <v>10.860200000000001</v>
+      </c>
+      <c r="F10" s="11">
+        <v>10.748900000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10.723800000000001</v>
+      </c>
+      <c r="H10">
+        <v>10.7376</v>
+      </c>
+      <c r="I10">
+        <v>10.7271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="520">
+        <v>32.689500000000002</v>
+      </c>
+      <c r="C11" s="498">
+        <v>32.434800000000003</v>
+      </c>
+      <c r="D11" s="476">
+        <v>32.44</v>
+      </c>
+      <c r="E11" s="322">
+        <v>32.596899999999998</v>
+      </c>
+      <c r="F11" s="12">
+        <v>32.220500000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>32.224699999999999</v>
+      </c>
+      <c r="H11">
+        <v>32.270899999999997</v>
+      </c>
+      <c r="I11">
+        <v>32.126399999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="521">
+        <v>10.708500000000001</v>
+      </c>
+      <c r="C12" s="499">
+        <v>10.5692</v>
+      </c>
+      <c r="D12" s="477">
+        <v>10.5624</v>
+      </c>
+      <c r="E12" s="323">
+        <v>10.608599999999999</v>
+      </c>
+      <c r="F12" s="13">
+        <v>10.5183</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10.5168</v>
+      </c>
+      <c r="H12">
+        <v>10.5443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="522">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="C13" s="500">
+        <v>9.42</v>
+      </c>
+      <c r="D13" s="478">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="E13" s="324">
+        <v>9.49</v>
+      </c>
+      <c r="F13" s="14">
+        <v>9.42</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="H13">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="523">
+        <v>79.118799999999993</v>
+      </c>
+      <c r="C14" s="501">
+        <v>78.604299999999995</v>
+      </c>
+      <c r="D14" s="479">
+        <v>78.655699999999996</v>
+      </c>
+      <c r="E14" s="325">
+        <v>78.649000000000001</v>
+      </c>
+      <c r="F14" s="15">
+        <v>78.046800000000005</v>
+      </c>
+      <c r="G14" s="1">
+        <v>78.256200000000007</v>
+      </c>
+      <c r="H14">
+        <v>78.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="524">
+        <v>10.83</v>
+      </c>
+      <c r="C15" s="502">
+        <v>10.76</v>
+      </c>
+      <c r="D15" s="480">
+        <v>10.74</v>
+      </c>
+      <c r="E15" s="326">
+        <v>10.82</v>
+      </c>
+      <c r="F15" s="16">
+        <v>10.75</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10.76</v>
+      </c>
+      <c r="H15">
+        <v>10.79</v>
+      </c>
+      <c r="I15">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="525">
+        <v>11.035</v>
+      </c>
+      <c r="C16" s="503">
+        <v>10.977</v>
+      </c>
+      <c r="D16" s="481">
+        <v>10.988</v>
+      </c>
+      <c r="E16" s="327">
+        <v>11.02</v>
+      </c>
+      <c r="F16" s="17">
+        <v>10.945</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10.984</v>
+      </c>
+      <c r="H16">
+        <v>10.988</v>
+      </c>
+      <c r="I16">
+        <v>10.986000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="526">
+        <v>53.510300000000001</v>
+      </c>
+      <c r="C17" s="504">
+        <v>53.017000000000003</v>
+      </c>
+      <c r="D17" s="482">
+        <v>53.013300000000001</v>
+      </c>
+      <c r="E17" s="328">
+        <v>53.232500000000002</v>
+      </c>
+      <c r="F17" s="18">
+        <v>52.753599999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>52.781399999999998</v>
+      </c>
+      <c r="H17">
+        <v>52.896900000000002</v>
+      </c>
+      <c r="I17">
+        <v>52.9773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="527">
+        <v>10.45</v>
+      </c>
+      <c r="C18" s="505">
+        <v>10.43</v>
+      </c>
+      <c r="D18" s="483">
+        <v>10.42</v>
+      </c>
+      <c r="E18" s="329">
+        <v>10.43</v>
+      </c>
+      <c r="F18" s="19">
+        <v>10.38</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="H18">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="528">
+        <v>9.61</v>
+      </c>
+      <c r="C19" s="506">
+        <v>9.52</v>
+      </c>
+      <c r="D19" s="484">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="E19" s="330">
+        <v>9.56</v>
+      </c>
+      <c r="F19" s="20">
+        <v>9.5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="H19">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="529">
+        <v>46.231200000000001</v>
+      </c>
+      <c r="C20" s="507">
+        <v>45.671799999999998</v>
+      </c>
+      <c r="D20" s="485">
+        <v>45.710900000000002</v>
+      </c>
+      <c r="E20" s="331">
+        <v>45.786799999999999</v>
+      </c>
+      <c r="F20" s="21">
+        <v>45.351399999999998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45.565100000000001</v>
+      </c>
+      <c r="H20">
+        <v>45.5505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="530">
+        <v>10.37</v>
+      </c>
+      <c r="C21" s="508">
+        <v>10.31</v>
+      </c>
+      <c r="D21" s="486">
+        <v>10.29</v>
+      </c>
+      <c r="E21" s="332">
+        <v>10.31</v>
+      </c>
+      <c r="F21" s="22">
+        <v>10.25</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10.27</v>
+      </c>
+      <c r="H21">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="531">
+        <v>41.374699999999997</v>
+      </c>
+      <c r="C22" s="509">
+        <v>41.197499999999998</v>
+      </c>
+      <c r="D22" s="487">
+        <v>41.322600000000001</v>
+      </c>
+      <c r="E22" s="333">
+        <v>41.107599999999998</v>
+      </c>
+      <c r="F22" s="23">
+        <v>41.302799999999998</v>
+      </c>
+      <c r="G22" s="1">
+        <v>41.552900000000001</v>
+      </c>
+      <c r="H22">
+        <v>41.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="532">
+        <v>14.52</v>
+      </c>
+      <c r="C23" s="510">
+        <v>14.46</v>
+      </c>
+      <c r="D23" s="488">
+        <v>14.45</v>
+      </c>
+      <c r="E23" s="334">
+        <v>14.52</v>
+      </c>
+      <c r="F23" s="24">
+        <v>14.44</v>
+      </c>
+      <c r="G23" s="1">
+        <v>14.49</v>
+      </c>
+      <c r="H23">
+        <v>14.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92DBDB8-1DF2-D649-874E-7197BBCBAFC8}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="534" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="534" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="534" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="467" t="n">
-        <v>41.369</v>
-      </c>
-      <c r="C2" s="313" t="n">
-        <v>41.511</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>41.023</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>41.113</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>41.27</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>41.249</v>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="934" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="736" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="534" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="534" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="468" t="n">
-        <v>23.564</v>
-      </c>
-      <c r="C3" s="314" t="n">
-        <v>23.668</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>23.527</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>23.579</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>23.652</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>23.59</v>
+      <c r="B3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="935" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="737" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="534" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="534" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="469" t="n">
-        <v>33.37</v>
-      </c>
-      <c r="C4" s="315" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>33.54</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>33.71</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>33.77</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>33.83</v>
+      <c r="B4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="936" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="738" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" s="534" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="534" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="470" t="n">
-        <v>57.9258</v>
-      </c>
-      <c r="C5" s="316" t="n">
-        <v>58.2373</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>58.0555</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>58.0232</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>57.8357</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>57.8266</v>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="937" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="739" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="534" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="534" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="471" t="n">
-        <v>77.762</v>
-      </c>
-      <c r="C6" s="317" t="n">
-        <v>77.738</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>77.439</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>77.471</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>77.86</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>77.799</v>
+      <c r="B6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="938" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="740" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="534" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="534" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="472" t="n">
-        <v>40.823</v>
-      </c>
-      <c r="C7" s="318" t="n">
-        <v>40.9322</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>40.7476</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>40.9366</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>40.9685</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>40.8726</v>
+      <c r="B7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="939" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="741" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="534" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="534" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="473" t="n">
-        <v>54.097</v>
-      </c>
-      <c r="C8" s="319" t="n">
-        <v>54.262</v>
-      </c>
-      <c r="D8" s="9" t="n">
-        <v>54.134</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>54.108</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>54.265</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>54.211</v>
+      <c r="B8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="940" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="742" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="534" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="534" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="474" t="n">
-        <v>26.29</v>
-      </c>
-      <c r="C9" s="320" t="n">
-        <v>26.34</v>
-      </c>
-      <c r="D9" s="10" t="n">
-        <v>26.14</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>26.14</v>
+      <c r="B9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="941" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="743" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="534" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="534" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="475" t="n">
-        <v>10.7903</v>
-      </c>
-      <c r="C10" s="321" t="n">
-        <v>10.8602</v>
-      </c>
-      <c r="D10" s="11" t="n">
-        <v>10.7489</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>10.7238</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>10.7376</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>10.7271</v>
+      <c r="B10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="942" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="744" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="534" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="534" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="476" t="n">
-        <v>32.44</v>
-      </c>
-      <c r="C11" s="322" t="n">
-        <v>32.5969</v>
-      </c>
-      <c r="D11" s="12" t="n">
-        <v>32.2205</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>32.2247</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>32.2709</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>32.1264</v>
+      <c r="B11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="943" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="745" t="s">
+        <v>305</v>
+      </c>
+      <c r="F11" s="534" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="534" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="477" t="n">
-        <v>10.5624</v>
-      </c>
-      <c r="C12" s="323" t="n">
-        <v>10.6086</v>
-      </c>
-      <c r="D12" s="13" t="n">
-        <v>10.5183</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>10.5168</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>10.5443</v>
+      <c r="B12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" s="944" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="746" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="534" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="534" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="478" t="n">
-        <v>9.46</v>
-      </c>
-      <c r="C13" s="324" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>9.46</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>9.51</v>
+      <c r="B13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="945" t="s">
+        <v>307</v>
+      </c>
+      <c r="E13" s="747" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" s="534" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="534" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="479" t="n">
-        <v>78.6557</v>
-      </c>
-      <c r="C14" s="325" t="n">
-        <v>78.649</v>
-      </c>
-      <c r="D14" s="15" t="n">
-        <v>78.0468</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>78.2562</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>78.58</v>
+      <c r="B14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="946" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" s="748" t="s">
+        <v>308</v>
+      </c>
+      <c r="F14" s="534" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="534" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="480" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="C15" s="326" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="D15" s="16" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>10.83</v>
+      <c r="B15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="947" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15" s="749" t="s">
+        <v>309</v>
+      </c>
+      <c r="F15" s="534" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="534" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="481" t="n">
-        <v>10.988</v>
-      </c>
-      <c r="C16" s="327" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="D16" s="17" t="n">
-        <v>10.945</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>10.984</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>10.988</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>10.986</v>
+      <c r="B16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="948" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" s="750" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="534" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="534" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="482" t="n">
-        <v>53.0133</v>
-      </c>
-      <c r="C17" s="328" t="n">
-        <v>53.2325</v>
-      </c>
-      <c r="D17" s="18" t="n">
-        <v>52.7536</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>52.7814</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>52.8969</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>52.9773</v>
+      <c r="B17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="949" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" s="751" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="534" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="483" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="C18" s="329" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="D18" s="19" t="n">
-        <v>10.38</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>10.49</v>
+      <c r="B18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D18" s="950" t="s">
+        <v>312</v>
+      </c>
+      <c r="E18" s="752" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="534" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="534" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="484" t="n">
-        <v>9.53</v>
-      </c>
-      <c r="C19" s="330" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="D19" s="20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>9.54</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>9.56</v>
+      <c r="B19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" s="951" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" s="753" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" s="534" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="534" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="485" t="n">
-        <v>45.7109</v>
-      </c>
-      <c r="C20" s="331" t="n">
-        <v>45.7868</v>
-      </c>
-      <c r="D20" s="21" t="n">
-        <v>45.3514</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>45.5651</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>45.5505</v>
+      <c r="B20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="952" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20" s="754" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" s="534" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="534" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="486" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="C21" s="332" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="D21" s="22" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>10.25</v>
+      <c r="B21" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" s="953" t="s">
+        <v>315</v>
+      </c>
+      <c r="E21" s="755" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="534" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="534" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="487" t="n">
-        <v>41.3226</v>
-      </c>
-      <c r="C22" s="333" t="n">
-        <v>41.1076</v>
-      </c>
-      <c r="D22" s="23" t="n">
-        <v>41.3028</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>41.5529</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>41.19</v>
+      <c r="B22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" s="954" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" s="756" t="s">
+        <v>316</v>
+      </c>
+      <c r="F22" s="534" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="534" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="488" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="C23" s="334" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="D23" s="24" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>14.51</v>
+      <c r="B23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D23" s="955" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23" s="757" t="s">
+        <v>317</v>
+      </c>
+      <c r="F23" s="534" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2032,336 +3638,616 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E10517-3041-A548-8327-A322F0969D22}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="25.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.33203125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="335" t="s">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="758" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" s="560" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="335" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="336" t="s">
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="759" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" s="561" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="336" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="138" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="337" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="760" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" s="562" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="337" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="338" t="s">
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="761" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5" s="563" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="338" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="339" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="762" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6" s="564" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="339" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="340" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="763" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" s="565" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="340" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="142" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="341" t="s">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="764" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" s="566" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="341" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="143" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="342" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="765" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9" s="567" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="342" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="144" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="343" t="s">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="766" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10" s="568" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="343" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="767" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" s="569" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="344" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="345" t="s">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="768" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E12" s="570" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="345" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="346" t="s">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="148" t="s">
+      <c r="C13" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="769" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E13" s="571" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="346" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="347" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="770" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E14" s="572" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="347" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="149" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="348" t="s">
+      <c r="B15" s="956" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="771" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="E15" s="573" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F15" s="348" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="349" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="772" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16" s="574" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="349" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="151" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="350" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="152" t="s">
+      <c r="C17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="773" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" s="575" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="350" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="152" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="351" t="s">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="153" t="s">
+      <c r="C18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="774" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" s="576" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="351" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="153" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="352" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="154" t="s">
+      <c r="C19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="775" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" s="577" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="352" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="154" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="353" t="s">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="155" t="s">
+      <c r="C20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="776" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" s="578" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="353" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="354" t="s">
+      <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="156" t="s">
+      <c r="C21" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="777" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21" s="579" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="354" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="156" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="355" t="s">
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="157" t="s">
+      <c r="C22" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="778" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22" s="580" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="355" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="157" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="356" t="s">
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="158" t="s">
+      <c r="C23" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="779" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="581" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="356" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="48" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2372,336 +4258,616 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31A2CC3-117B-3044-9A40-45E232EE90D3}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B1" sqref="B1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="357" t="s">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="780" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" s="582" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="357" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="159" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="358" t="s">
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="781" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" s="583" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="358" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="160" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="359" t="s">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="782" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" s="584" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="359" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="161" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="360" t="s">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="783" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5" s="585" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="360" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="162" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="361" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="784" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6" s="586" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="361" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="163" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="362" t="s">
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="785" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" s="587" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="362" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="164" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="363" t="s">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="786" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" s="588" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="363" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="165" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="364" t="s">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="166" t="s">
+      <c r="C9" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="787" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9" s="589" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="364" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="166" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="365" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="167" t="s">
+      <c r="C10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="788" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10" s="590" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="365" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="167" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="366" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="168" t="s">
+      <c r="C11" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="789" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" s="591" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="366" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="367" t="s">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="169" t="s">
+      <c r="C12" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="790" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E12" s="592" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="367" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="368" t="s">
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="170" t="s">
+      <c r="C13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="791" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E13" s="593" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="368" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="170" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="369" t="s">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="792" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E14" s="594" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="369" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="171" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="370" t="s">
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="172" t="s">
+      <c r="C15" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="793" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E15" s="595" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="370" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="172" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="371" t="s">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="173" t="s">
+      <c r="C16" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="794" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16" s="596" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="371" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="173" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="372" t="s">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="174" t="s">
+      <c r="C17" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="795" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" s="597" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="372" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="373" t="s">
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="175" t="s">
+      <c r="C18" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="796" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" s="598" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="373" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="374" t="s">
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="176" t="s">
+      <c r="C19" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="797" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" s="599" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="374" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="176" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="375" t="s">
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="177" t="s">
+      <c r="C20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="798" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" s="600" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="375" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="177" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="376" t="s">
+      <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="178" t="s">
+      <c r="C21" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="799" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21" s="601" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="376" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="377" t="s">
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="179" t="s">
+      <c r="C22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="800" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22" s="602" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="377" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="378" t="s">
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="180" t="s">
+      <c r="C23" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="801" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="603" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="378" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="180" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="70" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2712,336 +4878,616 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7F83E3-8D7E-E84F-B4A5-9AABCBB25C75}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="7.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.0" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="7.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="379" t="s">
+      <c r="B2" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="25" t="n">
+      <c r="D2" s="802" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="604" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="379" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="25" t="n">
         <v>0.0088</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="380" t="s">
+      <c r="B3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="182" t="s">
+      <c r="C3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="803" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="605" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="380" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="182" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="25" t="n">
         <v>0.007</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="381" t="s">
+      <c r="B4" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="183" t="s">
+      <c r="C4" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="804" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="606" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="381" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="183" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="25" t="n">
         <v>0.0063</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="382" t="s">
+      <c r="B5" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="25" t="n">
+      <c r="D5" s="805" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="607" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="382" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="184" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="25" t="n">
         <v>0.0103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="383" t="s">
+      <c r="B6" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="185" t="s">
+      <c r="C6" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="806" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="608" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="383" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="185" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="25" t="n">
         <v>0.0092</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="384" t="s">
+      <c r="B7" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="807" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="609" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="384" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="186" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="25" t="n">
         <v>0.0125</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="385" t="s">
+      <c r="B8" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="187" t="s">
+      <c r="C8" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="808" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="610" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="385" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="187" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="25" t="n">
         <v>0.0114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="386" t="s">
+      <c r="B9" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="188" t="s">
+      <c r="C9" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="25" t="n">
+      <c r="D9" s="809" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="611" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="386" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="188" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="25" t="n">
         <v>0.0125</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="387" t="s">
+      <c r="B10" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="189" t="s">
+      <c r="C10" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="810" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="612" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="387" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="189" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="25" t="n">
         <v>0.0069</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="388" t="s">
+      <c r="B11" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="190" t="s">
+      <c r="C11" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="25" t="n">
+      <c r="D11" s="811" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="613" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="388" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="190" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="25" t="n">
         <v>0.0121</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="389" t="s">
+      <c r="B12" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="191" t="s">
+      <c r="C12" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="25" t="n">
+      <c r="D12" s="812" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="614" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="389" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="191" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="25" t="n">
         <v>0.0038</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="390" t="s">
+      <c r="B13" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="192" t="s">
+      <c r="C13" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="25" t="n">
+      <c r="D13" s="813" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="615" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="390" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="192" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="25" t="n">
         <v>0.016</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="391" t="s">
+      <c r="B14" s="957" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="193" t="s">
+      <c r="C14" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="814" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="E14" s="616" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="391" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="193" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="25" t="n">
         <v>0.0144</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="392" t="s">
+      <c r="B15" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="194" t="s">
+      <c r="C15" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="815" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="617" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="392" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="194" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="25" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="393" t="s">
+      <c r="B16" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="195" t="s">
+      <c r="C16" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="25" t="n">
+      <c r="D16" s="816" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="618" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="393" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="195" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="25" t="n">
         <v>0.0092</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="394" t="s">
+      <c r="B17" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="196" t="s">
+      <c r="C17" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="25" t="n">
+      <c r="D17" s="817" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="619" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="394" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="196" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="25" t="n">
         <v>0.0095</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="395" t="s">
+      <c r="B18" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="197" t="s">
+      <c r="C18" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="25" t="n">
+      <c r="D18" s="818" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="620" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="395" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="197" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="25" t="n">
         <v>0.0078</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="396" t="s">
+      <c r="B19" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="198" t="s">
+      <c r="C19" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="25" t="n">
+      <c r="D19" s="819" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="621" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="396" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="198" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="25" t="n">
         <v>0.0077</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="397" t="s">
+      <c r="B20" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="199" t="s">
+      <c r="C20" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="25" t="n">
+      <c r="D20" s="820" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="622" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="397" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="199" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="25" t="n">
         <v>0.0102</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="398" t="s">
+      <c r="B21" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="200" t="s">
+      <c r="C21" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="25" t="n">
+      <c r="D21" s="821" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="623" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="398" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="200" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="25" t="n">
         <v>0.0071</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="399" t="s">
+      <c r="B22" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="201" t="s">
+      <c r="C22" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="25" t="n">
+      <c r="D22" s="822" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="624" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="399" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="201" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="25" t="n">
         <v>0.0238</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="400" t="s">
+      <c r="B23" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="202" t="s">
+      <c r="C23" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="25" t="n">
+      <c r="D23" s="823" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="625" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="400" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="202" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="25" t="n">
         <v>0.0179</v>
       </c>
     </row>
@@ -3052,336 +5498,616 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1FCE02-3D0C-1545-8192-6E055D0C99D5}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="B1" sqref="B1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="19.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.5" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="19.5" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="401" t="s">
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="824" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" s="626" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="401" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="203" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="402" t="s">
+      <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="204" t="s">
+      <c r="C3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="825" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" s="627" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="402" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="204" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="403" t="s">
+      <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="205" t="s">
+      <c r="C4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="826" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" s="628" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="403" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="205" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="404" t="s">
+      <c r="B5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="206" t="s">
+      <c r="C5" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="827" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5" s="629" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="404" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="206" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="405" t="s">
+      <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="828" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6" s="630" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="405" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="207" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="406" t="s">
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="208" t="s">
+      <c r="C7" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="829" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" s="631" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="406" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="208" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="76" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="407" t="s">
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="830" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" s="632" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="407" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="209" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="408" t="s">
+      <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="210" t="s">
+      <c r="C9" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="831" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9" s="633" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="408" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="210" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="409" t="s">
+      <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="211" t="s">
+      <c r="C10" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="832" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10" s="634" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="409" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="211" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="410" t="s">
+      <c r="B11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="212" t="s">
+      <c r="C11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="833" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" s="635" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="410" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="212" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="411" t="s">
+      <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="213" t="s">
+      <c r="C12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="834" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E12" s="636" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="411" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="213" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="412" t="s">
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="214" t="s">
+      <c r="C13" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="835" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E13" s="637" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="412" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="214" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="82" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="413" t="s">
+      <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="215" t="s">
+      <c r="C14" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="836" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E14" s="638" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="413" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="215" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="414" t="s">
+      <c r="B15" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="216" t="s">
+      <c r="C15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="837" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E15" s="639" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="414" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="216" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="84" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="415" t="s">
+      <c r="B16" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="217" t="s">
+      <c r="C16" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="838" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16" s="640" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="415" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="217" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="416" t="s">
+      <c r="B17" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="218" t="s">
+      <c r="C17" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="839" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" s="641" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="416" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="218" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="417" t="s">
+      <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="219" t="s">
+      <c r="C18" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="840" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" s="642" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="417" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="219" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="418" t="s">
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="220" t="s">
+      <c r="C19" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="841" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" s="643" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="418" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="220" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="419" t="s">
+      <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="221" t="s">
+      <c r="C20" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="842" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" s="644" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="419" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="221" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="420" t="s">
+      <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="222" t="s">
+      <c r="C21" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="843" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21" s="645" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="420" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="222" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="421" t="s">
+      <c r="B22" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="223" t="s">
+      <c r="C22" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="91" t="s">
+      <c r="D22" s="844" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22" s="646" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="421" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="223" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="422" t="s">
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="224" t="s">
+      <c r="C23" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="92" t="s">
+      <c r="D23" s="845" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="647" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="422" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="224" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="92" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3392,336 +6118,616 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6044C64-1C8D-2144-BC85-693CF5996D95}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="B1" sqref="B1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="11.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.6640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="423" t="s">
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="846" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="648" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="423" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="225" t="s">
+      <c r="G2" s="225" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="H2" s="93" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="424" t="s">
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="847" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="649" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="424" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="226" t="s">
+      <c r="G3" s="226" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="H3" s="94" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="425" t="s">
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="848" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="650" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="425" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="227" t="s">
+      <c r="G4" s="227" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="H4" s="95" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="426" t="s">
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="849" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="651" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="426" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="228" t="s">
+      <c r="G5" s="228" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="H5" s="96" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="427" t="s">
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="850" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="652" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="427" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="229" t="s">
+      <c r="G6" s="229" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="H6" s="97" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="428" t="s">
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="851" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="653" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="428" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="230" t="s">
+      <c r="G7" s="230" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="H7" s="98" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="429" t="s">
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="852" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="654" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="231" t="s">
+      <c r="G8" s="231" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="H8" s="99" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="430" t="s">
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="853" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="655" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="430" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="232" t="s">
+      <c r="G9" s="232" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="H9" s="100" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="431" t="s">
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="854" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="656" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="431" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="233" t="s">
+      <c r="G10" s="233" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="H10" s="101" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="432" t="s">
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="855" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="657" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="432" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="234" t="s">
+      <c r="G11" s="234" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="H11" s="102" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="433" t="s">
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="856" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="658" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="433" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="235" t="s">
+      <c r="G12" s="235" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="H12" s="103" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="434" t="s">
+      <c r="B13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="857" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="659" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="434" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="236" t="s">
+      <c r="G13" s="236" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="H13" s="104" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="435" t="s">
+      <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="858" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="660" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="435" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="237" t="s">
+      <c r="G14" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="H14" s="105" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="436" t="s">
+      <c r="B15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="859" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="661" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" s="436" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="238" t="s">
+      <c r="G15" s="238" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="106" t="s">
+      <c r="H15" s="106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="437" t="s">
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="860" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="662" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="437" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="239" t="s">
+      <c r="G16" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="H16" s="107" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="438" t="s">
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="861" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="663" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="438" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="240" t="s">
+      <c r="G17" s="240" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="H17" s="108" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="439" t="s">
+      <c r="B18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="862" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="664" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="439" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="241" t="s">
+      <c r="G18" s="241" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="H18" s="109" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="440" t="s">
+      <c r="B19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="863" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="665" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="440" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="242" t="s">
+      <c r="G19" s="242" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="H19" s="110" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="441" t="s">
+      <c r="B20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="864" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="666" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="441" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="G20" s="243" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="H20" s="111" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="442" t="s">
+      <c r="B21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" s="865" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" s="667" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="442" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="244" t="s">
+      <c r="G21" s="244" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="112" t="s">
+      <c r="H21" s="112" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="443" t="s">
+      <c r="B22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" s="866" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" s="668" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="443" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="245" t="s">
+      <c r="G22" s="245" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="113" t="s">
+      <c r="H22" s="113" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="444" t="s">
+      <c r="B23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="867" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="669" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="444" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="246" t="s">
+      <c r="G23" s="246" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="H23" s="114" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3732,336 +6738,616 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311CB058-A4EB-6F43-B724-C153741DCABC}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B1" sqref="B1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="9.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.6640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="9.6640625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="445" t="s">
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="868" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="670" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="445" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="247" t="s">
+      <c r="G2" s="247" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="H2" s="115" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="446" t="s">
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="869" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="671" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="446" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="248" t="s">
+      <c r="G3" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="116" t="s">
+      <c r="H3" s="116" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="447" t="s">
+      <c r="B4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="870" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="672" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="447" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="249" t="s">
+      <c r="G4" s="249" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="H4" s="117" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="448" t="s">
+      <c r="B5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="871" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="673" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="448" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="250" t="s">
+      <c r="G5" s="250" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="H5" s="118" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="449" t="s">
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="872" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="674" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="449" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="251" t="s">
+      <c r="G6" s="251" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="H6" s="119" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="450" t="s">
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="873" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="675" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="450" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="252" t="s">
+      <c r="G7" s="252" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="H7" s="120" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="451" t="s">
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="874" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="676" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="451" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="253" t="s">
+      <c r="G8" s="253" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="H8" s="121" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="452" t="s">
+      <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="875" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="677" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="452" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="254" t="s">
+      <c r="G9" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="122" t="s">
+      <c r="H9" s="122" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="453" t="s">
+      <c r="B10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="876" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="678" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="453" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="255" t="s">
+      <c r="G10" s="255" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="H10" s="123" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="454" t="s">
+      <c r="B11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="877" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="679" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="454" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="256" t="s">
+      <c r="G11" s="256" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="H11" s="124" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="455" t="s">
+      <c r="B12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="878" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="680" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="455" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="257" t="s">
+      <c r="G12" s="257" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="H12" s="125" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="456" t="s">
+      <c r="B13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="879" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="681" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="456" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="258" t="s">
+      <c r="G13" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="126" t="s">
+      <c r="H13" s="126" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="457" t="s">
+      <c r="B14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" s="880" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="682" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="457" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="259" t="s">
+      <c r="G14" s="259" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="H14" s="127" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="458" t="s">
+      <c r="B15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="881" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="683" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="458" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="260" t="s">
+      <c r="G15" s="260" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="128" t="s">
+      <c r="H15" s="128" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="459" t="s">
+      <c r="B16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="882" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="684" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="459" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="261" t="s">
+      <c r="G16" s="261" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="129" t="s">
+      <c r="H16" s="129" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="460" t="s">
+      <c r="B17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="883" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="685" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="460" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="262" t="s">
+      <c r="G17" s="262" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="130" t="s">
+      <c r="H17" s="130" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="461" t="s">
+      <c r="B18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="884" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="686" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="461" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="263" t="s">
+      <c r="G18" s="263" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="131" t="s">
+      <c r="H18" s="131" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="462" t="s">
+      <c r="B19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="885" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="687" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="462" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="264" t="s">
+      <c r="G19" s="264" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="132" t="s">
+      <c r="H19" s="132" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="463" t="s">
+      <c r="B20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="886" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="688" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="463" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="265" t="s">
+      <c r="G20" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="133" t="s">
+      <c r="H20" s="133" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="464" t="s">
+      <c r="B21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="887" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="689" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" s="464" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="266" t="s">
+      <c r="G21" s="266" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="134" t="s">
+      <c r="H21" s="134" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="465" t="s">
+      <c r="B22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="888" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="690" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="465" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="267" t="s">
+      <c r="G22" s="267" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="135" t="s">
+      <c r="H22" s="135" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="466" t="s">
+      <c r="B23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="889" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" s="691" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" s="466" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="268" t="s">
+      <c r="G23" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="136" t="s">
+      <c r="H23" s="136" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4072,268 +7358,1179 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E466B42B-1FD8-C746-8F67-0DBD703B7828}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="140" zoomScaleNormal="140">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="43.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="36.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="268"/>
       <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="291" t="s">
+      <c r="B2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="890" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="692" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" s="537" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="535" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="291" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="269" t="s">
+      <c r="I2" s="269" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="292" t="s">
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="891" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="693" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="538" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="536" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="292" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="270" t="s">
+      <c r="I3" s="270" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="268" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="293" t="s">
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="892" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="694" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="539" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="293" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="271" t="s">
+      <c r="I4" s="271" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="294" t="s">
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="893" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="695" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="540" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="294" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="272" t="s">
+      <c r="I5" s="272" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="268" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="295" t="s">
+      <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="894" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="696" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="541" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="295" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="273" t="s">
+      <c r="I6" s="273" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="296" t="s">
+      <c r="B7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="895" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="697" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="542" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="296" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="274" t="s">
+      <c r="I7" s="274" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="268" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="297" t="s">
+      <c r="B8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="896" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="698" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" s="543" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="297" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="275" t="s">
+      <c r="I8" s="275" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="298" t="s">
+      <c r="B9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="897" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="699" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" s="544" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="298" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="276" t="s">
+      <c r="I9" s="276" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="299" t="s">
+      <c r="B10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="898" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="700" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="545" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="299" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="277" t="s">
+      <c r="I10" s="277" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="268" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="300" t="s">
+      <c r="B11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="899" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" s="701" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" s="546" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="300" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="278" t="s">
+      <c r="I11" s="278" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="301" t="s">
+      <c r="B12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="900" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="702" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" s="547" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="301" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="279" t="s">
+      <c r="I12" s="279" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="302" t="s">
+      <c r="B13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="901" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" s="703" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="548" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="302" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="280" t="s">
+      <c r="I13" s="280" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="303" t="s">
+      <c r="B14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="902" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="704" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="549" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="303" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="281" t="s">
+      <c r="I14" s="281" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="304" t="s">
+      <c r="B15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="903" t="s">
+        <v>287</v>
+      </c>
+      <c r="E15" s="705" t="s">
+        <v>287</v>
+      </c>
+      <c r="F15" s="550" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="304" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="282" t="s">
+      <c r="I15" s="282" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="305" t="s">
+      <c r="B16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="904" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="706" t="s">
+        <v>288</v>
+      </c>
+      <c r="F16" s="551" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" s="305" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="283" t="s">
+      <c r="I16" s="283" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="268" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="306" t="s">
+      <c r="B17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="905" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="707" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="552" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17" s="306" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="284" t="s">
+      <c r="I17" s="284" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="307" t="s">
+      <c r="B18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" s="906" t="s">
+        <v>290</v>
+      </c>
+      <c r="E18" s="708" t="s">
+        <v>290</v>
+      </c>
+      <c r="F18" s="553" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="307" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="285" t="s">
+      <c r="I18" s="285" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="308" t="s">
+      <c r="B19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" s="907" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19" s="709" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="554" t="s">
+        <v>203</v>
+      </c>
+      <c r="H19" s="308" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="286" t="s">
+      <c r="I19" s="286" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="309" t="s">
+      <c r="B20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="D20" s="908" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="710" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="555" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="309" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="287" t="s">
+      <c r="I20" s="287" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="310" t="s">
+      <c r="B21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" s="909" t="s">
+        <v>293</v>
+      </c>
+      <c r="E21" s="711" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="556" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="310" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="288" t="s">
+      <c r="I21" s="288" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="311" t="s">
+      <c r="B22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" s="910" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="712" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" s="557" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" s="311" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="289" t="s">
+      <c r="I22" s="289" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="268" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="312" t="s">
+      <c r="B23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D23" s="911" t="s">
+        <v>295</v>
+      </c>
+      <c r="E23" s="713" t="s">
+        <v>295</v>
+      </c>
+      <c r="F23" s="558" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23" s="312" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="290" t="s">
+      <c r="I23" s="290" t="s">
         <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFB690F-C32C-9C46-8852-472D587E1FA2}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="86.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="86.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="86.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="86.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="86.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.6640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="533"/>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="533" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="533" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="912" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="714" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="559" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="533" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="533" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="913" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="715" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="559" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="533" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="533" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="914" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="716" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="559" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="533" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="533" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="915" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="717" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="559" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="533" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="533" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="916" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="718" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="559" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="533" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="533" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="917" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="719" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="559" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="533" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="533" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="918" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="720" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="559" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="533" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="533" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="919" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="721" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="559" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="533" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="533" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="920" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="722" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="559" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="533" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="533" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="921" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="723" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="559" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" s="533" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="533" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="922" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="724" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="559" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="533" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="533" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="923" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="725" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="559" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="533" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="533" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="924" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="726" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="559" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="533" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="533" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="925" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="727" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="559" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="533" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="533" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="926" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="728" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="559" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="533" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="533" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="927" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="729" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="559" t="s">
+        <v>223</v>
+      </c>
+      <c r="G17" s="533" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="533" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="928" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="730" t="s">
+        <v>224</v>
+      </c>
+      <c r="F18" s="559" t="s">
+        <v>224</v>
+      </c>
+      <c r="G18" s="533" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="533" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="929" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="731" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="559" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="533" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="533" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="930" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="732" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="559" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="533" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="533" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="931" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="733" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="559" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="533" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="533" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="932" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="734" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="559" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" s="533" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="533" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="933" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="735" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" s="559" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" s="533" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/IndMFData/IndMF_SmallCap.xlsx
+++ b/Reports/IndMFData/IndMF_SmallCap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/IndMFData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{84D47437-9607-9440-B1DA-A0A4735B12D2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{761EB5B8-6645-CA48-A289-D0F220E17426}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="15900" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
+    <workbookView activeTab="9" windowHeight="15900" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="NAV" r:id="rId1" sheetId="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="204">
   <si>
     <t>Nov_21</t>
   </si>
@@ -637,70 +637,40 @@
     <t>Nov_30</t>
   </si>
   <si>
-    <t>-1.95 --- 3.59 --- -11.67 --- -6.65 --- 10.91 --- 10.55</t>
-  </si>
-  <si>
-    <t>-0.73 --- 6.36 --- -5.97 --- -5.42 --- 9.58 --- 11.94</t>
-  </si>
-  <si>
-    <t>-0.36 --- 8.85 --- 7.87 --- 21.79 --- 14.51 --- 12.80</t>
-  </si>
-  <si>
-    <t>0.56 --- 10.71 --- 2.66 --- 9.94 --- 14.93 --- 17.16</t>
-  </si>
-  <si>
-    <t>0.99 --- 11.06 --- 0.01 --- 7.25 --- 7.37 --- 9.77</t>
-  </si>
-  <si>
-    <t>0.07 --- 9.88 --- -5.99 --- -1.84 --- 10.07 --- 11.91</t>
-  </si>
-  <si>
-    <t>-0.41 --- 6.63 --- -7.64 --- -1.04 --- 1.53 --- 8.73</t>
-  </si>
-  <si>
-    <t>1.14 --- 7.96 --- -2.67 --- 11.78 --- 6.50 --- 6.04</t>
-  </si>
-  <si>
-    <t>2.53 --- 9.70 --- 0.24 --- 7.66 --- - --- -</t>
-  </si>
-  <si>
-    <t>-0.36 --- 5.72 --- -12.86 --- -7.62 --- 2.16 --- 7.70</t>
-  </si>
-  <si>
-    <t>0.92 --- - --- - --- NaN --- - --- -</t>
-  </si>
-  <si>
-    <t>-2.67 --- 6.88 --- -5.77 --- -2.17 --- - --- -</t>
-  </si>
-  <si>
-    <t>-0.80 --- 8.56 --- -9.70 --- -1.42 --- 1.72 --- 4.11</t>
-  </si>
-  <si>
-    <t>0.56 --- 11.65 --- 0.00 --- 6.70 --- - --- -</t>
-  </si>
-  <si>
-    <t>-0.65 --- 7.35 --- -4.33 --- NaN --- - --- -</t>
-  </si>
-  <si>
-    <t>-0.11 --- 6.02 --- -9.10 --- -2.03 --- 4.24 --- 8.41</t>
-  </si>
-  <si>
-    <t>-0.95 --- 8.18 --- -3.42 --- NaN --- - --- -</t>
-  </si>
-  <si>
-    <t>0.10 --- 8.22 --- -7.77 --- NaN --- - --- -</t>
-  </si>
-  <si>
-    <t>-2.41 --- 3.32 --- -12.35 --- -8.15 --- 2.19 --- 5.31</t>
-  </si>
-  <si>
-    <t>1.67 --- 11.51 --- 1.17 --- NaN --- - --- -</t>
-  </si>
-  <si>
-    <t>0.25 --- 8.06 --- -13.22 --- -20.67 --- -5.72 --- 0.36</t>
-  </si>
-  <si>
-    <t>0.76 --- 12.38 --- 1.18 --- 3.71 --- 4.96 --- 4.11</t>
+    <t>S&amp;P BSE 250  Ret</t>
+  </si>
+  <si>
+    <t>₹528 Cr</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>15.64 ## 15.6</t>
+  </si>
+  <si>
+    <t>19.63 ## 17.58</t>
+  </si>
+  <si>
+    <t>24.50 ## 16.97</t>
+  </si>
+  <si>
+    <t>1.80 ## 1.97</t>
+  </si>
+  <si>
+    <t>2.48 ## 2.34</t>
+  </si>
+  <si>
+    <t>4.01 ## 2.5</t>
+  </si>
+  <si>
+    <t>-1.95 ## 3.59 ## -11.67 ## -6.65 ## 10.91 ## 10.55</t>
+  </si>
+  <si>
+    <t>-0.73 ## 6.36 ## -5.97 ## -5.42 ## 9.58 ## 11.94</t>
+  </si>
+  <si>
+    <t>-0.36 ## 8.85 ## 7.87 ## 21.79 ## 14.51 ## 12.80</t>
   </si>
   <si>
     <t>Services ## 17.91 ## Chemicals ## 13.73 ## Financial ## 10.16 ## Engineering ## 8.74 ## Technology ## 7.76</t>
@@ -712,261 +682,6 @@
     <t>Construction ## 17.99 ## Financial ## 17.28 ## Chemicals ## 14.09 ## FMCG ## 8.41 ## Technology ## 6.04</t>
   </si>
   <si>
-    <t>Engineering ## 17.47 ## FMCG ## 14.32 ## Financial ## 10.93 ## Cons Durable ## 7.85 ## Services ## 6.81</t>
-  </si>
-  <si>
-    <t>Engineering ## 15.27 ## Chemicals ## 14.23 ## Financial ## 11.72 ## Construction ## 11.64 ## FMCG ## 10.34</t>
-  </si>
-  <si>
-    <t>Chemicals ## 15.08 ## Engineering ## 13.86 ## Financial ## 12.3 ## FMCG ## 11.04 ## Construction ## 9.25</t>
-  </si>
-  <si>
-    <t>Chemicals ## 21.55 ## Textiles ## 10.54 ## Automobile ## 9.54 ## Financial ## 8.94 ## Construction ## 8.9</t>
-  </si>
-  <si>
-    <t>Financial ## 20.55 ## Services ## 18.92 ## Construction ## 16.3 ## FMCG ## 8.82 ## Engineering ## 7.97</t>
-  </si>
-  <si>
-    <t>Chemicals ## 18.92 ## Services ## 13.52 ## Construction ## 11.17 ## Engineering ## 11.06 ## FMCG ## 8.95</t>
-  </si>
-  <si>
-    <t>Services ## 15.69 ## Financial ## 15.24 ## Engineering ## 7.74 ## Chemicals ## 7.69 ## Construction ## 6.55</t>
-  </si>
-  <si>
-    <t>Financial ## 15.32 ## Services ## 13.0 ## Construction ## 11.97 ## Engineering ## 9.81 ## Chemicals ## 8.94</t>
-  </si>
-  <si>
-    <t>Engineering ## 16.6 ## Chemicals ## 15.9 ## Services ## 12.37 ## Construction ## 12.09 ## Financial ## 9.59</t>
-  </si>
-  <si>
-    <t>Construction ## 22.48 ## Engineering ## 14.83 ## Services ## 12.55 ## Healthcare ## 9.8 ## Automobile ## 9.02</t>
-  </si>
-  <si>
-    <t>Services ## 19.45 ## Engineering ## 12.52 ## Financial ## 12.08 ## Construction ## 9.8 ## Chemicals ## 8.58</t>
-  </si>
-  <si>
-    <t>Construction ## 18.91 ## Engineering ## 16.7 ## Chemicals ## 15.41 ## Services ## 11.66 ## Financial ## 8.8</t>
-  </si>
-  <si>
-    <t>Financial ## 18.14 ## Construction ## 12.34 ## Chemicals ## 10.7 ## Energy ## 6.56 ## Services ## 6.39</t>
-  </si>
-  <si>
-    <t>Financial ## 22.32 ## Chemicals ## 16.44 ## Construction ## 12.75 ## Healthcare ## 8.61 ## FMCG ## 8.06</t>
-  </si>
-  <si>
-    <t>Construction ## 19.37 ## Engineering ## 14.14 ## Financial ## 11.53 ## Chemicals ## 10.99 ## Services ## 8.77</t>
-  </si>
-  <si>
-    <t>Construction ## 19.19 ## Services ## 13.91 ## Chemicals ## 12.46 ## Engineering ## 11.4 ## Financial ## 10.84</t>
-  </si>
-  <si>
-    <t>Chemicals ## 22.84 ## Financial ## 19.12 ## Construction ## 15.38 ## Technology ## 9.45 ## Services ## 7.41</t>
-  </si>
-  <si>
-    <t>Financial ## 29.59 ## FMCG ## 15.47 ## Healthcare ## 11.77 ## Construction ## 9.01 ## Textiles ## 8.98</t>
-  </si>
-  <si>
-    <t>Services ## 21.19 ## Financial ## 10.62 ## Construction ## 10.54 ## Chemicals ## 9.07 ## Healthcare ## 8.39</t>
-  </si>
-  <si>
-    <t>15.64 ## 15.6</t>
-  </si>
-  <si>
-    <t>19.63 ## 17.58</t>
-  </si>
-  <si>
-    <t>24.50 ## 16.97</t>
-  </si>
-  <si>
-    <t>14.57 ## 15.21</t>
-  </si>
-  <si>
-    <t>22.59 ## 16.69</t>
-  </si>
-  <si>
-    <t>14.55 ## 15.07</t>
-  </si>
-  <si>
-    <t>15.70 ## 15.45</t>
-  </si>
-  <si>
-    <t>18.82 ## 15.55</t>
-  </si>
-  <si>
-    <t>20.26 ## 15.6</t>
-  </si>
-  <si>
-    <t>14.42 ## 14.97</t>
-  </si>
-  <si>
-    <t>35.01 ## 15.27</t>
-  </si>
-  <si>
-    <t>22.82 ## 15.41</t>
-  </si>
-  <si>
-    <t>21.86 ## 16.38</t>
-  </si>
-  <si>
-    <t>23.74 ## 15.82</t>
-  </si>
-  <si>
-    <t>23.31 ## 15.83</t>
-  </si>
-  <si>
-    <t>16.87 ## 16.17</t>
-  </si>
-  <si>
-    <t>28.09 ## 15.33</t>
-  </si>
-  <si>
-    <t>15.99 ## 15.26</t>
-  </si>
-  <si>
-    <t>19.55 ## 15.72</t>
-  </si>
-  <si>
-    <t>14.80 ## 15.2</t>
-  </si>
-  <si>
-    <t>17.37 ## 15.21</t>
-  </si>
-  <si>
-    <t>21.58 ## 15.6</t>
-  </si>
-  <si>
-    <t>1.80 ## 1.97</t>
-  </si>
-  <si>
-    <t>2.48 ## 2.34</t>
-  </si>
-  <si>
-    <t>4.01 ## 2.5</t>
-  </si>
-  <si>
-    <t>2.56 ## 2.18</t>
-  </si>
-  <si>
-    <t>2.94 ## 2.33</t>
-  </si>
-  <si>
-    <t>2.02 ## 2.08</t>
-  </si>
-  <si>
-    <t>2.26 ## 2.22</t>
-  </si>
-  <si>
-    <t>2.37 ## 2.19</t>
-  </si>
-  <si>
-    <t>2.16 ## 2.18</t>
-  </si>
-  <si>
-    <t>1.70 ## 2.03</t>
-  </si>
-  <si>
-    <t>1.70 ## 2.18</t>
-  </si>
-  <si>
-    <t>3.07 ## 2.2</t>
-  </si>
-  <si>
-    <t>2.28 ## 2.19</t>
-  </si>
-  <si>
-    <t>3.74 ## 2.29</t>
-  </si>
-  <si>
-    <t>3.50 ## 2.28</t>
-  </si>
-  <si>
-    <t>2.04 ## 2.1</t>
-  </si>
-  <si>
-    <t>3.92 ## 2.19</t>
-  </si>
-  <si>
-    <t>2.48 ## 2.2</t>
-  </si>
-  <si>
-    <t>2.51 ## 2.22</t>
-  </si>
-  <si>
-    <t>2.06 ## 2.17</t>
-  </si>
-  <si>
-    <t>2.64 ## 2.18</t>
-  </si>
-  <si>
-    <t>3.45 ## 2.25</t>
-  </si>
-  <si>
-    <t>-1.95 ## 3.59 ## -11.67 ## -6.65 ## 10.91 ## 10.55</t>
-  </si>
-  <si>
-    <t>-0.73 ## 6.36 ## -5.97 ## -5.42 ## 9.58 ## 11.94</t>
-  </si>
-  <si>
-    <t>-0.36 ## 8.85 ## 7.87 ## 21.79 ## 14.51 ## 12.80</t>
-  </si>
-  <si>
-    <t>0.56 ## 10.71 ## 2.66 ## 9.94 ## 14.93 ## 17.16</t>
-  </si>
-  <si>
-    <t>0.99 ## 11.06 ## 0.01 ## 7.25 ## 7.37 ## 9.77</t>
-  </si>
-  <si>
-    <t>0.07 ## 9.88 ## -5.99 ## -1.84 ## 10.07 ## 11.91</t>
-  </si>
-  <si>
-    <t>-0.41 ## 6.63 ## -7.64 ## -1.04 ## 1.53 ## 8.73</t>
-  </si>
-  <si>
-    <t>1.14 ## 7.96 ## -2.67 ## 11.78 ## 6.50 ## 6.04</t>
-  </si>
-  <si>
-    <t>2.53 ## 9.70 ## 0.24 ## 7.66 ## - ## -</t>
-  </si>
-  <si>
-    <t>-0.36 ## 5.72 ## -12.86 ## -7.62 ## 2.16 ## 7.70</t>
-  </si>
-  <si>
-    <t>0.92 ## - ## - ## NaN ## - ## -</t>
-  </si>
-  <si>
-    <t>-2.67 ## 6.88 ## -5.77 ## -2.17 ## - ## -</t>
-  </si>
-  <si>
-    <t>-0.80 ## 8.56 ## -9.70 ## -1.42 ## 1.72 ## 4.11</t>
-  </si>
-  <si>
-    <t>0.56 ## 11.65 ## 0.00 ## 6.70 ## - ## -</t>
-  </si>
-  <si>
-    <t>-0.65 ## 7.35 ## -4.33 ## NaN ## - ## -</t>
-  </si>
-  <si>
-    <t>-0.11 ## 6.02 ## -9.10 ## -2.03 ## 4.24 ## 8.41</t>
-  </si>
-  <si>
-    <t>-0.95 ## 8.18 ## -3.42 ## NaN ## - ## -</t>
-  </si>
-  <si>
-    <t>0.10 ## 8.22 ## -7.77 ## NaN ## - ## -</t>
-  </si>
-  <si>
-    <t>-2.41 ## 3.32 ## -12.35 ## -8.15 ## 2.19 ## 5.31</t>
-  </si>
-  <si>
-    <t>1.67 ## 11.51 ## 1.17 ## NaN ## - ## -</t>
-  </si>
-  <si>
-    <t>0.25 ## 8.06 ## -13.22 ## -20.67 ## -5.72 ## 0.36</t>
-  </si>
-  <si>
-    <t>0.76 ## 12.38 ## 1.18 ## 3.71 ## 4.96 ## 4.11</t>
-  </si>
-  <si>
     <t>- ## 2.11 ## 23.31 ## 74.44 ## 0.14</t>
   </si>
   <si>
@@ -974,69 +689,6 @@
   </si>
   <si>
     <t>- ## - ## 35.34 ## 64.66 ## -</t>
-  </si>
-  <si>
-    <t>6.73 ## 1.86 ## 22.50 ## 67.11 ## 1.80</t>
-  </si>
-  <si>
-    <t>2.35 ## 1.56 ## 34.07 ## 62.02 ## -</t>
-  </si>
-  <si>
-    <t>5.35 ## 1.05 ## 18.37 ## 74.67 ## 0.55</t>
-  </si>
-  <si>
-    <t>- ## - ## 18.90 ## 80.36 ## 0.74</t>
-  </si>
-  <si>
-    <t>5.34 ## 0.98 ## 18.61 ## 75.06 ## -</t>
-  </si>
-  <si>
-    <t>- ## - ## 10.46 ## 89.54 ## -</t>
-  </si>
-  <si>
-    <t>- ## - ## 17.36 ## 80.90 ## 1.74</t>
-  </si>
-  <si>
-    <t>- ## - ## 14.09 ## 85.90 ## 0.00</t>
-  </si>
-  <si>
-    <t>- ## 4.48 ## 20.79 ## 74.73 ## -</t>
-  </si>
-  <si>
-    <t>- ## - ## 8.94 ## 89.94 ## 1.12</t>
-  </si>
-  <si>
-    <t>- ## - ## 37.76 ## 62.24 ## -</t>
-  </si>
-  <si>
-    <t>- ## - ## 43.19 ## 55.99 ## 0.82</t>
-  </si>
-  <si>
-    <t>10.46 ## 5.11 ## 17.61 ## 66.45 ## 0.37</t>
-  </si>
-  <si>
-    <t>12.37 ## 1.96 ## 27.17 ## 58.50 ## -</t>
-  </si>
-  <si>
-    <t>- ## - ## 28.74 ## 71.26 ## -</t>
-  </si>
-  <si>
-    <t>- ## - ## 29.93 ## 69.18 ## 0.89</t>
-  </si>
-  <si>
-    <t>17.40 ## 1.01 ## 14.01 ## 67.58 ## -</t>
-  </si>
-  <si>
-    <t>7.36 ## 9.48 ## 22.98 ## 39.29 ## 20.89</t>
-  </si>
-  <si>
-    <t>- ## - ## 38.56 ## 60.33 ## 1.12</t>
-  </si>
-  <si>
-    <t>S&amp;P BSE 250  Ret</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -1053,7 +705,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1141,7 +793,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
@@ -1151,7 +803,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
@@ -1161,32 +813,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
@@ -1228,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="958">
+  <cellXfs count="617">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
@@ -1520,28 +1147,6 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -1564,50 +1169,6 @@
     <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1762,31 +1323,6 @@
     <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
@@ -1922,271 +1458,21 @@
     <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2504,7 +1790,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="120" zoomScaleNormal="120">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2544,16 +1830,16 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="511">
+      <c r="B2" s="445">
         <v>41.761000000000003</v>
       </c>
-      <c r="C2" s="489">
+      <c r="C2" s="423">
         <v>41.375</v>
       </c>
-      <c r="D2" s="467">
+      <c r="D2" s="401">
         <v>41.369</v>
       </c>
-      <c r="E2" s="313">
+      <c r="E2" s="291">
         <v>41.511000000000003</v>
       </c>
       <c r="F2" s="3">
@@ -2573,16 +1859,16 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="512">
+      <c r="B3" s="446">
         <v>23.864999999999998</v>
       </c>
-      <c r="C3" s="490">
+      <c r="C3" s="424">
         <v>23.626000000000001</v>
       </c>
-      <c r="D3" s="468">
+      <c r="D3" s="402">
         <v>23.564</v>
       </c>
-      <c r="E3" s="314">
+      <c r="E3" s="292">
         <v>23.667999999999999</v>
       </c>
       <c r="F3" s="4">
@@ -2602,16 +1888,16 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="513">
+      <c r="B4" s="447">
         <v>33.590000000000003</v>
       </c>
-      <c r="C4" s="491">
+      <c r="C4" s="425">
         <v>33.369999999999997</v>
       </c>
-      <c r="D4" s="469">
+      <c r="D4" s="403">
         <v>33.369999999999997</v>
       </c>
-      <c r="E4" s="315">
+      <c r="E4" s="293">
         <v>33.6</v>
       </c>
       <c r="F4" s="5">
@@ -2631,16 +1917,16 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="514">
+      <c r="B5" s="448">
         <v>57.983899999999998</v>
       </c>
-      <c r="C5" s="492">
+      <c r="C5" s="426">
         <v>57.825000000000003</v>
       </c>
-      <c r="D5" s="470">
+      <c r="D5" s="404">
         <v>57.925800000000002</v>
       </c>
-      <c r="E5" s="316">
+      <c r="E5" s="294">
         <v>58.237299999999998</v>
       </c>
       <c r="F5" s="6">
@@ -2660,16 +1946,16 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="515">
+      <c r="B6" s="449">
         <v>78.405000000000001</v>
       </c>
-      <c r="C6" s="493">
+      <c r="C6" s="427">
         <v>78.177000000000007</v>
       </c>
-      <c r="D6" s="471">
+      <c r="D6" s="405">
         <v>77.762</v>
       </c>
-      <c r="E6" s="317">
+      <c r="E6" s="295">
         <v>77.738</v>
       </c>
       <c r="F6" s="7">
@@ -2689,16 +1975,16 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="516">
+      <c r="B7" s="450">
         <v>41.041800000000002</v>
       </c>
-      <c r="C7" s="494">
+      <c r="C7" s="428">
         <v>40.822299999999998</v>
       </c>
-      <c r="D7" s="472">
+      <c r="D7" s="406">
         <v>40.823</v>
       </c>
-      <c r="E7" s="318">
+      <c r="E7" s="296">
         <v>40.932200000000002</v>
       </c>
       <c r="F7" s="8">
@@ -2718,16 +2004,16 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="517">
+      <c r="B8" s="451">
         <v>54.317999999999998</v>
       </c>
-      <c r="C8" s="495">
+      <c r="C8" s="429">
         <v>54.094999999999999</v>
       </c>
-      <c r="D8" s="473">
+      <c r="D8" s="407">
         <v>54.097000000000001</v>
       </c>
-      <c r="E8" s="319">
+      <c r="E8" s="297">
         <v>54.262</v>
       </c>
       <c r="F8" s="9">
@@ -2747,16 +2033,16 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="518">
+      <c r="B9" s="452">
         <v>26.57</v>
       </c>
-      <c r="C9" s="496">
+      <c r="C9" s="430">
         <v>26.24</v>
       </c>
-      <c r="D9" s="474">
+      <c r="D9" s="408">
         <v>26.29</v>
       </c>
-      <c r="E9" s="320">
+      <c r="E9" s="298">
         <v>26.34</v>
       </c>
       <c r="F9" s="10">
@@ -2776,16 +2062,16 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="519">
+      <c r="B10" s="453">
         <v>10.835100000000001</v>
       </c>
-      <c r="C10" s="497">
+      <c r="C10" s="431">
         <v>10.7767</v>
       </c>
-      <c r="D10" s="475">
+      <c r="D10" s="409">
         <v>10.7903</v>
       </c>
-      <c r="E10" s="321">
+      <c r="E10" s="299">
         <v>10.860200000000001</v>
       </c>
       <c r="F10" s="11">
@@ -2805,16 +2091,16 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="520">
+      <c r="B11" s="454">
         <v>32.689500000000002</v>
       </c>
-      <c r="C11" s="498">
+      <c r="C11" s="432">
         <v>32.434800000000003</v>
       </c>
-      <c r="D11" s="476">
+      <c r="D11" s="410">
         <v>32.44</v>
       </c>
-      <c r="E11" s="322">
+      <c r="E11" s="300">
         <v>32.596899999999998</v>
       </c>
       <c r="F11" s="12">
@@ -2834,16 +2120,16 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="521">
+      <c r="B12" s="455">
         <v>10.708500000000001</v>
       </c>
-      <c r="C12" s="499">
+      <c r="C12" s="433">
         <v>10.5692</v>
       </c>
-      <c r="D12" s="477">
+      <c r="D12" s="411">
         <v>10.5624</v>
       </c>
-      <c r="E12" s="323">
+      <c r="E12" s="301">
         <v>10.608599999999999</v>
       </c>
       <c r="F12" s="13">
@@ -2860,16 +2146,16 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="522">
+      <c r="B13" s="456">
         <v>9.4700000000000006</v>
       </c>
-      <c r="C13" s="500">
+      <c r="C13" s="434">
         <v>9.42</v>
       </c>
-      <c r="D13" s="478">
+      <c r="D13" s="412">
         <v>9.4600000000000009</v>
       </c>
-      <c r="E13" s="324">
+      <c r="E13" s="302">
         <v>9.49</v>
       </c>
       <c r="F13" s="14">
@@ -2886,16 +2172,16 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="523">
+      <c r="B14" s="457">
         <v>79.118799999999993</v>
       </c>
-      <c r="C14" s="501">
+      <c r="C14" s="435">
         <v>78.604299999999995</v>
       </c>
-      <c r="D14" s="479">
+      <c r="D14" s="413">
         <v>78.655699999999996</v>
       </c>
-      <c r="E14" s="325">
+      <c r="E14" s="303">
         <v>78.649000000000001</v>
       </c>
       <c r="F14" s="15">
@@ -2912,16 +2198,16 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="524">
+      <c r="B15" s="458">
         <v>10.83</v>
       </c>
-      <c r="C15" s="502">
+      <c r="C15" s="436">
         <v>10.76</v>
       </c>
-      <c r="D15" s="480">
+      <c r="D15" s="414">
         <v>10.74</v>
       </c>
-      <c r="E15" s="326">
+      <c r="E15" s="304">
         <v>10.82</v>
       </c>
       <c r="F15" s="16">
@@ -2941,16 +2227,16 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="525">
+      <c r="B16" s="459">
         <v>11.035</v>
       </c>
-      <c r="C16" s="503">
+      <c r="C16" s="437">
         <v>10.977</v>
       </c>
-      <c r="D16" s="481">
+      <c r="D16" s="415">
         <v>10.988</v>
       </c>
-      <c r="E16" s="327">
+      <c r="E16" s="305">
         <v>11.02</v>
       </c>
       <c r="F16" s="17">
@@ -2970,16 +2256,16 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="526">
+      <c r="B17" s="460">
         <v>53.510300000000001</v>
       </c>
-      <c r="C17" s="504">
+      <c r="C17" s="438">
         <v>53.017000000000003</v>
       </c>
-      <c r="D17" s="482">
+      <c r="D17" s="416">
         <v>53.013300000000001</v>
       </c>
-      <c r="E17" s="328">
+      <c r="E17" s="306">
         <v>53.232500000000002</v>
       </c>
       <c r="F17" s="18">
@@ -2999,16 +2285,16 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="527">
+      <c r="B18" s="461">
         <v>10.45</v>
       </c>
-      <c r="C18" s="505">
+      <c r="C18" s="439">
         <v>10.43</v>
       </c>
-      <c r="D18" s="483">
+      <c r="D18" s="417">
         <v>10.42</v>
       </c>
-      <c r="E18" s="329">
+      <c r="E18" s="307">
         <v>10.43</v>
       </c>
       <c r="F18" s="19">
@@ -3025,16 +2311,16 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="528">
+      <c r="B19" s="462">
         <v>9.61</v>
       </c>
-      <c r="C19" s="506">
+      <c r="C19" s="440">
         <v>9.52</v>
       </c>
-      <c r="D19" s="484">
+      <c r="D19" s="418">
         <v>9.5299999999999994</v>
       </c>
-      <c r="E19" s="330">
+      <c r="E19" s="308">
         <v>9.56</v>
       </c>
       <c r="F19" s="20">
@@ -3051,16 +2337,16 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="529">
+      <c r="B20" s="463">
         <v>46.231200000000001</v>
       </c>
-      <c r="C20" s="507">
+      <c r="C20" s="441">
         <v>45.671799999999998</v>
       </c>
-      <c r="D20" s="485">
+      <c r="D20" s="419">
         <v>45.710900000000002</v>
       </c>
-      <c r="E20" s="331">
+      <c r="E20" s="309">
         <v>45.786799999999999</v>
       </c>
       <c r="F20" s="21">
@@ -3077,16 +2363,16 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="530">
+      <c r="B21" s="464">
         <v>10.37</v>
       </c>
-      <c r="C21" s="508">
+      <c r="C21" s="442">
         <v>10.31</v>
       </c>
-      <c r="D21" s="486">
+      <c r="D21" s="420">
         <v>10.29</v>
       </c>
-      <c r="E21" s="332">
+      <c r="E21" s="310">
         <v>10.31</v>
       </c>
       <c r="F21" s="22">
@@ -3103,16 +2389,16 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="531">
+      <c r="B22" s="465">
         <v>41.374699999999997</v>
       </c>
-      <c r="C22" s="509">
+      <c r="C22" s="443">
         <v>41.197499999999998</v>
       </c>
-      <c r="D22" s="487">
+      <c r="D22" s="421">
         <v>41.322600000000001</v>
       </c>
-      <c r="E22" s="333">
+      <c r="E22" s="311">
         <v>41.107599999999998</v>
       </c>
       <c r="F22" s="23">
@@ -3129,16 +2415,16 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="532">
+      <c r="B23" s="466">
         <v>14.52</v>
       </c>
-      <c r="C23" s="510">
+      <c r="C23" s="444">
         <v>14.46</v>
       </c>
-      <c r="D23" s="488">
+      <c r="D23" s="422">
         <v>14.45</v>
       </c>
-      <c r="E23" s="334">
+      <c r="E23" s="312">
         <v>14.52</v>
       </c>
       <c r="F23" s="24">
@@ -3158,476 +2444,228 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92DBDB8-1DF2-D649-874E-7197BBCBAFC8}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="534" width="13.83203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="468" width="13.83203125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="534" t="s">
+      <c r="C1" s="468" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="534" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="468" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="934" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" s="736" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" s="534" t="s">
+      <c r="B2" s="614" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="468" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="534" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="468" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="935" t="s">
-        <v>297</v>
-      </c>
-      <c r="E3" s="737" t="s">
-        <v>297</v>
-      </c>
-      <c r="F3" s="534" t="s">
+      <c r="B3" s="615" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="468" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="534" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="468" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="D4" s="936" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" s="738" t="s">
-        <v>298</v>
-      </c>
-      <c r="F4" s="534" t="s">
+      <c r="B4" s="616" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="468" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="534" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="468" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="D5" s="937" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="739" t="s">
-        <v>299</v>
-      </c>
-      <c r="F5" s="534" t="s">
+      <c r="B5"/>
+      <c r="C5" s="468" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="534" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="468" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="D6" s="938" t="s">
-        <v>300</v>
-      </c>
-      <c r="E6" s="740" t="s">
-        <v>300</v>
-      </c>
-      <c r="F6" s="534" t="s">
+      <c r="B6"/>
+      <c r="C6" s="468" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="534" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="468" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="939" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" s="741" t="s">
-        <v>301</v>
-      </c>
-      <c r="F7" s="534" t="s">
+      <c r="B7"/>
+      <c r="C7" s="468" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="534" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="468" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D8" s="940" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" s="742" t="s">
-        <v>302</v>
-      </c>
-      <c r="F8" s="534" t="s">
+      <c r="B8"/>
+      <c r="C8" s="468" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="534" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="468" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="D9" s="941" t="s">
-        <v>303</v>
-      </c>
-      <c r="E9" s="743" t="s">
-        <v>303</v>
-      </c>
-      <c r="F9" s="534" t="s">
+      <c r="B9"/>
+      <c r="C9" s="468" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="534" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="468" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D10" s="942" t="s">
-        <v>304</v>
-      </c>
-      <c r="E10" s="744" t="s">
-        <v>304</v>
-      </c>
-      <c r="F10" s="534" t="s">
+      <c r="B10"/>
+      <c r="C10" s="468" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="534" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="468" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="D11" s="943" t="s">
-        <v>305</v>
-      </c>
-      <c r="E11" s="745" t="s">
-        <v>305</v>
-      </c>
-      <c r="F11" s="534" t="s">
+      <c r="B11"/>
+      <c r="C11" s="468" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="534" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="468" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="D12" s="944" t="s">
-        <v>306</v>
-      </c>
-      <c r="E12" s="746" t="s">
-        <v>306</v>
-      </c>
-      <c r="F12" s="534" t="s">
+      <c r="B12"/>
+      <c r="C12" s="468" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="534" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="468" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="D13" s="945" t="s">
-        <v>307</v>
-      </c>
-      <c r="E13" s="747" t="s">
-        <v>307</v>
-      </c>
-      <c r="F13" s="534" t="s">
+      <c r="B13"/>
+      <c r="C13" s="468" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="534" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="D14" s="946" t="s">
-        <v>308</v>
-      </c>
-      <c r="E14" s="748" t="s">
-        <v>308</v>
-      </c>
-      <c r="F14" s="534" t="s">
+      <c r="B14"/>
+      <c r="C14" s="468" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="534" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="468" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D15" s="947" t="s">
-        <v>309</v>
-      </c>
-      <c r="E15" s="749" t="s">
-        <v>309</v>
-      </c>
-      <c r="F15" s="534" t="s">
+      <c r="B15"/>
+      <c r="C15" s="468" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="534" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="468" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="D16" s="948" t="s">
-        <v>310</v>
-      </c>
-      <c r="E16" s="750" t="s">
-        <v>310</v>
-      </c>
-      <c r="F16" s="534" t="s">
+      <c r="B16"/>
+      <c r="C16" s="468" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="534" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="468" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>311</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="949" t="s">
-        <v>311</v>
-      </c>
-      <c r="E17" s="751" t="s">
-        <v>311</v>
-      </c>
-      <c r="F17" s="534" t="s">
+      <c r="B17"/>
+      <c r="C17" s="468" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="534" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="468" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>312</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="D18" s="950" t="s">
-        <v>312</v>
-      </c>
-      <c r="E18" s="752" t="s">
-        <v>312</v>
-      </c>
-      <c r="F18" s="534" t="s">
+      <c r="B18"/>
+      <c r="C18" s="468" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="534" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="468" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>313</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="D19" s="951" t="s">
-        <v>313</v>
-      </c>
-      <c r="E19" s="753" t="s">
-        <v>313</v>
-      </c>
-      <c r="F19" s="534" t="s">
+      <c r="B19"/>
+      <c r="C19" s="468" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="534" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="468" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="D20" s="952" t="s">
-        <v>314</v>
-      </c>
-      <c r="E20" s="754" t="s">
-        <v>314</v>
-      </c>
-      <c r="F20" s="534" t="s">
+      <c r="B20"/>
+      <c r="C20" s="468" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="534" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="468" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="D21" s="953" t="s">
-        <v>315</v>
-      </c>
-      <c r="E21" s="755" t="s">
-        <v>315</v>
-      </c>
-      <c r="F21" s="534" t="s">
+      <c r="B21"/>
+      <c r="C21" s="468" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="534" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="468" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>316</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="D22" s="954" t="s">
-        <v>316</v>
-      </c>
-      <c r="E22" s="756" t="s">
-        <v>316</v>
-      </c>
-      <c r="F22" s="534" t="s">
+      <c r="B22"/>
+      <c r="C22" s="468" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="534" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="468" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>317</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="D23" s="955" t="s">
-        <v>317</v>
-      </c>
-      <c r="E23" s="757" t="s">
-        <v>317</v>
-      </c>
-      <c r="F23" s="534" t="s">
+      <c r="B23"/>
+      <c r="C23" s="468" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3641,7 +2679,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3661,7 +2699,7 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>185</v>
@@ -3689,13 +2727,13 @@
       <c r="C2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="758" t="s">
+      <c r="D2" s="535" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="560" t="s">
+      <c r="E2" s="469" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="335" t="s">
+      <c r="F2" s="313" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="137" t="s">
@@ -3715,13 +2753,13 @@
       <c r="C3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="759" t="s">
+      <c r="D3" s="536" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="561" t="s">
+      <c r="E3" s="470" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="336" t="s">
+      <c r="F3" s="314" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="138" t="s">
@@ -3741,13 +2779,13 @@
       <c r="C4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="760" t="s">
+      <c r="D4" s="537" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="562" t="s">
+      <c r="E4" s="471" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="337" t="s">
+      <c r="F4" s="315" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="139" t="s">
@@ -3761,19 +2799,17 @@
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
+      <c r="B5"/>
       <c r="C5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="761" t="s">
+      <c r="D5" s="538" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="563" t="s">
+      <c r="E5" s="472" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="338" t="s">
+      <c r="F5" s="316" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="140" t="s">
@@ -3787,19 +2823,17 @@
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B6"/>
       <c r="C6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="762" t="s">
+      <c r="D6" s="539" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="564" t="s">
+      <c r="E6" s="473" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="339" t="s">
+      <c r="F6" s="317" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="141" t="s">
@@ -3813,19 +2847,17 @@
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B7"/>
       <c r="C7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="763" t="s">
+      <c r="D7" s="540" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="565" t="s">
+      <c r="E7" s="474" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="340" t="s">
+      <c r="F7" s="318" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="142" t="s">
@@ -3839,19 +2871,17 @@
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B8"/>
       <c r="C8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="764" t="s">
+      <c r="D8" s="541" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="566" t="s">
+      <c r="E8" s="475" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="341" t="s">
+      <c r="F8" s="319" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="143" t="s">
@@ -3865,19 +2895,17 @@
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
+      <c r="B9"/>
       <c r="C9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="765" t="s">
+      <c r="D9" s="542" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="567" t="s">
+      <c r="E9" s="476" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="342" t="s">
+      <c r="F9" s="320" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="144" t="s">
@@ -3891,19 +2919,17 @@
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
+      <c r="B10"/>
       <c r="C10" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="766" t="s">
+      <c r="D10" s="543" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="568" t="s">
+      <c r="E10" s="477" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="343" t="s">
+      <c r="F10" s="321" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="145" t="s">
@@ -3917,19 +2943,17 @@
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
+      <c r="B11"/>
       <c r="C11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="767" t="s">
+      <c r="D11" s="544" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="569" t="s">
+      <c r="E11" s="478" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="344" t="s">
+      <c r="F11" s="322" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="146" t="s">
@@ -3943,19 +2967,17 @@
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
+      <c r="B12"/>
       <c r="C12" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="768" t="s">
+      <c r="D12" s="545" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="570" t="s">
+      <c r="E12" s="479" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="345" t="s">
+      <c r="F12" s="323" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="147" t="s">
@@ -3969,19 +2991,17 @@
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
+      <c r="B13"/>
       <c r="C13" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="769" t="s">
+      <c r="D13" s="546" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="571" t="s">
+      <c r="E13" s="480" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="346" t="s">
+      <c r="F13" s="324" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="148" t="s">
@@ -3995,19 +3015,17 @@
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
+      <c r="B14"/>
       <c r="C14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="770" t="s">
+      <c r="D14" s="547" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="572" t="s">
+      <c r="E14" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="347" t="s">
+      <c r="F14" s="325" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="149" t="s">
@@ -4021,19 +3039,17 @@
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="956" t="s">
+      <c r="B15"/>
+      <c r="C15" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="548" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="D15" s="771" t="s">
+      <c r="E15" s="482" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="573" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="348" t="s">
+      <c r="F15" s="326" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="150" t="s">
@@ -4047,19 +3063,17 @@
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B16"/>
       <c r="C16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="772" t="s">
+      <c r="D16" s="549" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="574" t="s">
+      <c r="E16" s="483" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="349" t="s">
+      <c r="F16" s="327" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="151" t="s">
@@ -4073,19 +3087,17 @@
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
+      <c r="B17"/>
       <c r="C17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="773" t="s">
+      <c r="D17" s="550" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="575" t="s">
+      <c r="E17" s="484" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="350" t="s">
+      <c r="F17" s="328" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="152" t="s">
@@ -4099,19 +3111,17 @@
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
+      <c r="B18"/>
       <c r="C18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="774" t="s">
+      <c r="D18" s="551" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="576" t="s">
+      <c r="E18" s="485" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="351" t="s">
+      <c r="F18" s="329" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="153" t="s">
@@ -4125,19 +3135,17 @@
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
+      <c r="B19"/>
       <c r="C19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="775" t="s">
+      <c r="D19" s="552" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="577" t="s">
+      <c r="E19" s="486" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="352" t="s">
+      <c r="F19" s="330" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="154" t="s">
@@ -4151,19 +3159,17 @@
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
+      <c r="B20"/>
       <c r="C20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="776" t="s">
+      <c r="D20" s="553" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="578" t="s">
+      <c r="E20" s="487" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="353" t="s">
+      <c r="F20" s="331" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="155" t="s">
@@ -4177,19 +3183,17 @@
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
+      <c r="B21"/>
       <c r="C21" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="777" t="s">
+      <c r="D21" s="554" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="579" t="s">
+      <c r="E21" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="354" t="s">
+      <c r="F21" s="332" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="156" t="s">
@@ -4203,19 +3207,17 @@
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
+      <c r="B22"/>
       <c r="C22" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="778" t="s">
+      <c r="D22" s="555" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="580" t="s">
+      <c r="E22" s="489" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="355" t="s">
+      <c r="F22" s="333" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="157" t="s">
@@ -4229,19 +3231,17 @@
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
+      <c r="B23"/>
       <c r="C23" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="779" t="s">
+      <c r="D23" s="556" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="581" t="s">
+      <c r="E23" s="490" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="356" t="s">
+      <c r="F23" s="334" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="158" t="s">
@@ -4258,10 +3258,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31A2CC3-117B-3044-9A40-45E232EE90D3}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4274,14 +3274,15 @@
     <col min="6" max="6" customWidth="true" width="10.6640625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="10.6640625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>185</v>
@@ -4290,16 +3291,19 @@
         <v>185</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
@@ -4309,23 +3313,26 @@
       <c r="C2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="780" t="s">
+      <c r="D2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="582" t="s">
+      <c r="E2" s="557" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="357" t="s">
+      <c r="F2" s="491" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="159" t="s">
+      <c r="G2" s="335" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="159" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
@@ -4335,23 +3342,26 @@
       <c r="C3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="781" t="s">
+      <c r="D3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="583" t="s">
+      <c r="E3" s="558" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="358" t="s">
+      <c r="F3" s="492" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="160" t="s">
+      <c r="G3" s="336" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="160" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" s="50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -4361,513 +3371,535 @@
       <c r="C4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="782" t="s">
+      <c r="D4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="584" t="s">
+      <c r="E4" s="559" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="359" t="s">
+      <c r="F4" s="493" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="161" t="s">
+      <c r="G4" s="337" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="161" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" s="51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
+      <c r="B5"/>
       <c r="C5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="783" t="s">
+      <c r="D5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="585" t="s">
+      <c r="E5" s="560" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="360" t="s">
+      <c r="F5" s="494" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="162" t="s">
+      <c r="G5" s="338" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="162" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" s="52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
+      <c r="B6"/>
       <c r="C6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="784" t="s">
+      <c r="D6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="586" t="s">
+      <c r="E6" s="561" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="361" t="s">
+      <c r="F6" s="495" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="163" t="s">
+      <c r="G6" s="339" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="163" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" s="53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
+      <c r="B7"/>
       <c r="C7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="785" t="s">
+      <c r="D7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="587" t="s">
+      <c r="E7" s="562" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="362" t="s">
+      <c r="F7" s="496" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="164" t="s">
+      <c r="G7" s="340" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="164" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
+      <c r="B8"/>
       <c r="C8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="786" t="s">
+      <c r="D8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="588" t="s">
+      <c r="E8" s="563" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="363" t="s">
+      <c r="F8" s="497" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="165" t="s">
+      <c r="G8" s="341" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="165" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" s="55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9"/>
+      <c r="C9" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="E9" s="564" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="787" t="s">
+      <c r="F9" s="498" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="589" t="s">
+      <c r="G9" s="342" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="364" t="s">
+      <c r="H9" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="166" t="s">
+      <c r="I9" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
+      <c r="B10"/>
       <c r="C10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="788" t="s">
+      <c r="D10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="590" t="s">
+      <c r="E10" s="565" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="365" t="s">
+      <c r="F10" s="499" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="167" t="s">
+      <c r="G10" s="343" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="167" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
+      <c r="B11"/>
       <c r="C11" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="789" t="s">
+      <c r="D11" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="591" t="s">
+      <c r="E11" s="566" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="366" t="s">
+      <c r="F11" s="500" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="168" t="s">
+      <c r="G11" s="344" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="168" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I11" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
+      <c r="B12"/>
       <c r="C12" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="790" t="s">
+      <c r="D12" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="592" t="s">
+      <c r="E12" s="567" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="367" t="s">
+      <c r="F12" s="501" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="169" t="s">
+      <c r="G12" s="345" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="169" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I12" s="59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
+      <c r="B13"/>
       <c r="C13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="791" t="s">
+      <c r="D13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="593" t="s">
+      <c r="E13" s="568" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="368" t="s">
+      <c r="F13" s="502" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="170" t="s">
+      <c r="G13" s="346" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="170" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13" s="60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
+      <c r="B14"/>
       <c r="C14" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="792" t="s">
+      <c r="D14" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="594" t="s">
+      <c r="E14" s="569" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="369" t="s">
+      <c r="F14" s="503" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="171" t="s">
+      <c r="G14" s="347" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="171" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I14" s="61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
+      <c r="B15"/>
       <c r="C15" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="793" t="s">
+      <c r="D15" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="595" t="s">
+      <c r="E15" s="570" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="370" t="s">
+      <c r="F15" s="504" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="172" t="s">
+      <c r="G15" s="348" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="172" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
+      <c r="B16"/>
       <c r="C16" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="794" t="s">
+      <c r="D16" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="596" t="s">
+      <c r="E16" s="571" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="371" t="s">
+      <c r="F16" s="505" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="173" t="s">
+      <c r="G16" s="349" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="173" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16" s="63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
+      <c r="B17"/>
       <c r="C17" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="795" t="s">
+      <c r="D17" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="597" t="s">
+      <c r="E17" s="572" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="372" t="s">
+      <c r="F17" s="506" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="174" t="s">
+      <c r="G17" s="350" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="174" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17" s="64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
+      <c r="B18"/>
       <c r="C18" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="796" t="s">
+      <c r="D18" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="598" t="s">
+      <c r="E18" s="573" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="373" t="s">
+      <c r="F18" s="507" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="175" t="s">
+      <c r="G18" s="351" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="65" t="s">
+      <c r="H18" s="175" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I18" s="65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
+      <c r="B19"/>
       <c r="C19" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="797" t="s">
+      <c r="D19" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="599" t="s">
+      <c r="E19" s="574" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="374" t="s">
+      <c r="F19" s="508" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="176" t="s">
+      <c r="G19" s="352" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="176" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I19" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
+      <c r="B20"/>
       <c r="C20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="798" t="s">
+      <c r="D20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="600" t="s">
+      <c r="E20" s="575" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="375" t="s">
+      <c r="F20" s="509" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="177" t="s">
+      <c r="G20" s="353" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="177" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20" s="67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
+      <c r="B21"/>
       <c r="C21" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="799" t="s">
+      <c r="D21" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="601" t="s">
+      <c r="E21" s="576" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="376" t="s">
+      <c r="F21" s="510" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="178" t="s">
+      <c r="G21" s="354" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="68" t="s">
+      <c r="H21" s="178" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I21" s="68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
+      <c r="B22"/>
       <c r="C22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="800" t="s">
+      <c r="D22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="602" t="s">
+      <c r="E22" s="577" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="377" t="s">
+      <c r="F22" s="511" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="179" t="s">
+      <c r="G22" s="355" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="69" t="s">
+      <c r="H22" s="179" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I22" s="69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
+      <c r="B23"/>
       <c r="C23" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="801" t="s">
+      <c r="D23" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="603" t="s">
+      <c r="E23" s="578" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="378" t="s">
+      <c r="F23" s="512" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="180" t="s">
+      <c r="G23" s="356" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="70" t="s">
+      <c r="H23" s="180" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="70" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4878,10 +3910,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7F83E3-8D7E-E84F-B4A5-9AABCBB25C75}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4894,14 +3926,15 @@
     <col min="6" max="6" customWidth="true" width="7.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="7.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>185</v>
@@ -4910,16 +3943,19 @@
         <v>185</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
@@ -4929,23 +3965,26 @@
       <c r="C2" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="802" t="s">
+      <c r="D2" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="604" t="s">
+      <c r="E2" s="579" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="379" t="s">
+      <c r="F2" s="513" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="181" t="s">
+      <c r="G2" s="357" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="25" t="n">
+      <c r="H2" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="25" t="n">
         <v>0.0088</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
@@ -4955,23 +3994,26 @@
       <c r="C3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="803" t="s">
+      <c r="D3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="605" t="s">
+      <c r="E3" s="580" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="380" t="s">
+      <c r="F3" s="514" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="182" t="s">
+      <c r="G3" s="358" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="25" t="n">
+      <c r="H3" s="182" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="25" t="n">
         <v>0.007</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -4981,513 +4023,535 @@
       <c r="C4" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="804" t="s">
+      <c r="D4" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="606" t="s">
+      <c r="E4" s="581" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="381" t="s">
+      <c r="F4" s="515" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="183" t="s">
+      <c r="G4" s="359" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="25" t="n">
+      <c r="H4" s="183" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="25" t="n">
         <v>0.0063</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>124</v>
-      </c>
+      <c r="B5"/>
       <c r="C5" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="805" t="s">
+      <c r="D5" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="607" t="s">
+      <c r="E5" s="582" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="382" t="s">
+      <c r="F5" s="516" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="184" t="s">
+      <c r="G5" s="360" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="25" t="n">
+      <c r="H5" s="184" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="25" t="n">
         <v>0.0103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>125</v>
-      </c>
+      <c r="B6"/>
       <c r="C6" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="806" t="s">
+      <c r="D6" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="608" t="s">
+      <c r="E6" s="583" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="383" t="s">
+      <c r="F6" s="517" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="185" t="s">
+      <c r="G6" s="361" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="25" t="n">
+      <c r="H6" s="185" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="25" t="n">
         <v>0.0092</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>126</v>
-      </c>
+      <c r="B7"/>
       <c r="C7" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="807" t="s">
+      <c r="D7" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="609" t="s">
+      <c r="E7" s="584" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="384" t="s">
+      <c r="F7" s="518" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="186" t="s">
+      <c r="G7" s="362" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="25" t="n">
+      <c r="H7" s="186" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="25" t="n">
         <v>0.0125</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>127</v>
-      </c>
+      <c r="B8"/>
       <c r="C8" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="808" t="s">
+      <c r="D8" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="610" t="s">
+      <c r="E8" s="585" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="385" t="s">
+      <c r="F8" s="519" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="187" t="s">
+      <c r="G8" s="363" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="187" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="25" t="n">
         <v>0.0114</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
+      <c r="B9"/>
       <c r="C9" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="809" t="s">
+      <c r="D9" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="611" t="s">
+      <c r="E9" s="586" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="386" t="s">
+      <c r="F9" s="520" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="188" t="s">
+      <c r="G9" s="364" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="25" t="n">
+      <c r="H9" s="188" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="25" t="n">
         <v>0.0125</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>128</v>
-      </c>
+      <c r="B10"/>
       <c r="C10" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="810" t="s">
+      <c r="D10" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="612" t="s">
+      <c r="E10" s="587" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="387" t="s">
+      <c r="F10" s="521" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="189" t="s">
+      <c r="G10" s="365" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="189" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="25" t="n">
         <v>0.0069</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>129</v>
-      </c>
+      <c r="B11"/>
       <c r="C11" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="811" t="s">
+      <c r="D11" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="613" t="s">
+      <c r="E11" s="588" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="388" t="s">
+      <c r="F11" s="522" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="190" t="s">
+      <c r="G11" s="366" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="190" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="25" t="n">
         <v>0.0121</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>130</v>
-      </c>
+      <c r="B12"/>
       <c r="C12" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="812" t="s">
+      <c r="D12" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="614" t="s">
+      <c r="E12" s="589" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="389" t="s">
+      <c r="F12" s="523" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="191" t="s">
+      <c r="G12" s="367" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="25" t="n">
+      <c r="H12" s="191" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="25" t="n">
         <v>0.0038</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13"/>
       <c r="C13" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="813" t="s">
+      <c r="D13" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="615" t="s">
+      <c r="E13" s="590" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="390" t="s">
+      <c r="F13" s="524" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="192" t="s">
+      <c r="G13" s="368" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="H13" s="192" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="25" t="n">
         <v>0.016</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="957" t="s">
+      <c r="B14"/>
+      <c r="C14" s="601" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="D14" s="25" t="n">
         <v>0.01</v>
       </c>
-      <c r="D14" s="814" t="s">
+      <c r="E14" s="591" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="616" t="s">
+      <c r="F14" s="525" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="391" t="s">
+      <c r="G14" s="369" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="193" t="s">
+      <c r="H14" s="193" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="I14" s="25" t="n">
         <v>0.0144</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>133</v>
-      </c>
+      <c r="B15"/>
       <c r="C15" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="815" t="s">
+      <c r="D15" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="617" t="s">
+      <c r="E15" s="592" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="392" t="s">
+      <c r="F15" s="526" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="194" t="s">
+      <c r="G15" s="370" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="25" t="n">
+      <c r="H15" s="194" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="25" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>125</v>
-      </c>
+      <c r="B16"/>
       <c r="C16" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="816" t="s">
+      <c r="D16" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="618" t="s">
+      <c r="E16" s="593" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="393" t="s">
+      <c r="F16" s="527" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="195" t="s">
+      <c r="G16" s="371" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="25" t="n">
+      <c r="H16" s="195" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="25" t="n">
         <v>0.0092</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>134</v>
-      </c>
+      <c r="B17"/>
       <c r="C17" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="817" t="s">
+      <c r="D17" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="619" t="s">
+      <c r="E17" s="594" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="394" t="s">
+      <c r="F17" s="528" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="196" t="s">
+      <c r="G17" s="372" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="25" t="n">
+      <c r="H17" s="196" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="25" t="n">
         <v>0.0095</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>135</v>
-      </c>
+      <c r="B18"/>
       <c r="C18" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="818" t="s">
+      <c r="D18" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="620" t="s">
+      <c r="E18" s="595" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="395" t="s">
+      <c r="F18" s="529" t="s">
         <v>135</v>
       </c>
-      <c r="G18" s="197" t="s">
+      <c r="G18" s="373" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="25" t="n">
+      <c r="H18" s="197" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="25" t="n">
         <v>0.0078</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>136</v>
-      </c>
+      <c r="B19"/>
       <c r="C19" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="819" t="s">
+      <c r="D19" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="621" t="s">
+      <c r="E19" s="596" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="396" t="s">
+      <c r="F19" s="530" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="198" t="s">
+      <c r="G19" s="374" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="25" t="n">
+      <c r="H19" s="198" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="25" t="n">
         <v>0.0077</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>137</v>
-      </c>
+      <c r="B20"/>
       <c r="C20" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="820" t="s">
+      <c r="D20" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="622" t="s">
+      <c r="E20" s="597" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="397" t="s">
+      <c r="F20" s="531" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="199" t="s">
+      <c r="G20" s="375" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="25" t="n">
+      <c r="H20" s="199" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="25" t="n">
         <v>0.0102</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>138</v>
-      </c>
+      <c r="B21"/>
       <c r="C21" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="821" t="s">
+      <c r="D21" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="623" t="s">
+      <c r="E21" s="598" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="398" t="s">
+      <c r="F21" s="532" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="200" t="s">
+      <c r="G21" s="376" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="25" t="n">
+      <c r="H21" s="200" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="25" t="n">
         <v>0.0071</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>139</v>
-      </c>
+      <c r="B22"/>
       <c r="C22" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="822" t="s">
+      <c r="D22" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="624" t="s">
+      <c r="E22" s="599" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="399" t="s">
+      <c r="F22" s="533" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="201" t="s">
+      <c r="G22" s="377" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="201" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="25" t="n">
         <v>0.0238</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>140</v>
-      </c>
+      <c r="B23"/>
       <c r="C23" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="823" t="s">
+      <c r="D23" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="625" t="s">
+      <c r="E23" s="600" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="400" t="s">
+      <c r="F23" s="534" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="202" t="s">
+      <c r="G23" s="378" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="25" t="n">
+      <c r="H23" s="202" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="25" t="n">
         <v>0.0179</v>
       </c>
     </row>
@@ -5498,7 +4562,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1FCE02-3D0C-1545-8192-6E055D0C99D5}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K1048576"/>
@@ -5509,605 +4573,217 @@
     <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="19.5" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="19.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.5" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="824" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="626" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="401" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="203" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="825" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="627" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="402" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="204" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="826" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="628" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="403" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="205" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5"/>
+      <c r="C5" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="827" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="629" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="404" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="206" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6"/>
+      <c r="C6" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="828" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="630" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="405" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="207" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="75" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7"/>
+      <c r="C7" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="829" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="631" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="406" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="208" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="76" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8"/>
+      <c r="C8" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="830" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="632" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="407" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="209" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="77" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9"/>
+      <c r="C9" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="831" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="633" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="408" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="210" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="78" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10"/>
+      <c r="C10" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="832" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="634" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="409" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="211" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="79" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11"/>
+      <c r="C11" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="833" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="635" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="410" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="212" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="80" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12"/>
+      <c r="C12" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="834" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="636" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="411" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="213" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="81" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13"/>
+      <c r="C13" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="835" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="637" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="412" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="214" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="82" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14"/>
+      <c r="C14" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="836" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="638" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="413" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="215" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="83" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15"/>
+      <c r="C15" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="837" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="639" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="414" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="216" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="84" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16"/>
+      <c r="C16" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="838" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="640" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="415" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="217" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="85" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17"/>
+      <c r="C17" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="839" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="641" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="416" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="218" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="86" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18"/>
+      <c r="C18" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="840" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="642" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="417" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="219" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="87" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19"/>
+      <c r="C19" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="841" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="643" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="418" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="220" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="88" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20"/>
+      <c r="C20" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="842" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="644" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="419" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="221" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="89" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21"/>
+      <c r="C21" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="843" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="645" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="420" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="222" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="90" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22"/>
+      <c r="C22" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="844" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="646" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="421" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="223" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="91" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="845" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="647" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="422" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="224" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="92" t="s">
+      <c r="B23"/>
+      <c r="C23" s="92" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6118,10 +4794,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6044C64-1C8D-2144-BC85-693CF5996D95}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1048576"/>
+      <selection activeCell="D1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6130,604 +4806,286 @@
     <col min="2" max="2" customWidth="true" width="11.6640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="846" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="648" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="423" t="s">
+      <c r="B2" s="602" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="203" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="225" t="s">
+      <c r="D2" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="93" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="847" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="649" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" s="424" t="s">
+      <c r="B3" s="603" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="226" t="s">
+      <c r="D3" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="94" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="848" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="650" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="425" t="s">
+      <c r="B4" s="604" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="205" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="227" t="s">
+      <c r="D4" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="95" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="849" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="651" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" s="426" t="s">
+      <c r="B5"/>
+      <c r="C5" s="206" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="228" t="s">
+      <c r="D5" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="96" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" s="850" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" s="652" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" s="427" t="s">
+      <c r="B6"/>
+      <c r="C6" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="229" t="s">
+      <c r="D6" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="97" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="851" t="s">
-        <v>235</v>
-      </c>
-      <c r="E7" s="653" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" s="428" t="s">
+      <c r="B7"/>
+      <c r="C7" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="230" t="s">
+      <c r="D7" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="98" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="852" t="s">
-        <v>236</v>
-      </c>
-      <c r="E8" s="654" t="s">
-        <v>236</v>
-      </c>
-      <c r="F8" s="429" t="s">
+      <c r="B8"/>
+      <c r="C8" s="209" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="231" t="s">
+      <c r="D8" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="99" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="853" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" s="655" t="s">
-        <v>237</v>
-      </c>
-      <c r="F9" s="430" t="s">
+      <c r="B9"/>
+      <c r="C9" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="232" t="s">
+      <c r="D9" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="100" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="854" t="s">
-        <v>238</v>
-      </c>
-      <c r="E10" s="656" t="s">
-        <v>238</v>
-      </c>
-      <c r="F10" s="431" t="s">
+      <c r="B10"/>
+      <c r="C10" s="211" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="233" t="s">
+      <c r="D10" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="101" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D11" s="855" t="s">
-        <v>239</v>
-      </c>
-      <c r="E11" s="657" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="432" t="s">
+      <c r="B11"/>
+      <c r="C11" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="234" t="s">
+      <c r="D11" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="102" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="856" t="s">
-        <v>240</v>
-      </c>
-      <c r="E12" s="658" t="s">
-        <v>240</v>
-      </c>
-      <c r="F12" s="433" t="s">
+      <c r="B12"/>
+      <c r="C12" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="235" t="s">
+      <c r="D12" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="103" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" s="857" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="659" t="s">
-        <v>241</v>
-      </c>
-      <c r="F13" s="434" t="s">
+      <c r="B13"/>
+      <c r="C13" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="236" t="s">
+      <c r="D13" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="104" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" s="858" t="s">
-        <v>242</v>
-      </c>
-      <c r="E14" s="660" t="s">
-        <v>242</v>
-      </c>
-      <c r="F14" s="435" t="s">
+      <c r="B14"/>
+      <c r="C14" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="237" t="s">
+      <c r="D14" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="105" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="859" t="s">
-        <v>243</v>
-      </c>
-      <c r="E15" s="661" t="s">
-        <v>243</v>
-      </c>
-      <c r="F15" s="436" t="s">
+      <c r="B15"/>
+      <c r="C15" s="216" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="238" t="s">
+      <c r="D15" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="106" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" s="860" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" s="662" t="s">
-        <v>244</v>
-      </c>
-      <c r="F16" s="437" t="s">
+      <c r="B16"/>
+      <c r="C16" s="217" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="239" t="s">
+      <c r="D16" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="107" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="861" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="663" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" s="438" t="s">
+      <c r="B17"/>
+      <c r="C17" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="240" t="s">
+      <c r="D17" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="108" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="862" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="664" t="s">
-        <v>246</v>
-      </c>
-      <c r="F18" s="439" t="s">
+      <c r="B18"/>
+      <c r="C18" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="241" t="s">
+      <c r="D18" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="109" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D19" s="863" t="s">
-        <v>247</v>
-      </c>
-      <c r="E19" s="665" t="s">
-        <v>247</v>
-      </c>
-      <c r="F19" s="440" t="s">
+      <c r="B19"/>
+      <c r="C19" s="220" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="242" t="s">
+      <c r="D19" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="110" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D20" s="864" t="s">
-        <v>248</v>
-      </c>
-      <c r="E20" s="666" t="s">
-        <v>248</v>
-      </c>
-      <c r="F20" s="441" t="s">
+      <c r="B20"/>
+      <c r="C20" s="221" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="243" t="s">
+      <c r="D20" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="111" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D21" s="865" t="s">
-        <v>249</v>
-      </c>
-      <c r="E21" s="667" t="s">
-        <v>249</v>
-      </c>
-      <c r="F21" s="442" t="s">
+      <c r="B21"/>
+      <c r="C21" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="244" t="s">
+      <c r="D21" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="112" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>250</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" s="866" t="s">
-        <v>250</v>
-      </c>
-      <c r="E22" s="668" t="s">
-        <v>250</v>
-      </c>
-      <c r="F22" s="443" t="s">
+      <c r="B22"/>
+      <c r="C22" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="245" t="s">
+      <c r="D22" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="113" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D23" s="867" t="s">
-        <v>251</v>
-      </c>
-      <c r="E23" s="669" t="s">
-        <v>251</v>
-      </c>
-      <c r="F23" s="444" t="s">
+      <c r="B23"/>
+      <c r="C23" s="224" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="246" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="114" t="s">
+      <c r="D23" s="114" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6738,10 +5096,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311CB058-A4EB-6F43-B724-C153741DCABC}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1048576"/>
+      <selection activeCell="B1" sqref="B1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6751,603 +5109,355 @@
     <col min="3" max="3" customWidth="true" width="9.6640625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="868" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="670" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="445" t="s">
+      <c r="B2" s="605" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="379" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="247" t="s">
+      <c r="D2" s="225" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="115" t="s">
+      <c r="E2" s="115" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" s="869" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" s="671" t="s">
-        <v>253</v>
-      </c>
-      <c r="F3" s="446" t="s">
+      <c r="B3" s="606" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="380" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="248" t="s">
+      <c r="D3" s="226" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="E3" s="116" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="D4" s="870" t="s">
-        <v>254</v>
-      </c>
-      <c r="E4" s="672" t="s">
-        <v>254</v>
-      </c>
-      <c r="F4" s="447" t="s">
+      <c r="B4" s="607" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="381" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="249" t="s">
+      <c r="D4" s="227" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="117" t="s">
+      <c r="E4" s="117" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="871" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" s="673" t="s">
-        <v>255</v>
-      </c>
-      <c r="F5" s="448" t="s">
+      <c r="B5"/>
+      <c r="C5" s="382" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="250" t="s">
+      <c r="D5" s="228" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="118" t="s">
+      <c r="E5" s="118" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" s="872" t="s">
-        <v>256</v>
-      </c>
-      <c r="E6" s="674" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" s="449" t="s">
+      <c r="B6"/>
+      <c r="C6" s="383" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="251" t="s">
+      <c r="D6" s="229" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="119" t="s">
+      <c r="E6" s="119" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="873" t="s">
-        <v>257</v>
-      </c>
-      <c r="E7" s="675" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" s="450" t="s">
+      <c r="B7"/>
+      <c r="C7" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="252" t="s">
+      <c r="D7" s="230" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="120" t="s">
+      <c r="E7" s="120" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="874" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" s="676" t="s">
-        <v>258</v>
-      </c>
-      <c r="F8" s="451" t="s">
+      <c r="B8"/>
+      <c r="C8" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="253" t="s">
+      <c r="D8" s="231" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="121" t="s">
+      <c r="E8" s="121" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="875" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="677" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" s="452" t="s">
+      <c r="B9"/>
+      <c r="C9" s="386" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="254" t="s">
+      <c r="D9" s="232" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="122" t="s">
+      <c r="E9" s="122" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="876" t="s">
-        <v>260</v>
-      </c>
-      <c r="E10" s="678" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" s="453" t="s">
+      <c r="B10"/>
+      <c r="C10" s="387" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="255" t="s">
+      <c r="D10" s="233" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="123" t="s">
+      <c r="E10" s="123" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D11" s="877" t="s">
-        <v>261</v>
-      </c>
-      <c r="E11" s="679" t="s">
-        <v>261</v>
-      </c>
-      <c r="F11" s="454" t="s">
+      <c r="B11"/>
+      <c r="C11" s="388" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="256" t="s">
+      <c r="D11" s="234" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="124" t="s">
+      <c r="E11" s="124" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="D12" s="878" t="s">
-        <v>262</v>
-      </c>
-      <c r="E12" s="680" t="s">
-        <v>262</v>
-      </c>
-      <c r="F12" s="455" t="s">
+      <c r="B12"/>
+      <c r="C12" s="389" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="257" t="s">
+      <c r="D12" s="235" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="125" t="s">
+      <c r="E12" s="125" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13" s="879" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" s="681" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" s="456" t="s">
+      <c r="B13"/>
+      <c r="C13" s="390" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="258" t="s">
+      <c r="D13" s="236" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="126" t="s">
+      <c r="E13" s="126" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>264</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14" s="880" t="s">
-        <v>264</v>
-      </c>
-      <c r="E14" s="682" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" s="457" t="s">
+      <c r="B14"/>
+      <c r="C14" s="391" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="259" t="s">
+      <c r="D14" s="237" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="127" t="s">
+      <c r="E14" s="127" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" s="881" t="s">
-        <v>265</v>
-      </c>
-      <c r="E15" s="683" t="s">
-        <v>265</v>
-      </c>
-      <c r="F15" s="458" t="s">
+      <c r="B15"/>
+      <c r="C15" s="392" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="260" t="s">
+      <c r="D15" s="238" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="128" t="s">
+      <c r="E15" s="128" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="D16" s="882" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="684" t="s">
-        <v>266</v>
-      </c>
-      <c r="F16" s="459" t="s">
+      <c r="B16"/>
+      <c r="C16" s="393" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="261" t="s">
+      <c r="D16" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="129" t="s">
+      <c r="E16" s="129" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D17" s="883" t="s">
-        <v>267</v>
-      </c>
-      <c r="E17" s="685" t="s">
-        <v>267</v>
-      </c>
-      <c r="F17" s="460" t="s">
+      <c r="B17"/>
+      <c r="C17" s="394" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="262" t="s">
+      <c r="D17" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="130" t="s">
+      <c r="E17" s="130" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>268</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D18" s="884" t="s">
-        <v>268</v>
-      </c>
-      <c r="E18" s="686" t="s">
-        <v>268</v>
-      </c>
-      <c r="F18" s="461" t="s">
+      <c r="B18"/>
+      <c r="C18" s="395" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="263" t="s">
+      <c r="D18" s="241" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="131" t="s">
+      <c r="E18" s="131" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="D19" s="885" t="s">
-        <v>269</v>
-      </c>
-      <c r="E19" s="687" t="s">
-        <v>269</v>
-      </c>
-      <c r="F19" s="462" t="s">
+      <c r="B19"/>
+      <c r="C19" s="396" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="264" t="s">
+      <c r="D19" s="242" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="132" t="s">
+      <c r="E19" s="132" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>270</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="D20" s="886" t="s">
-        <v>270</v>
-      </c>
-      <c r="E20" s="688" t="s">
-        <v>270</v>
-      </c>
-      <c r="F20" s="463" t="s">
+      <c r="B20"/>
+      <c r="C20" s="397" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="265" t="s">
+      <c r="D20" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="133" t="s">
+      <c r="E20" s="133" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>271</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="887" t="s">
-        <v>271</v>
-      </c>
-      <c r="E21" s="689" t="s">
-        <v>271</v>
-      </c>
-      <c r="F21" s="464" t="s">
+      <c r="B21"/>
+      <c r="C21" s="398" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="266" t="s">
+      <c r="D21" s="244" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="134" t="s">
+      <c r="E21" s="134" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>272</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D22" s="888" t="s">
-        <v>272</v>
-      </c>
-      <c r="E22" s="690" t="s">
-        <v>272</v>
-      </c>
-      <c r="F22" s="465" t="s">
+      <c r="B22"/>
+      <c r="C22" s="399" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="267" t="s">
+      <c r="D22" s="245" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="135" t="s">
+      <c r="E22" s="135" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>273</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="D23" s="889" t="s">
-        <v>273</v>
-      </c>
-      <c r="E23" s="691" t="s">
-        <v>273</v>
-      </c>
-      <c r="F23" s="466" t="s">
+      <c r="B23"/>
+      <c r="C23" s="400" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="268" t="s">
+      <c r="D23" s="246" t="s">
         <v>120</v>
       </c>
-      <c r="H23" s="136" t="s">
+      <c r="E23" s="136" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7358,10 +5468,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E466B42B-1FD8-C746-8F67-0DBD703B7828}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="140" zoomScaleNormal="140">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7369,616 +5479,288 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="43.83203125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="43.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="43.83203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="43.83203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.83203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="43.83203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.83203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="36.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="268"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="246"/>
       <c r="B1" t="s">
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="268" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="890" t="s">
-        <v>274</v>
-      </c>
-      <c r="E2" s="692" t="s">
-        <v>274</v>
-      </c>
-      <c r="F2" s="537" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="535" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="291" t="s">
+      <c r="B2" s="608" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="269" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="269" t="s">
+      <c r="D2" s="247" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="268" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="891" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" s="693" t="s">
-        <v>275</v>
-      </c>
-      <c r="F3" s="538" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="536" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" s="292" t="s">
+      <c r="B3" s="609" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="270" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="270" t="s">
+      <c r="D3" s="248" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="268" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="D4" s="892" t="s">
-        <v>276</v>
-      </c>
-      <c r="E4" s="694" t="s">
-        <v>276</v>
-      </c>
-      <c r="F4" s="539" t="s">
-        <v>188</v>
-      </c>
-      <c r="H4" s="293" t="s">
+      <c r="B4" s="610" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="271" t="s">
         <v>162</v>
       </c>
-      <c r="I4" s="271" t="s">
+      <c r="D4" s="249" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="268" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="D5" s="893" t="s">
-        <v>277</v>
-      </c>
-      <c r="E5" s="695" t="s">
-        <v>277</v>
-      </c>
-      <c r="F5" s="540" t="s">
-        <v>189</v>
-      </c>
-      <c r="H5" s="294" t="s">
+      <c r="B5"/>
+      <c r="C5" s="272" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="272" t="s">
+      <c r="D5" s="250" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="268" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="D6" s="894" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" s="696" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="541" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="295" t="s">
+      <c r="B6"/>
+      <c r="C6" s="273" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="273" t="s">
+      <c r="D6" s="251" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="268" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="246" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="895" t="s">
-        <v>279</v>
-      </c>
-      <c r="E7" s="697" t="s">
-        <v>279</v>
-      </c>
-      <c r="F7" s="542" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="296" t="s">
+      <c r="B7"/>
+      <c r="C7" s="274" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="274" t="s">
+      <c r="D7" s="252" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="268" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="246" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D8" s="896" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="698" t="s">
-        <v>280</v>
-      </c>
-      <c r="F8" s="543" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8" s="297" t="s">
+      <c r="B8"/>
+      <c r="C8" s="275" t="s">
         <v>166</v>
       </c>
-      <c r="I8" s="275" t="s">
+      <c r="D8" s="253" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="268" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="D9" s="897" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" s="699" t="s">
-        <v>281</v>
-      </c>
-      <c r="F9" s="544" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" s="298" t="s">
+      <c r="B9"/>
+      <c r="C9" s="276" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="276" t="s">
+      <c r="D9" s="254" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="268" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="898" t="s">
-        <v>282</v>
-      </c>
-      <c r="E10" s="700" t="s">
-        <v>282</v>
-      </c>
-      <c r="F10" s="545" t="s">
-        <v>194</v>
-      </c>
-      <c r="H10" s="299" t="s">
+      <c r="B10"/>
+      <c r="C10" s="277" t="s">
         <v>168</v>
       </c>
-      <c r="I10" s="277" t="s">
+      <c r="D10" s="255" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="268" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="899" t="s">
-        <v>283</v>
-      </c>
-      <c r="E11" s="701" t="s">
-        <v>283</v>
-      </c>
-      <c r="F11" s="546" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="300" t="s">
+      <c r="B11"/>
+      <c r="C11" s="278" t="s">
         <v>169</v>
       </c>
-      <c r="I11" s="278" t="s">
+      <c r="D11" s="256" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="268" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="900" t="s">
-        <v>284</v>
-      </c>
-      <c r="E12" s="702" t="s">
-        <v>284</v>
-      </c>
-      <c r="F12" s="547" t="s">
-        <v>196</v>
-      </c>
-      <c r="H12" s="301" t="s">
+      <c r="B12"/>
+      <c r="C12" s="279" t="s">
         <v>170</v>
       </c>
-      <c r="I12" s="279" t="s">
+      <c r="D12" s="257" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="268" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="D13" s="901" t="s">
-        <v>285</v>
-      </c>
-      <c r="E13" s="703" t="s">
-        <v>285</v>
-      </c>
-      <c r="F13" s="548" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="302" t="s">
+      <c r="B13"/>
+      <c r="C13" s="280" t="s">
         <v>171</v>
       </c>
-      <c r="I13" s="280" t="s">
+      <c r="D13" s="258" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="268" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" s="902" t="s">
-        <v>286</v>
-      </c>
-      <c r="E14" s="704" t="s">
-        <v>286</v>
-      </c>
-      <c r="F14" s="549" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="303" t="s">
+      <c r="B14"/>
+      <c r="C14" s="281" t="s">
         <v>172</v>
       </c>
-      <c r="I14" s="281" t="s">
+      <c r="D14" s="259" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="268" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>287</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="D15" s="903" t="s">
-        <v>287</v>
-      </c>
-      <c r="E15" s="705" t="s">
-        <v>287</v>
-      </c>
-      <c r="F15" s="550" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="304" t="s">
+      <c r="B15"/>
+      <c r="C15" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="I15" s="282" t="s">
+      <c r="D15" s="260" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="268" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="D16" s="904" t="s">
-        <v>288</v>
-      </c>
-      <c r="E16" s="706" t="s">
-        <v>288</v>
-      </c>
-      <c r="F16" s="551" t="s">
-        <v>200</v>
-      </c>
-      <c r="H16" s="305" t="s">
+      <c r="B16"/>
+      <c r="C16" s="283" t="s">
         <v>174</v>
       </c>
-      <c r="I16" s="283" t="s">
+      <c r="D16" s="261" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="268" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="246" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="D17" s="905" t="s">
-        <v>289</v>
-      </c>
-      <c r="E17" s="707" t="s">
-        <v>289</v>
-      </c>
-      <c r="F17" s="552" t="s">
-        <v>201</v>
-      </c>
-      <c r="H17" s="306" t="s">
+      <c r="B17"/>
+      <c r="C17" s="284" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="284" t="s">
+      <c r="D17" s="262" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="268" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>290</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="D18" s="906" t="s">
-        <v>290</v>
-      </c>
-      <c r="E18" s="708" t="s">
-        <v>290</v>
-      </c>
-      <c r="F18" s="553" t="s">
-        <v>202</v>
-      </c>
-      <c r="H18" s="307" t="s">
+      <c r="B18"/>
+      <c r="C18" s="285" t="s">
         <v>175</v>
       </c>
-      <c r="I18" s="285" t="s">
+      <c r="D18" s="263" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="268" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="D19" s="907" t="s">
-        <v>291</v>
-      </c>
-      <c r="E19" s="709" t="s">
-        <v>291</v>
-      </c>
-      <c r="F19" s="554" t="s">
-        <v>203</v>
-      </c>
-      <c r="H19" s="308" t="s">
+      <c r="B19"/>
+      <c r="C19" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="I19" s="286" t="s">
+      <c r="D19" s="264" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="268" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="246" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="D20" s="908" t="s">
-        <v>292</v>
-      </c>
-      <c r="E20" s="710" t="s">
-        <v>292</v>
-      </c>
-      <c r="F20" s="555" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="309" t="s">
+      <c r="B20"/>
+      <c r="C20" s="287" t="s">
         <v>177</v>
       </c>
-      <c r="I20" s="287" t="s">
+      <c r="D20" s="265" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="268" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="246" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>293</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="D21" s="909" t="s">
-        <v>293</v>
-      </c>
-      <c r="E21" s="711" t="s">
-        <v>293</v>
-      </c>
-      <c r="F21" s="556" t="s">
-        <v>205</v>
-      </c>
-      <c r="H21" s="310" t="s">
+      <c r="B21"/>
+      <c r="C21" s="288" t="s">
         <v>178</v>
       </c>
-      <c r="I21" s="288" t="s">
+      <c r="D21" s="266" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="268" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="246" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>294</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="D22" s="910" t="s">
-        <v>294</v>
-      </c>
-      <c r="E22" s="712" t="s">
-        <v>294</v>
-      </c>
-      <c r="F22" s="557" t="s">
-        <v>206</v>
-      </c>
-      <c r="H22" s="311" t="s">
+      <c r="B22"/>
+      <c r="C22" s="289" t="s">
         <v>179</v>
       </c>
-      <c r="I22" s="289" t="s">
+      <c r="D22" s="267" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="268" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>295</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="D23" s="911" t="s">
-        <v>295</v>
-      </c>
-      <c r="E23" s="713" t="s">
-        <v>295</v>
-      </c>
-      <c r="F23" s="558" t="s">
-        <v>207</v>
-      </c>
-      <c r="H23" s="312" t="s">
+      <c r="B23"/>
+      <c r="C23" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="I23" s="290" t="s">
+      <c r="D23" s="268" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7989,547 +5771,229 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFB690F-C32C-9C46-8852-472D587E1FA2}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="16.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="86.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="86.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="86.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="86.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="86.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="533"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="467"/>
       <c r="B1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="533" t="s">
+      <c r="C1" s="467" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="533" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="467" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="912" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" s="714" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="559" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="533" t="s">
+      <c r="B2" s="611" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="467" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="533" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="467" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="913" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="715" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" s="559" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" s="533" t="s">
+      <c r="B3" s="612" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="467" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="533" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="467" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="914" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="716" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="559" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" s="533" t="s">
+      <c r="B4" s="613" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="467" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="533" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="467" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="915" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5" s="717" t="s">
-        <v>211</v>
-      </c>
-      <c r="F5" s="559" t="s">
-        <v>211</v>
-      </c>
-      <c r="G5" s="533" t="s">
+      <c r="B5"/>
+      <c r="C5" s="467" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="533" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="467" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="916" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="718" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="559" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="533" t="s">
+      <c r="B6"/>
+      <c r="C6" s="467" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="533" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="467" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="917" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="719" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="559" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="533" t="s">
+      <c r="B7"/>
+      <c r="C7" s="467" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="533" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="467" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="918" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="720" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" s="559" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="533" t="s">
+      <c r="B8"/>
+      <c r="C8" s="467" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="533" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="467" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="919" t="s">
-        <v>215</v>
-      </c>
-      <c r="E9" s="721" t="s">
-        <v>215</v>
-      </c>
-      <c r="F9" s="559" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="533" t="s">
+      <c r="B9"/>
+      <c r="C9" s="467" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="533" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="467" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="920" t="s">
-        <v>216</v>
-      </c>
-      <c r="E10" s="722" t="s">
-        <v>216</v>
-      </c>
-      <c r="F10" s="559" t="s">
-        <v>216</v>
-      </c>
-      <c r="G10" s="533" t="s">
+      <c r="B10"/>
+      <c r="C10" s="467" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="533" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="467" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="921" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" s="723" t="s">
-        <v>217</v>
-      </c>
-      <c r="F11" s="559" t="s">
-        <v>217</v>
-      </c>
-      <c r="G11" s="533" t="s">
+      <c r="B11"/>
+      <c r="C11" s="467" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="533" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="467" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" s="922" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="724" t="s">
-        <v>218</v>
-      </c>
-      <c r="F12" s="559" t="s">
-        <v>218</v>
-      </c>
-      <c r="G12" s="533" t="s">
+      <c r="B12"/>
+      <c r="C12" s="467" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="533" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" s="923" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="725" t="s">
-        <v>219</v>
-      </c>
-      <c r="F13" s="559" t="s">
-        <v>219</v>
-      </c>
-      <c r="G13" s="533" t="s">
+      <c r="B13"/>
+      <c r="C13" s="467" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="533" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="467" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="924" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="726" t="s">
-        <v>220</v>
-      </c>
-      <c r="F14" s="559" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="533" t="s">
+      <c r="B14"/>
+      <c r="C14" s="467" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="533" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="467" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" s="925" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="727" t="s">
-        <v>221</v>
-      </c>
-      <c r="F15" s="559" t="s">
-        <v>221</v>
-      </c>
-      <c r="G15" s="533" t="s">
+      <c r="B15"/>
+      <c r="C15" s="467" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="533" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="467" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="926" t="s">
-        <v>222</v>
-      </c>
-      <c r="E16" s="728" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="559" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="533" t="s">
+      <c r="B16"/>
+      <c r="C16" s="467" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="533" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="467" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17" s="927" t="s">
-        <v>223</v>
-      </c>
-      <c r="E17" s="729" t="s">
-        <v>223</v>
-      </c>
-      <c r="F17" s="559" t="s">
-        <v>223</v>
-      </c>
-      <c r="G17" s="533" t="s">
+      <c r="B17"/>
+      <c r="C17" s="467" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="533" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="467" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="928" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="730" t="s">
-        <v>224</v>
-      </c>
-      <c r="F18" s="559" t="s">
-        <v>224</v>
-      </c>
-      <c r="G18" s="533" t="s">
+      <c r="B18"/>
+      <c r="C18" s="467" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="533" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="467" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D19" s="929" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" s="731" t="s">
-        <v>225</v>
-      </c>
-      <c r="F19" s="559" t="s">
-        <v>225</v>
-      </c>
-      <c r="G19" s="533" t="s">
+      <c r="B19"/>
+      <c r="C19" s="467" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="533" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="467" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="930" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="732" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="559" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" s="533" t="s">
+      <c r="B20"/>
+      <c r="C20" s="467" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="533" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="467" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="D21" s="931" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="733" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" s="559" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" s="533" t="s">
+      <c r="B21"/>
+      <c r="C21" s="467" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="533" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="467" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" s="932" t="s">
-        <v>228</v>
-      </c>
-      <c r="E22" s="734" t="s">
-        <v>228</v>
-      </c>
-      <c r="F22" s="559" t="s">
-        <v>228</v>
-      </c>
-      <c r="G22" s="533" t="s">
+      <c r="B22"/>
+      <c r="C22" s="467" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="533" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="467" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>229</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D23" s="933" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" s="735" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" s="559" t="s">
-        <v>229</v>
-      </c>
-      <c r="G23" s="533" t="s">
+      <c r="B23"/>
+      <c r="C23" s="467" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Reports/IndMFData/IndMF_SmallCap.xlsx
+++ b/Reports/IndMFData/IndMF_SmallCap.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6807" uniqueCount="204">
   <si>
     <t>Nov_21</t>
   </si>
@@ -1470,9 +1470,9 @@
     <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2454,14 +2454,26 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="468" width="13.83203125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="468" t="s">
+      <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="468" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2469,10 +2481,19 @@
       <c r="A2" s="468" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="614" t="s">
+      <c r="B2" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="468" t="s">
+      <c r="C2" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="614" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="468" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2480,10 +2501,19 @@
       <c r="A3" s="468" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="615" t="s">
+      <c r="B3" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="468" t="s">
+      <c r="C3" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="615" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="468" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2491,10 +2521,19 @@
       <c r="A4" s="468" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="616" t="s">
+      <c r="B4" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="468" t="s">
+      <c r="C4" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="616" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="468" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2503,7 +2542,10 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="468" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="468" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2512,7 +2554,10 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="468" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="468" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2521,7 +2566,10 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="468" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="468" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2530,7 +2578,10 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="468" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="468" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2539,7 +2590,10 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="468" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="468" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2548,7 +2602,10 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="468" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="468" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2557,7 +2614,10 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="468" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="468" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2566,7 +2626,10 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="468" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="468" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2575,7 +2638,10 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="468" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="468" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2584,7 +2650,10 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="468" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="468" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2593,7 +2662,10 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="468" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="468" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2602,7 +2674,10 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="468" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="468" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2611,7 +2686,10 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="468" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="468" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2620,7 +2698,10 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="468" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="468" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2629,7 +2710,10 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="468" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="468" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2638,7 +2722,10 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="468" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="468" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2647,7 +2734,10 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="468" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="468" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2656,7 +2746,10 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="468" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="468" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2665,7 +2758,10 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="468" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="468" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2692,6 +2788,9 @@
     <col min="6" max="6" customWidth="true" width="25.33203125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2699,7 +2798,7 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>185</v>
@@ -2708,12 +2807,21 @@
         <v>185</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2727,19 +2835,28 @@
       <c r="C2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="535" t="s">
+      <c r="D2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="469" t="s">
+      <c r="E2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="313" t="s">
+      <c r="F2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="137" t="s">
+      <c r="G2" s="535" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="469" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="313" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2753,19 +2870,28 @@
       <c r="C3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="536" t="s">
+      <c r="D3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="470" t="s">
+      <c r="E3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="314" t="s">
+      <c r="F3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="536" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="470" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="314" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="138" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="28" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2779,19 +2905,28 @@
       <c r="C4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="537" t="s">
+      <c r="D4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="471" t="s">
+      <c r="E4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="315" t="s">
+      <c r="F4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="537" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="471" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="315" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2800,22 +2935,25 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="538" t="s">
+      <c r="G5" s="538" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="472" t="s">
+      <c r="H5" s="472" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="316" t="s">
+      <c r="I5" s="316" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="140" t="s">
+      <c r="J5" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="K5" s="30" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2824,22 +2962,25 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="539" t="s">
+      <c r="G6" s="539" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="473" t="s">
+      <c r="H6" s="473" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="317" t="s">
+      <c r="I6" s="317" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="141" t="s">
+      <c r="J6" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="K6" s="31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2848,22 +2989,25 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="540" t="s">
+      <c r="G7" s="540" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="474" t="s">
+      <c r="H7" s="474" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="318" t="s">
+      <c r="I7" s="318" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="142" t="s">
+      <c r="J7" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="K7" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2872,22 +3016,25 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="541" t="s">
+      <c r="G8" s="541" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="475" t="s">
+      <c r="H8" s="475" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="319" t="s">
+      <c r="I8" s="319" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="143" t="s">
+      <c r="J8" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="K8" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2896,22 +3043,25 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="542" t="s">
+      <c r="G9" s="542" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="476" t="s">
+      <c r="H9" s="476" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="320" t="s">
+      <c r="I9" s="320" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="J9" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2920,22 +3070,25 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="543" t="s">
+      <c r="G10" s="543" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="477" t="s">
+      <c r="H10" s="477" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="321" t="s">
+      <c r="I10" s="321" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="145" t="s">
+      <c r="J10" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="K10" s="35" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2944,22 +3097,25 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="544" t="s">
+      <c r="G11" s="544" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="478" t="s">
+      <c r="H11" s="478" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="322" t="s">
+      <c r="I11" s="322" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="146" t="s">
+      <c r="J11" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="K11" s="36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2968,22 +3124,25 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="545" t="s">
+      <c r="G12" s="545" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="479" t="s">
+      <c r="H12" s="479" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="323" t="s">
+      <c r="I12" s="323" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="J12" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="K12" s="37" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2992,22 +3151,25 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="546" t="s">
+      <c r="G13" s="546" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="480" t="s">
+      <c r="H13" s="480" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="324" t="s">
+      <c r="I13" s="324" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="148" t="s">
+      <c r="J13" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="K13" s="38" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3016,22 +3178,25 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="547" t="s">
+      <c r="G14" s="547" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="481" t="s">
+      <c r="H14" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="325" t="s">
+      <c r="I14" s="325" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="149" t="s">
+      <c r="J14" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="K14" s="39" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3040,22 +3205,25 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="548" t="s">
+      <c r="G15" s="548" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="482" t="s">
+      <c r="H15" s="482" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="326" t="s">
+      <c r="I15" s="326" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="150" t="s">
+      <c r="J15" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="K15" s="40" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3064,22 +3232,25 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="549" t="s">
+      <c r="G16" s="549" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="483" t="s">
+      <c r="H16" s="483" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="327" t="s">
+      <c r="I16" s="327" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="151" t="s">
+      <c r="J16" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="K16" s="41" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3088,22 +3259,25 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="550" t="s">
+      <c r="G17" s="550" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="484" t="s">
+      <c r="H17" s="484" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="328" t="s">
+      <c r="I17" s="328" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="152" t="s">
+      <c r="J17" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="K17" s="42" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3112,22 +3286,25 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="551" t="s">
+      <c r="G18" s="551" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="485" t="s">
+      <c r="H18" s="485" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="329" t="s">
+      <c r="I18" s="329" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="153" t="s">
+      <c r="J18" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="K18" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3136,22 +3313,25 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="552" t="s">
+      <c r="G19" s="552" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="486" t="s">
+      <c r="H19" s="486" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="330" t="s">
+      <c r="I19" s="330" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="154" t="s">
+      <c r="J19" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="K19" s="44" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3160,22 +3340,25 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="553" t="s">
+      <c r="G20" s="553" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="487" t="s">
+      <c r="H20" s="487" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="331" t="s">
+      <c r="I20" s="331" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="155" t="s">
+      <c r="J20" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="K20" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3184,22 +3367,25 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="554" t="s">
+      <c r="G21" s="554" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="488" t="s">
+      <c r="H21" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="332" t="s">
+      <c r="I21" s="332" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="156" t="s">
+      <c r="J21" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="K21" s="46" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3208,22 +3394,25 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="555" t="s">
+      <c r="G22" s="555" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="489" t="s">
+      <c r="H22" s="489" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="333" t="s">
+      <c r="I22" s="333" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="157" t="s">
+      <c r="J22" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="47" t="s">
+      <c r="K22" s="47" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3232,22 +3421,25 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="556" t="s">
+      <c r="G23" s="556" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="490" t="s">
+      <c r="H23" s="490" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="334" t="s">
+      <c r="I23" s="334" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="158" t="s">
+      <c r="J23" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="K23" s="48" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3275,6 +3467,9 @@
     <col min="7" max="7" customWidth="true" width="10.6640625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="10.6640625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3282,7 +3477,7 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>185</v>
@@ -3291,15 +3486,24 @@
         <v>185</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3316,19 +3520,28 @@
       <c r="D2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="557" t="s">
+      <c r="E2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="491" t="s">
+      <c r="F2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="335" t="s">
+      <c r="G2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="159" t="s">
+      <c r="H2" s="557" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="491" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="335" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="159" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3345,19 +3558,28 @@
       <c r="D3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="558" t="s">
+      <c r="E3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="492" t="s">
+      <c r="F3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="336" t="s">
+      <c r="G3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="160" t="s">
+      <c r="H3" s="558" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="492" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="336" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="160" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="50" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3374,19 +3596,28 @@
       <c r="D4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="559" t="s">
+      <c r="E4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="493" t="s">
+      <c r="F4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="337" t="s">
+      <c r="G4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="161" t="s">
+      <c r="H4" s="559" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="493" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="337" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="161" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="51" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3395,25 +3626,28 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="560" t="s">
+      <c r="H5" s="560" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="494" t="s">
+      <c r="I5" s="494" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="338" t="s">
+      <c r="J5" s="338" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="162" t="s">
+      <c r="K5" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="L5" s="52" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3422,25 +3656,28 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="561" t="s">
+      <c r="H6" s="561" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="495" t="s">
+      <c r="I6" s="495" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="339" t="s">
+      <c r="J6" s="339" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="163" t="s">
+      <c r="K6" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="L6" s="53" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3449,25 +3686,28 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="562" t="s">
+      <c r="H7" s="562" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="496" t="s">
+      <c r="I7" s="496" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="340" t="s">
+      <c r="J7" s="340" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="164" t="s">
+      <c r="K7" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="L7" s="54" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3476,25 +3716,28 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="563" t="s">
+      <c r="H8" s="563" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="497" t="s">
+      <c r="I8" s="497" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="341" t="s">
+      <c r="J8" s="341" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="165" t="s">
+      <c r="K8" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="L8" s="55" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3503,25 +3746,28 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="564" t="s">
+      <c r="H9" s="564" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="498" t="s">
+      <c r="I9" s="498" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="342" t="s">
+      <c r="J9" s="342" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="166" t="s">
+      <c r="K9" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="L9" s="56" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3530,25 +3776,28 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="565" t="s">
+      <c r="H10" s="565" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="499" t="s">
+      <c r="I10" s="499" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="343" t="s">
+      <c r="J10" s="343" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="167" t="s">
+      <c r="K10" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="L10" s="57" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3557,25 +3806,28 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="566" t="s">
+      <c r="H11" s="566" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="500" t="s">
+      <c r="I11" s="500" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="344" t="s">
+      <c r="J11" s="344" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="168" t="s">
+      <c r="K11" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="L11" s="58" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3584,25 +3836,28 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="567" t="s">
+      <c r="H12" s="567" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="501" t="s">
+      <c r="I12" s="501" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="345" t="s">
+      <c r="J12" s="345" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="169" t="s">
+      <c r="K12" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="L12" s="59" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3611,25 +3866,28 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="568" t="s">
+      <c r="H13" s="568" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="502" t="s">
+      <c r="I13" s="502" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="346" t="s">
+      <c r="J13" s="346" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="170" t="s">
+      <c r="K13" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="L13" s="60" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3638,25 +3896,28 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="569" t="s">
+      <c r="H14" s="569" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="503" t="s">
+      <c r="I14" s="503" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="347" t="s">
+      <c r="J14" s="347" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="171" t="s">
+      <c r="K14" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="L14" s="61" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3665,25 +3926,28 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="570" t="s">
+      <c r="H15" s="570" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="504" t="s">
+      <c r="I15" s="504" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="348" t="s">
+      <c r="J15" s="348" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="172" t="s">
+      <c r="K15" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="62" t="s">
+      <c r="L15" s="62" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3692,25 +3956,28 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="571" t="s">
+      <c r="H16" s="571" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="505" t="s">
+      <c r="I16" s="505" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="349" t="s">
+      <c r="J16" s="349" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="173" t="s">
+      <c r="K16" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="L16" s="63" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3719,25 +3986,28 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="572" t="s">
+      <c r="H17" s="572" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="506" t="s">
+      <c r="I17" s="506" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="350" t="s">
+      <c r="J17" s="350" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="174" t="s">
+      <c r="K17" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="L17" s="64" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3746,25 +4016,28 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="573" t="s">
+      <c r="H18" s="573" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="507" t="s">
+      <c r="I18" s="507" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="351" t="s">
+      <c r="J18" s="351" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="175" t="s">
+      <c r="K18" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="65" t="s">
+      <c r="L18" s="65" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3773,25 +4046,28 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="574" t="s">
+      <c r="H19" s="574" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="508" t="s">
+      <c r="I19" s="508" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="352" t="s">
+      <c r="J19" s="352" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="176" t="s">
+      <c r="K19" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="66" t="s">
+      <c r="L19" s="66" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3800,25 +4076,28 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="575" t="s">
+      <c r="H20" s="575" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="509" t="s">
+      <c r="I20" s="509" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="353" t="s">
+      <c r="J20" s="353" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="177" t="s">
+      <c r="K20" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="67" t="s">
+      <c r="L20" s="67" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3827,25 +4106,28 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="576" t="s">
+      <c r="H21" s="576" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="510" t="s">
+      <c r="I21" s="510" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="354" t="s">
+      <c r="J21" s="354" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="178" t="s">
+      <c r="K21" s="178" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="68" t="s">
+      <c r="L21" s="68" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3854,25 +4136,28 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="577" t="s">
+      <c r="H22" s="577" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="511" t="s">
+      <c r="I22" s="511" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="355" t="s">
+      <c r="J22" s="355" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="179" t="s">
+      <c r="K22" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="69" t="s">
+      <c r="L22" s="69" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3881,25 +4166,28 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="578" t="s">
+      <c r="H23" s="578" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="512" t="s">
+      <c r="I23" s="512" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="356" t="s">
+      <c r="J23" s="356" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="180" t="s">
+      <c r="K23" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="70" t="s">
+      <c r="L23" s="70" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3927,6 +4215,9 @@
     <col min="7" max="7" customWidth="true" width="7.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="7.0" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3934,7 +4225,7 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>185</v>
@@ -3943,15 +4234,24 @@
         <v>185</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3968,19 +4268,28 @@
       <c r="D2" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="579" t="s">
+      <c r="E2" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="513" t="s">
+      <c r="F2" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="357" t="s">
+      <c r="G2" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="181" t="s">
+      <c r="H2" s="579" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="25" t="n">
+      <c r="I2" s="513" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="357" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="25" t="n">
         <v>0.0088</v>
       </c>
     </row>
@@ -3997,19 +4306,28 @@
       <c r="D3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="580" t="s">
+      <c r="E3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="514" t="s">
+      <c r="F3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="358" t="s">
+      <c r="G3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="182" t="s">
+      <c r="H3" s="580" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="25" t="n">
+      <c r="I3" s="514" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="358" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="182" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="25" t="n">
         <v>0.007</v>
       </c>
     </row>
@@ -4026,19 +4344,28 @@
       <c r="D4" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="581" t="s">
+      <c r="E4" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="515" t="s">
+      <c r="F4" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="359" t="s">
+      <c r="G4" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="183" t="s">
+      <c r="H4" s="581" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="25" t="n">
+      <c r="I4" s="515" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="359" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="183" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="25" t="n">
         <v>0.0063</v>
       </c>
     </row>
@@ -4047,25 +4374,28 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="582" t="s">
+      <c r="H5" s="582" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="516" t="s">
+      <c r="I5" s="516" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="360" t="s">
+      <c r="J5" s="360" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="184" t="s">
+      <c r="K5" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="25" t="n">
+      <c r="L5" s="25" t="n">
         <v>0.0103</v>
       </c>
     </row>
@@ -4074,25 +4404,28 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="583" t="s">
+      <c r="H6" s="583" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="517" t="s">
+      <c r="I6" s="517" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="361" t="s">
+      <c r="J6" s="361" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="185" t="s">
+      <c r="K6" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="I6" s="25" t="n">
+      <c r="L6" s="25" t="n">
         <v>0.0092</v>
       </c>
     </row>
@@ -4101,25 +4434,28 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="584" t="s">
+      <c r="H7" s="584" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="518" t="s">
+      <c r="I7" s="518" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="362" t="s">
+      <c r="J7" s="362" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="186" t="s">
+      <c r="K7" s="186" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="25" t="n">
+      <c r="L7" s="25" t="n">
         <v>0.0125</v>
       </c>
     </row>
@@ -4128,25 +4464,28 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="585" t="s">
+      <c r="H8" s="585" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="519" t="s">
+      <c r="I8" s="519" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="363" t="s">
+      <c r="J8" s="363" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="187" t="s">
+      <c r="K8" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="25" t="n">
+      <c r="L8" s="25" t="n">
         <v>0.0114</v>
       </c>
     </row>
@@ -4155,25 +4494,28 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="586" t="s">
+      <c r="H9" s="586" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="520" t="s">
+      <c r="I9" s="520" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="364" t="s">
+      <c r="J9" s="364" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="188" t="s">
+      <c r="K9" s="188" t="s">
         <v>126</v>
       </c>
-      <c r="I9" s="25" t="n">
+      <c r="L9" s="25" t="n">
         <v>0.0125</v>
       </c>
     </row>
@@ -4182,25 +4524,28 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="587" t="s">
+      <c r="H10" s="587" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="521" t="s">
+      <c r="I10" s="521" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="365" t="s">
+      <c r="J10" s="365" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="189" t="s">
+      <c r="K10" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="25" t="n">
+      <c r="L10" s="25" t="n">
         <v>0.0069</v>
       </c>
     </row>
@@ -4209,25 +4554,28 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="588" t="s">
+      <c r="H11" s="588" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="522" t="s">
+      <c r="I11" s="522" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="366" t="s">
+      <c r="J11" s="366" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="190" t="s">
+      <c r="K11" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="25" t="n">
+      <c r="L11" s="25" t="n">
         <v>0.0121</v>
       </c>
     </row>
@@ -4236,25 +4584,28 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="589" t="s">
+      <c r="H12" s="589" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="523" t="s">
+      <c r="I12" s="523" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="367" t="s">
+      <c r="J12" s="367" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="191" t="s">
+      <c r="K12" s="191" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="25" t="n">
+      <c r="L12" s="25" t="n">
         <v>0.0038</v>
       </c>
     </row>
@@ -4263,25 +4614,28 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="590" t="s">
+      <c r="H13" s="590" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="524" t="s">
+      <c r="I13" s="524" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="368" t="s">
+      <c r="J13" s="368" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="192" t="s">
+      <c r="K13" s="192" t="s">
         <v>131</v>
       </c>
-      <c r="I13" s="25" t="n">
+      <c r="L13" s="25" t="n">
         <v>0.016</v>
       </c>
     </row>
@@ -4290,25 +4644,28 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="601" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="601" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="G14" s="25" t="n">
         <v>0.01</v>
       </c>
-      <c r="E14" s="591" t="s">
+      <c r="H14" s="591" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="525" t="s">
+      <c r="I14" s="525" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="369" t="s">
+      <c r="J14" s="369" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="193" t="s">
+      <c r="K14" s="193" t="s">
         <v>132</v>
       </c>
-      <c r="I14" s="25" t="n">
+      <c r="L14" s="25" t="n">
         <v>0.0144</v>
       </c>
     </row>
@@ -4317,25 +4674,28 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="592" t="s">
+      <c r="H15" s="592" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="526" t="s">
+      <c r="I15" s="526" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="370" t="s">
+      <c r="J15" s="370" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="194" t="s">
+      <c r="K15" s="194" t="s">
         <v>133</v>
       </c>
-      <c r="I15" s="25" t="n">
+      <c r="L15" s="25" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -4344,25 +4704,28 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="593" t="s">
+      <c r="H16" s="593" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="527" t="s">
+      <c r="I16" s="527" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="371" t="s">
+      <c r="J16" s="371" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="195" t="s">
+      <c r="K16" s="195" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="25" t="n">
+      <c r="L16" s="25" t="n">
         <v>0.0092</v>
       </c>
     </row>
@@ -4371,25 +4734,28 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="594" t="s">
+      <c r="H17" s="594" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="528" t="s">
+      <c r="I17" s="528" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="372" t="s">
+      <c r="J17" s="372" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="196" t="s">
+      <c r="K17" s="196" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="25" t="n">
+      <c r="L17" s="25" t="n">
         <v>0.0095</v>
       </c>
     </row>
@@ -4398,25 +4764,28 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="595" t="s">
+      <c r="H18" s="595" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="529" t="s">
+      <c r="I18" s="529" t="s">
         <v>135</v>
       </c>
-      <c r="G18" s="373" t="s">
+      <c r="J18" s="373" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="197" t="s">
+      <c r="K18" s="197" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="25" t="n">
+      <c r="L18" s="25" t="n">
         <v>0.0078</v>
       </c>
     </row>
@@ -4425,25 +4794,28 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="596" t="s">
+      <c r="H19" s="596" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="530" t="s">
+      <c r="I19" s="530" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="374" t="s">
+      <c r="J19" s="374" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="198" t="s">
+      <c r="K19" s="198" t="s">
         <v>136</v>
       </c>
-      <c r="I19" s="25" t="n">
+      <c r="L19" s="25" t="n">
         <v>0.0077</v>
       </c>
     </row>
@@ -4452,25 +4824,28 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="597" t="s">
+      <c r="H20" s="597" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="531" t="s">
+      <c r="I20" s="531" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="375" t="s">
+      <c r="J20" s="375" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="199" t="s">
+      <c r="K20" s="199" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="25" t="n">
+      <c r="L20" s="25" t="n">
         <v>0.0102</v>
       </c>
     </row>
@@ -4479,25 +4854,28 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="598" t="s">
+      <c r="H21" s="598" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="532" t="s">
+      <c r="I21" s="532" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="376" t="s">
+      <c r="J21" s="376" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="200" t="s">
+      <c r="K21" s="200" t="s">
         <v>138</v>
       </c>
-      <c r="I21" s="25" t="n">
+      <c r="L21" s="25" t="n">
         <v>0.0071</v>
       </c>
     </row>
@@ -4506,25 +4884,28 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="599" t="s">
+      <c r="H22" s="599" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="533" t="s">
+      <c r="I22" s="533" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="377" t="s">
+      <c r="J22" s="377" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="201" t="s">
+      <c r="K22" s="201" t="s">
         <v>139</v>
       </c>
-      <c r="I22" s="25" t="n">
+      <c r="L22" s="25" t="n">
         <v>0.0238</v>
       </c>
     </row>
@@ -4533,25 +4914,28 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="600" t="s">
+      <c r="H23" s="600" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="534" t="s">
+      <c r="I23" s="534" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="378" t="s">
+      <c r="J23" s="378" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="202" t="s">
+      <c r="K23" s="202" t="s">
         <v>140</v>
       </c>
-      <c r="I23" s="25" t="n">
+      <c r="L23" s="25" t="n">
         <v>0.0179</v>
       </c>
     </row>
@@ -4573,6 +4957,9 @@
     <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="19.5" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -4580,6 +4967,15 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4590,7 +4986,16 @@
       <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="71" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4601,7 +5006,16 @@
       <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="72" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4612,7 +5026,16 @@
       <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="73" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4621,7 +5044,10 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="74" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4630,7 +5056,10 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="75" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4639,7 +5068,10 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="76" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4648,7 +5080,10 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="77" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4657,7 +5092,10 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="78" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4666,7 +5104,10 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="79" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4675,7 +5116,10 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="80" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4684,7 +5128,10 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="81" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4693,7 +5140,10 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="82" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4702,7 +5152,10 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="83" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4711,7 +5164,10 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="84" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4720,7 +5176,10 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="85" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4729,7 +5188,10 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="86" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4738,7 +5200,10 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="87" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4747,7 +5212,10 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="88" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4756,7 +5224,10 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="89" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4765,7 +5236,10 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="90" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4774,7 +5248,10 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="91" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4783,7 +5260,10 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="92" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4806,6 +5286,9 @@
     <col min="2" max="2" customWidth="true" width="11.6640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4813,9 +5296,18 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4823,13 +5315,22 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="602" t="s">
+      <c r="B2" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="602" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="203" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="G2" s="93" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4837,13 +5338,22 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="603" t="s">
+      <c r="B3" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="204" t="s">
+      <c r="C3" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="603" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="G3" s="94" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4851,13 +5361,22 @@
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="604" t="s">
+      <c r="B4" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="205" t="s">
+      <c r="C4" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="604" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="205" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="G4" s="95" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4866,10 +5385,13 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="206" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="206" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="G5" s="96" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4878,10 +5400,13 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="G6" s="97" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4890,10 +5415,13 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="208" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="G7" s="98" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4902,10 +5430,13 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="209" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="G8" s="99" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4914,10 +5445,13 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="210" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="G9" s="100" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4926,10 +5460,13 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="211" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="211" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="G10" s="101" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4938,10 +5475,13 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="212" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="G11" s="102" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4950,10 +5490,13 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="213" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="G12" s="103" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4962,10 +5505,13 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="214" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="G13" s="104" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4974,10 +5520,13 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="215" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="G14" s="105" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4986,10 +5535,13 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="216" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="216" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="106" t="s">
+      <c r="G15" s="106" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4998,10 +5550,13 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="217" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="217" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="G16" s="107" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5010,10 +5565,13 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="218" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="G17" s="108" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5022,10 +5580,13 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="219" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="G18" s="109" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5034,10 +5595,13 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="220" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="220" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="G19" s="110" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5046,10 +5610,13 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="221" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="221" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="G20" s="111" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5058,10 +5625,13 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="222" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="112" t="s">
+      <c r="G21" s="112" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5070,10 +5640,13 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="223" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="113" t="s">
+      <c r="G22" s="113" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5082,10 +5655,13 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="224" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="224" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="G23" s="114" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5109,6 +5685,9 @@
     <col min="3" max="3" customWidth="true" width="9.6640625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5116,12 +5695,21 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5129,16 +5717,25 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="605" t="s">
+      <c r="B2" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="379" t="s">
+      <c r="C2" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="605" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="379" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="225" t="s">
+      <c r="G2" s="225" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="H2" s="115" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5146,16 +5743,25 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="606" t="s">
+      <c r="B3" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="380" t="s">
+      <c r="C3" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="606" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="380" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="226" t="s">
+      <c r="G3" s="226" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="H3" s="116" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5163,16 +5769,25 @@
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="607" t="s">
+      <c r="B4" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="381" t="s">
+      <c r="C4" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="607" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="381" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="227" t="s">
+      <c r="G4" s="227" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="117" t="s">
+      <c r="H4" s="117" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5181,13 +5796,16 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="382" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="382" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="228" t="s">
+      <c r="G5" s="228" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="H5" s="118" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5196,13 +5814,16 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="383" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="383" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="229" t="s">
+      <c r="G6" s="229" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="119" t="s">
+      <c r="H6" s="119" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5211,13 +5832,16 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="384" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="230" t="s">
+      <c r="G7" s="230" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="H7" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5226,13 +5850,16 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="385" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="231" t="s">
+      <c r="G8" s="231" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="H8" s="121" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5241,13 +5868,16 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="386" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="386" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="232" t="s">
+      <c r="G9" s="232" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="H9" s="122" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5256,13 +5886,16 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="387" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="387" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="233" t="s">
+      <c r="G10" s="233" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="H10" s="123" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5271,13 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="388" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="388" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="234" t="s">
+      <c r="G11" s="234" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="H11" s="124" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5286,13 +5922,16 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="389" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="389" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="235" t="s">
+      <c r="G12" s="235" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="125" t="s">
+      <c r="H12" s="125" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5301,13 +5940,16 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="390" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="390" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="236" t="s">
+      <c r="G13" s="236" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="126" t="s">
+      <c r="H13" s="126" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5316,13 +5958,16 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="391" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="391" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="237" t="s">
+      <c r="G14" s="237" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="127" t="s">
+      <c r="H14" s="127" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5331,13 +5976,16 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="392" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="392" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="238" t="s">
+      <c r="G15" s="238" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="128" t="s">
+      <c r="H15" s="128" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5346,13 +5994,16 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="393" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="393" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="239" t="s">
+      <c r="G16" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="129" t="s">
+      <c r="H16" s="129" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5361,13 +6012,16 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="394" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="394" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="240" t="s">
+      <c r="G17" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="130" t="s">
+      <c r="H17" s="130" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5376,13 +6030,16 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="395" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="395" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="241" t="s">
+      <c r="G18" s="241" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="131" t="s">
+      <c r="H18" s="131" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5391,13 +6048,16 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="396" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="396" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="242" t="s">
+      <c r="G19" s="242" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="132" t="s">
+      <c r="H19" s="132" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5406,13 +6066,16 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="397" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="397" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="243" t="s">
+      <c r="G20" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="133" t="s">
+      <c r="H20" s="133" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5421,13 +6084,16 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="398" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="398" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="244" t="s">
+      <c r="G21" s="244" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="134" t="s">
+      <c r="H21" s="134" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5436,13 +6102,16 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="399" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="399" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="245" t="s">
+      <c r="G22" s="245" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="135" t="s">
+      <c r="H22" s="135" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5451,13 +6120,16 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="400" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="400" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="246" t="s">
+      <c r="G23" s="246" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="136" t="s">
+      <c r="H23" s="136" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5479,7 +6151,10 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="43.83203125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="43.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -5488,9 +6163,18 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5498,13 +6182,22 @@
       <c r="A2" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="608" t="s">
+      <c r="B2" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="269" t="s">
+      <c r="C2" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="608" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="269" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="247" t="s">
+      <c r="G2" s="247" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5512,13 +6205,22 @@
       <c r="A3" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="609" t="s">
+      <c r="B3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="270" t="s">
+      <c r="C3" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="609" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="270" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="248" t="s">
+      <c r="G3" s="248" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5526,13 +6228,22 @@
       <c r="A4" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="610" t="s">
+      <c r="B4" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="271" t="s">
+      <c r="C4" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="610" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="271" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="249" t="s">
+      <c r="G4" s="249" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5541,10 +6252,13 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="272" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="272" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="250" t="s">
+      <c r="G5" s="250" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5553,10 +6267,13 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="273" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="273" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="251" t="s">
+      <c r="G6" s="251" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5565,10 +6282,13 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="274" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="274" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="252" t="s">
+      <c r="G7" s="252" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5577,10 +6297,13 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="275" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="275" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="253" t="s">
+      <c r="G8" s="253" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5589,10 +6312,13 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="276" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="276" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="254" t="s">
+      <c r="G9" s="254" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5601,10 +6327,13 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="277" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="277" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="255" t="s">
+      <c r="G10" s="255" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5613,10 +6342,13 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="278" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="278" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="256" t="s">
+      <c r="G11" s="256" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5625,10 +6357,13 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="279" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="279" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="257" t="s">
+      <c r="G12" s="257" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5637,10 +6372,13 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="280" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="280" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="258" t="s">
+      <c r="G13" s="258" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5649,10 +6387,13 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="281" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="281" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="259" t="s">
+      <c r="G14" s="259" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5661,10 +6402,13 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="282" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="260" t="s">
+      <c r="G15" s="260" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5673,10 +6417,13 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="283" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="283" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="261" t="s">
+      <c r="G16" s="261" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5685,10 +6432,13 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="284" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="284" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="262" t="s">
+      <c r="G17" s="262" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5697,10 +6447,13 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="285" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="285" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="263" t="s">
+      <c r="G18" s="263" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5709,10 +6462,13 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="286" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="264" t="s">
+      <c r="G19" s="264" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5721,10 +6477,13 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="287" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="287" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="265" t="s">
+      <c r="G20" s="265" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5733,10 +6492,13 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="288" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="288" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="266" t="s">
+      <c r="G21" s="266" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5745,10 +6507,13 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="289" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="289" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="267" t="s">
+      <c r="G22" s="267" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5757,10 +6522,13 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="290" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="268" t="s">
+      <c r="G23" s="268" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5782,6 +6550,9 @@
     <col min="1" max="1" customWidth="true" width="16.83203125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -5789,7 +6560,16 @@
       <c r="B1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="467" t="s">
+      <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="467" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5797,10 +6577,19 @@
       <c r="A2" s="467" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="611" t="s">
+      <c r="B2" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="467" t="s">
+      <c r="C2" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="611" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="467" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5808,10 +6597,19 @@
       <c r="A3" s="467" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="612" t="s">
+      <c r="B3" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="467" t="s">
+      <c r="C3" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="612" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="467" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5819,10 +6617,19 @@
       <c r="A4" s="467" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="613" t="s">
+      <c r="B4" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="467" t="s">
+      <c r="C4" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="613" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="467" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5831,7 +6638,10 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="467" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="467" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5840,7 +6650,10 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="467" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="467" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5849,7 +6662,10 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="467" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="467" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5858,7 +6674,10 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="467" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="467" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5867,7 +6686,10 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="467" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="467" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5876,7 +6698,10 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="467" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="467" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5885,7 +6710,10 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="467" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="467" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5894,7 +6722,10 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="467" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="467" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5903,7 +6734,10 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="467" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="467" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5912,7 +6746,10 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="467" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="467" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5921,7 +6758,10 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="467" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="467" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5930,7 +6770,10 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="467" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="467" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5939,7 +6782,10 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="467" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="467" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5948,7 +6794,10 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="467" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="467" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5957,7 +6806,10 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="467" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="467" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5966,7 +6818,10 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="467" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="467" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5975,7 +6830,10 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="467" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="467" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5984,7 +6842,10 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="467" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="467" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5993,7 +6854,10 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="467" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="467" t="s">
         <v>54</v>
       </c>
     </row>
